--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3725,7 +3725,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G93" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H93" s="1" t="n">
         <x:v>1</x:v>
@@ -3734,7 +3734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J93" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:10">
@@ -3789,7 +3789,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G95" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H95" s="1" t="n">
         <x:v>2</x:v>
@@ -3798,7 +3798,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J95" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:10">
@@ -12586,7 +12586,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F370" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G370" s="1" t="n">
         <x:v>1</x:v>
@@ -12598,7 +12598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J370" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:10">
@@ -12618,7 +12618,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F371" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G371" s="1" t="n">
         <x:v>4</x:v>
@@ -12630,7 +12630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J371" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:10">
@@ -12772,7 +12772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D376" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E376" s="1" t="n">
         <x:v>5</x:v>
@@ -12790,7 +12790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J376" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="377" spans="1:10">
@@ -12804,7 +12804,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D377" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E377" s="1" t="n">
         <x:v>7</x:v>
@@ -12822,7 +12822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J377" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="378" spans="1:10">
@@ -12845,7 +12845,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
         <x:v>14</x:v>
@@ -12854,7 +12854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J378" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:10">
@@ -12909,7 +12909,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
         <x:v>38</x:v>
@@ -12918,7 +12918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J380" s="0" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:10">
@@ -17261,7 +17261,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="G516" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H516" s="1" t="n">
         <x:v>87</x:v>
@@ -17270,7 +17270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J516" s="0" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:10">
@@ -17293,7 +17293,7 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="G517" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H517" s="1" t="n">
         <x:v>105</x:v>
@@ -17302,7 +17302,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J517" s="0" t="n">
-        <x:v>912</x:v>
+        <x:v>913</x:v>
       </x:c>
     </x:row>
     <x:row r="518" spans="1:10">
@@ -17546,7 +17546,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F525" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G525" s="1" t="n">
         <x:v>27</x:v>
@@ -17558,7 +17558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J525" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="526" spans="1:10">
@@ -17578,7 +17578,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F526" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G526" s="1" t="n">
         <x:v>33</x:v>
@@ -17590,7 +17590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J526" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="527" spans="1:10">
@@ -17639,7 +17639,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E528" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F528" s="1" t="n">
         <x:v>169</x:v>
@@ -17654,7 +17654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J528" s="0" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="529" spans="1:10">
@@ -17671,7 +17671,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E529" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F529" s="1" t="n">
         <x:v>225</x:v>
@@ -17686,7 +17686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J529" s="0" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="530" spans="1:10">
@@ -18148,7 +18148,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D544" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E544" s="1" t="n">
         <x:v>128</x:v>
@@ -18160,13 +18160,13 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="H544" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I544" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J544" s="0" t="n">
-        <x:v>601</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:10">
@@ -18180,7 +18180,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D545" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E545" s="1" t="n">
         <x:v>235</x:v>
@@ -18192,13 +18192,13 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="H545" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I545" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J545" s="0" t="n">
-        <x:v>1039</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:10">
@@ -18320,13 +18320,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H549" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I549" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J549" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:10">
@@ -18352,13 +18352,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H550" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I550" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J550" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:10">
@@ -18468,7 +18468,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D554" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E554" s="1" t="n">
         <x:v>7</x:v>
@@ -18486,7 +18486,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J554" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:10">
@@ -18500,7 +18500,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D555" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E555" s="1" t="n">
         <x:v>7</x:v>
@@ -18518,7 +18518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J555" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:10">
@@ -19853,7 +19853,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
         <x:v>1</x:v>
@@ -19862,7 +19862,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -19882,7 +19882,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F598" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G598" s="1" t="n">
         <x:v>6</x:v>
@@ -19894,7 +19894,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J598" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:10">
@@ -19914,10 +19914,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F599" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G599" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H599" s="1" t="n">
         <x:v>5</x:v>
@@ -19926,7 +19926,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J599" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:10">
@@ -24356,7 +24356,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D738" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E738" s="1" t="n">
         <x:v>0</x:v>
@@ -24374,7 +24374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J738" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="739" spans="1:10">
@@ -24420,7 +24420,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D740" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E740" s="1" t="n">
         <x:v>2</x:v>
@@ -24438,7 +24438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J740" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="741" spans="1:10">
@@ -29066,7 +29066,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>1</x:v>
@@ -29078,7 +29078,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29098,7 +29098,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F886" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G886" s="1" t="n">
         <x:v>1</x:v>
@@ -29110,7 +29110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J886" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="887" spans="1:10">
@@ -32720,13 +32720,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H999" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I999" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J999" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1000" spans="1:10">
@@ -32784,13 +32784,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H1001" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1001" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1001" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1002" spans="1:10">
@@ -33005,7 +33005,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1008" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1008" s="1" t="n">
         <x:v>3</x:v>
@@ -33014,7 +33014,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1008" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1009" spans="1:10">
@@ -33037,7 +33037,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1009" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1009" s="1" t="n">
         <x:v>4</x:v>
@@ -33046,7 +33046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1009" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1010" spans="1:10">
@@ -33776,13 +33776,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1032" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1033" spans="1:10">
@@ -33808,13 +33808,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1033" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1034" spans="1:10">
@@ -36132,7 +36132,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1106" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1106" s="1" t="n">
         <x:v>53</x:v>
@@ -36141,7 +36141,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="G1106" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H1106" s="1" t="n">
         <x:v>43</x:v>
@@ -36150,7 +36150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1106" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="1107" spans="1:10">
@@ -36164,7 +36164,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1107" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1107" s="1" t="n">
         <x:v>74</x:v>
@@ -36173,7 +36173,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="G1107" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H1107" s="1" t="n">
         <x:v>56</x:v>
@@ -36182,7 +36182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1107" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="1108" spans="1:10">
@@ -36772,7 +36772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1126" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1126" s="1" t="n">
         <x:v>2</x:v>
@@ -36790,7 +36790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1126" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1127" spans="1:10">
@@ -36804,7 +36804,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1127" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1127" s="1" t="n">
         <x:v>3</x:v>
@@ -36822,7 +36822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1127" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1128" spans="1:10">
@@ -36909,7 +36909,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G1130" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H1130" s="1" t="n">
         <x:v>18</x:v>
@@ -36918,7 +36918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1130" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="1131" spans="1:10">
@@ -36973,7 +36973,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="G1132" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H1132" s="1" t="n">
         <x:v>53</x:v>
@@ -36982,7 +36982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1132" s="0" t="n">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="1133" spans="1:10">
@@ -37098,7 +37098,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1136" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1136" s="1" t="n">
         <x:v>2</x:v>
@@ -37110,7 +37110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1136" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1137" spans="1:10">
@@ -37130,7 +37130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1137" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1137" s="1" t="n">
         <x:v>2</x:v>
@@ -37142,7 +37142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1137" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1138" spans="1:10">
@@ -37389,7 +37389,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G1145" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1145" s="1" t="n">
         <x:v>3</x:v>
@@ -37398,7 +37398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1145" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="1146" spans="1:10">
@@ -37421,7 +37421,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G1146" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1146" s="1" t="n">
         <x:v>3</x:v>
@@ -37430,7 +37430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1146" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="1147" spans="1:10">
@@ -41869,7 +41869,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1285" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1285" s="1" t="n">
         <x:v>7</x:v>
@@ -41878,7 +41878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1285" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1286" spans="1:10">
@@ -41901,7 +41901,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1286" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1286" s="1" t="n">
         <x:v>8</x:v>
@@ -41910,7 +41910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1286" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1287" spans="1:10">
@@ -42189,7 +42189,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1295" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1295" s="1" t="n">
         <x:v>0</x:v>
@@ -42198,7 +42198,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1295" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1296" spans="1:10">
@@ -42221,7 +42221,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1296" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1296" s="1" t="n">
         <x:v>0</x:v>
@@ -42230,7 +42230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1296" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1297" spans="1:10">
@@ -44912,13 +44912,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H1380" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1380" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1380" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1381" spans="1:10">
@@ -44944,13 +44944,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H1381" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1381" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1381" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="1382" spans="1:10">
@@ -44976,13 +44976,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H1382" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1382" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1382" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="1383" spans="1:10">
@@ -45965,7 +45965,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1413" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1413" s="1" t="n">
         <x:v>0</x:v>
@@ -45974,7 +45974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1413" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1414" spans="1:10">
@@ -45997,7 +45997,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1414" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1414" s="1" t="n">
         <x:v>1</x:v>
@@ -46006,7 +46006,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1414" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1415" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -751,7 +751,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J1689"/>
+  <x:dimension ref="A1:J1691"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1389,16 +1389,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
@@ -1418,7 +1418,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>47</x:v>
@@ -1430,7 +1430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
@@ -1450,19 +1450,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
@@ -1898,7 +1898,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>13</x:v>
@@ -1910,7 +1910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1930,7 +1930,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>16</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2122,7 +2122,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>60</x:v>
@@ -2134,7 +2134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10">
@@ -2154,7 +2154,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>114</x:v>
@@ -2166,7 +2166,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
@@ -12266,7 +12266,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F360" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G360" s="1" t="n">
         <x:v>17</x:v>
@@ -12278,7 +12278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J360" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:10">
@@ -12330,7 +12330,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F362" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G362" s="1" t="n">
         <x:v>76</x:v>
@@ -12342,7 +12342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J362" s="0" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="363" spans="1:10">
@@ -32778,7 +32778,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1001" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1001" s="1" t="n">
         <x:v>7</x:v>
@@ -32790,7 +32790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1001" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="1002" spans="1:10">
@@ -32810,7 +32810,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1002" s="1" t="n">
         <x:v>11</x:v>
@@ -32822,7 +32822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1002" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1003" spans="1:10">
@@ -39332,7 +39332,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1206" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1206" s="1" t="n">
         <x:v>3</x:v>
@@ -39350,7 +39350,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1206" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1207" spans="1:10">
@@ -39396,7 +39396,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1208" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1208" s="1" t="n">
         <x:v>3</x:v>
@@ -39414,7 +39414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1208" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="1209" spans="1:10">
@@ -42381,7 +42381,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1301" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1301" s="1" t="n">
         <x:v>0</x:v>
@@ -42390,7 +42390,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1301" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1302" spans="1:10">
@@ -42413,7 +42413,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1302" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1302" s="1" t="n">
         <x:v>0</x:v>
@@ -42422,7 +42422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1302" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1303" spans="1:10">
@@ -42445,7 +42445,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1303" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1303" s="1" t="n">
         <x:v>0</x:v>
@@ -42454,7 +42454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1303" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1304" spans="1:10">
@@ -48522,7 +48522,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1493" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1493" s="1" t="n">
         <x:v>1</x:v>
@@ -48534,7 +48534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1493" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1494" spans="1:10">
@@ -48554,7 +48554,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1494" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1494" s="1" t="n">
         <x:v>1</x:v>
@@ -48566,7 +48566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1494" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1495" spans="1:10">
@@ -48705,7 +48705,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1499" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1499" s="1" t="n">
         <x:v>0</x:v>
@@ -48737,7 +48737,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1500" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1500" s="1" t="n">
         <x:v>0</x:v>
@@ -48766,13 +48766,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1501" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1501" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1501" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1501" s="1" t="n">
         <x:v>0</x:v>
@@ -48781,7 +48781,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1501" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1501" s="1" t="n">
         <x:v>0</x:v>
@@ -48790,7 +48790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1501" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1502" spans="1:10">
@@ -48801,7 +48801,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C1502" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1502" s="1" t="n">
         <x:v>1</x:v>
@@ -48830,13 +48830,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1503" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1503" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1503" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1503" s="1" t="n">
         <x:v>0</x:v>
@@ -48845,16 +48845,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1503" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1503" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1503" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1503" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1504" spans="1:10">
@@ -48865,28 +48865,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1504" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1504" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1504" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1504" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1504" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1504" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1504" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1504" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1505" spans="1:10">
@@ -48897,7 +48897,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1505" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1505" s="1" t="n">
         <x:v>1</x:v>
@@ -48909,16 +48909,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1505" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1505" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1505" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1505" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1506" spans="1:10">
@@ -48926,31 +48926,31 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1506" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1506" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1506" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1506" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1506" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1506" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1506" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1506" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1506" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1507" spans="1:10">
@@ -48961,7 +48961,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1507" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1507" s="1" t="n">
         <x:v>0</x:v>
@@ -48990,10 +48990,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1508" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1508" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1508" s="1" t="n">
         <x:v>0</x:v>
@@ -49025,7 +49025,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1509" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1509" s="1" t="n">
         <x:v>0</x:v>
@@ -49054,16 +49054,16 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1510" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1510" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1510" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1510" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1510" s="1" t="n">
         <x:v>0</x:v>
@@ -49089,7 +49089,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1511" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1511" s="1" t="n">
         <x:v>1</x:v>
@@ -49098,7 +49098,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1511" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1511" s="1" t="n">
         <x:v>0</x:v>
@@ -49110,15 +49110,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1511" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1512" spans="1:10">
       <x:c r="A1512" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B1512" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1512" s="1" t="s">
         <x:v>13</x:v>
@@ -49130,10 +49130,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1512" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1512" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1512" s="1" t="n">
         <x:v>0</x:v>
@@ -49147,25 +49147,25 @@
     </x:row>
     <x:row r="1513" spans="1:10">
       <x:c r="A1513" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B1513" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1513" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1513" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1513" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1513" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1513" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1513" s="1" t="n">
         <x:v>0</x:v>
@@ -49174,7 +49174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1513" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1514" spans="1:10">
@@ -49182,13 +49182,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1514" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1514" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1514" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1514" s="1" t="n">
         <x:v>0</x:v>
@@ -49206,7 +49206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1514" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1515" spans="1:10">
@@ -49214,19 +49214,19 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1515" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1515" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1515" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1515" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1515" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1515" s="1" t="n">
         <x:v>1</x:v>
@@ -49238,7 +49238,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1515" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1516" spans="1:10">
@@ -49249,19 +49249,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1516" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1516" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1516" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1516" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1516" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1516" s="1" t="n">
         <x:v>0</x:v>
@@ -49270,7 +49270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1516" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1517" spans="1:10">
@@ -49278,22 +49278,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1517" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1517" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1517" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1517" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1517" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1517" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1517" s="1" t="n">
         <x:v>0</x:v>
@@ -49302,7 +49302,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1517" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1518" spans="1:10">
@@ -49310,22 +49310,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1518" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1518" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1518" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1518" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1518" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1518" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1518" s="1" t="n">
         <x:v>0</x:v>
@@ -49334,7 +49334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1518" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1519" spans="1:10">
@@ -49345,7 +49345,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1519" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1519" s="1" t="n">
         <x:v>0</x:v>
@@ -49354,7 +49354,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1519" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1519" s="1" t="n">
         <x:v>0</x:v>
@@ -49366,7 +49366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1519" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1520" spans="1:10">
@@ -49374,10 +49374,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1520" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1520" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1520" s="1" t="n">
         <x:v>0</x:v>
@@ -49386,10 +49386,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1520" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1520" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1520" s="1" t="n">
         <x:v>0</x:v>
@@ -49406,10 +49406,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1521" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1521" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1521" s="1" t="n">
         <x:v>0</x:v>
@@ -49418,7 +49418,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1521" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1521" s="1" t="n">
         <x:v>0</x:v>
@@ -49430,7 +49430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1521" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1522" spans="1:10">
@@ -49441,13 +49441,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1522" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1522" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1522" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1522" s="1" t="n">
         <x:v>0</x:v>
@@ -49462,7 +49462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1522" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1523" spans="1:10">
@@ -49470,22 +49470,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1523" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1523" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1523" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1523" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1523" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1523" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1523" s="1" t="n">
         <x:v>0</x:v>
@@ -49494,7 +49494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1523" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1524" spans="1:10">
@@ -49502,22 +49502,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1524" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1524" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1524" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1524" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1524" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1524" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1524" s="1" t="n">
         <x:v>0</x:v>
@@ -49526,7 +49526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1524" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1525" spans="1:10">
@@ -49534,22 +49534,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1525" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1525" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1525" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1525" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1525" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1525" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1525" s="1" t="n">
         <x:v>0</x:v>
@@ -49558,7 +49558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1525" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1526" spans="1:10">
@@ -49566,22 +49566,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1526" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1526" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1526" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1526" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1526" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1526" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1526" s="1" t="n">
         <x:v>0</x:v>
@@ -49590,7 +49590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1526" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1527" spans="1:10">
@@ -49598,10 +49598,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1527" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1527" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1527" s="1" t="n">
         <x:v>0</x:v>
@@ -49613,7 +49613,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1527" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1527" s="1" t="n">
         <x:v>0</x:v>
@@ -49622,7 +49622,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1527" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1528" spans="1:10">
@@ -49630,10 +49630,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1528" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1528" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1528" s="1" t="n">
         <x:v>0</x:v>
@@ -49642,10 +49642,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1528" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1528" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1528" s="1" t="n">
         <x:v>0</x:v>
@@ -49654,7 +49654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1528" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1529" spans="1:10">
@@ -49665,7 +49665,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1529" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1529" s="1" t="n">
         <x:v>0</x:v>
@@ -49674,10 +49674,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1529" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1529" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1529" s="1" t="n">
         <x:v>0</x:v>
@@ -49686,7 +49686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1529" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1530" spans="1:10">
@@ -49694,7 +49694,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1530" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1530" s="1" t="s">
         <x:v>13</x:v>
@@ -49706,10 +49706,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1530" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1530" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1530" s="1" t="n">
         <x:v>0</x:v>
@@ -49718,7 +49718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1530" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1531" spans="1:10">
@@ -49726,7 +49726,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1531" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1531" s="1" t="s">
         <x:v>9</x:v>
@@ -49738,10 +49738,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1531" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1531" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1531" s="1" t="n">
         <x:v>0</x:v>
@@ -49750,18 +49750,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1531" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1532" spans="1:10">
       <x:c r="A1532" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1532" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1532" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1532" s="1" t="n">
         <x:v>0</x:v>
@@ -49770,10 +49770,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1532" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1532" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1532" s="1" t="n">
         <x:v>0</x:v>
@@ -49787,10 +49787,10 @@
     </x:row>
     <x:row r="1533" spans="1:10">
       <x:c r="A1533" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1533" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1533" s="1" t="s">
         <x:v>9</x:v>
@@ -49802,10 +49802,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1533" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1533" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1533" s="1" t="n">
         <x:v>0</x:v>
@@ -49822,7 +49822,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1534" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1534" s="1" t="s">
         <x:v>12</x:v>
@@ -49834,10 +49834,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1534" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1534" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1534" s="1" t="n">
         <x:v>0</x:v>
@@ -49854,19 +49854,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1535" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1535" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1535" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1535" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1535" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1535" s="1" t="n">
         <x:v>0</x:v>
@@ -49889,10 +49889,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C1536" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1536" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1536" s="1" t="n">
         <x:v>0</x:v>
@@ -49910,7 +49910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1536" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1537" spans="1:10">
@@ -49918,31 +49918,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1537" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1537" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1537" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1537" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1537" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1537" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1537" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
@@ -49950,31 +49950,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1538" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1538" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1538" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1538" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1538" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1538" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1538" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1538" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1539" spans="1:10">
@@ -49985,28 +49985,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1539" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1539" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1539" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1539" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1539" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1539" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1539" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1539" s="0" t="n">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E1539" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1539" s="1" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G1539" s="1" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H1539" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I1539" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1539" s="0" t="n">
-        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1540" spans="1:10">
@@ -50014,31 +50014,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1540" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1540" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1540" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E1540" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1540" s="1" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G1540" s="1" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H1540" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D1540" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1540" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1540" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1540" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1540" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="I1540" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1540" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="1541" spans="1:10">
@@ -50046,31 +50046,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1541" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1541" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1541" s="1" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E1541" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1541" s="1" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G1541" s="1" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H1541" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1541" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1541" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1541" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1541" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1541" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1541" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I1541" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1541" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1542" spans="1:10">
@@ -50081,19 +50081,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1542" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1542" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1542" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1542" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1542" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1542" s="1" t="n">
         <x:v>1</x:v>
@@ -50102,7 +50102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1542" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1543" spans="1:10">
@@ -50110,22 +50110,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1543" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1543" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1543" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1543" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1543" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1543" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1543" s="1" t="n">
         <x:v>0</x:v>
@@ -50134,7 +50134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1543" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1544" spans="1:10">
@@ -50142,31 +50142,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1544" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1544" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1544" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1544" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1544" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1544" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1544" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1544" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1544" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1545" spans="1:10">
@@ -50177,28 +50177,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1545" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1545" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1545" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1545" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1545" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1545" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1545" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1545" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1545" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1545" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I1545" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1545" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1546" spans="1:10">
@@ -50206,10 +50206,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1546" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1546" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1546" s="1" t="n">
         <x:v>0</x:v>
@@ -50221,16 +50221,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1546" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1546" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1546" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1546" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1547" spans="1:10">
@@ -50238,31 +50238,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1547" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1547" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1547" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1547" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1547" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1547" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1547" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1547" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1547" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1548" spans="1:10">
@@ -50273,28 +50273,28 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1548" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1548" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1548" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1548" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1548" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1548" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50302,22 +50302,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1549" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1549" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1549" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1549" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1549" s="1" t="n">
         <x:v>1</x:v>
@@ -50326,7 +50326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50334,31 +50334,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1550" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1550" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1550" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1550" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1550" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1550" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1550" s="0" t="n">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="H1550" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I1550" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1550" s="0" t="n">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -50369,28 +50369,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1551" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1551" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1551" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1551" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F1551" s="1" t="n">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="G1551" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1551" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1551" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1551" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1552" spans="1:10">
@@ -50398,31 +50398,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1552" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1552" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1552" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1552" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1552" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1552" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H1552" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1552" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I1552" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1552" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="1553" spans="1:10">
@@ -50430,31 +50430,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1553" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1553" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1553" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1553" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1553" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C1553" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1553" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E1553" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1553" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G1553" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1553" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1553" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1553" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1554" spans="1:10">
@@ -50465,20 +50465,20 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C1554" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1554" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1554" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1554" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1554" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G1554" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="H1554" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -50486,7 +50486,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1554" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1555" spans="1:10">
@@ -50494,22 +50494,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1555" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1555" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1555" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1555" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1555" s="1" t="n">
         <x:v>0</x:v>
@@ -50518,7 +50518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -50526,22 +50526,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1556" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1556" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1556" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1556" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1556" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1556" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1556" s="1" t="n">
         <x:v>0</x:v>
@@ -50550,7 +50550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1556" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1557" spans="1:10">
@@ -50561,7 +50561,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C1557" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1557" s="1" t="n">
         <x:v>0</x:v>
@@ -50570,10 +50570,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1557" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1557" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1557" s="1" t="n">
         <x:v>0</x:v>
@@ -50582,7 +50582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1557" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1558" spans="1:10">
@@ -50590,7 +50590,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1558" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1558" s="1" t="s">
         <x:v>13</x:v>
@@ -50602,7 +50602,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1558" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1558" s="1" t="n">
         <x:v>1</x:v>
@@ -50614,7 +50614,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1558" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1559" spans="1:10">
@@ -50622,7 +50622,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1559" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1559" s="1" t="s">
         <x:v>9</x:v>
@@ -50634,10 +50634,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1559" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1559" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1559" s="1" t="n">
         <x:v>0</x:v>
@@ -50646,7 +50646,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1559" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1560" spans="1:10">
@@ -50654,31 +50654,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1560" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1560" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1560" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1560" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1560" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1560" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1560" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1560" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1560" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1561" spans="1:10">
@@ -50686,31 +50686,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1561" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1561" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1561" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1561" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1561" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1561" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1561" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1561" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1561" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1562" spans="1:10">
@@ -50721,28 +50721,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1562" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1562" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1562" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1562" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G1562" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H1562" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E1562" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F1562" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G1562" s="1" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H1562" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="I1562" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1562" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1563" spans="1:10">
@@ -50750,31 +50750,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1563" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1563" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1563" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1563" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1563" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1563" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1563" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1563" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1563" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1564" spans="1:10">
@@ -50782,31 +50782,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1564" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1564" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1564" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1564" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1564" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1564" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H1564" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1564" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1564" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="1565" spans="1:10">
@@ -50817,16 +50817,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1565" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1565" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1565" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1565" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1565" s="1" t="n">
         <x:v>0</x:v>
@@ -50838,7 +50838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1565" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1566" spans="1:10">
@@ -50846,19 +50846,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1566" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1566" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1566" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1566" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1566" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1566" s="1" t="n">
         <x:v>0</x:v>
@@ -50870,7 +50870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1566" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1567" spans="1:10">
@@ -50878,19 +50878,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1567" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1567" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1567" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1567" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1567" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1567" s="1" t="n">
         <x:v>0</x:v>
@@ -50902,7 +50902,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1567" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1568" spans="1:10">
@@ -50910,10 +50910,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1568" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1568" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1568" s="1" t="n">
         <x:v>0</x:v>
@@ -50925,7 +50925,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1568" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1568" s="1" t="n">
         <x:v>0</x:v>
@@ -50934,7 +50934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1568" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1569" spans="1:10">
@@ -50942,10 +50942,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1569" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1569" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1569" s="1" t="n">
         <x:v>0</x:v>
@@ -50957,7 +50957,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1569" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1569" s="1" t="n">
         <x:v>0</x:v>
@@ -50966,7 +50966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1569" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1570" spans="1:10">
@@ -50977,7 +50977,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C1570" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1570" s="1" t="n">
         <x:v>0</x:v>
@@ -50986,10 +50986,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1570" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1570" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1570" s="1" t="n">
         <x:v>0</x:v>
@@ -50998,7 +50998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1570" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1571" spans="1:10">
@@ -51006,31 +51006,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1571" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1571" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1571" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1571" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1571" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1571" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1571" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1571" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1571" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1572" spans="1:10">
@@ -51038,31 +51038,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1572" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1572" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1572" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1572" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1572" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1572" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1572" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1572" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1572" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1572" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1572" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1572" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1572" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1572" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1573" spans="1:10">
@@ -51070,31 +51070,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1573" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1573" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1573" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1573" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1573" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1573" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1573" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1573" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1573" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1574" spans="1:10">
@@ -51102,31 +51102,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1574" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1574" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1574" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1574" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1574" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1574" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1574" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1574" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1574" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1575" spans="1:10">
@@ -51137,19 +51137,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1575" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1575" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1575" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1575" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1575" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1575" s="1" t="n">
         <x:v>0</x:v>
@@ -51158,7 +51158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1575" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1576" spans="1:10">
@@ -51166,22 +51166,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1576" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1576" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1576" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1576" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1576" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1576" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1576" s="1" t="n">
         <x:v>0</x:v>
@@ -51190,7 +51190,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1576" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1577" spans="1:10">
@@ -51198,31 +51198,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1577" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1577" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1577" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1577" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1577" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1577" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1577" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1577" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1577" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1578" spans="1:10">
@@ -51233,51 +51233,51 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1578" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1578" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1578" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1578" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1578" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1578" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1578" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1578" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1579" spans="1:10">
       <x:c r="A1579" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B1579" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1579" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1579" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1579" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1579" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1579" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1579" s="1" t="n">
         <x:v>3</x:v>
@@ -51286,39 +51286,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1579" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1580" spans="1:10">
       <x:c r="A1580" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B1580" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1580" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1580" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1580" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1580" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1580" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1580" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1580" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1580" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1581" spans="1:10">
@@ -51329,19 +51329,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1581" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1581" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1581" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1581" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1581" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1581" s="1" t="n">
         <x:v>3</x:v>
@@ -51350,7 +51350,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1581" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1582" spans="1:10">
@@ -51358,22 +51358,22 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1582" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1582" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1582" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1582" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1582" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1582" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1582" s="1" t="n">
         <x:v>0</x:v>
@@ -51382,7 +51382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1582" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1583" spans="1:10">
@@ -51390,31 +51390,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1583" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1583" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1583" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1583" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1583" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1583" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1583" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I1583" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1583" s="0" t="n">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1583" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1583" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1583" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1583" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1583" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1583" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1583" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1583" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1584" spans="1:10">
@@ -51422,10 +51422,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1584" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1584" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1584" s="1" t="n">
         <x:v>0</x:v>
@@ -51454,10 +51454,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1585" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1585" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1585" s="1" t="n">
         <x:v>0</x:v>
@@ -51466,10 +51466,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1585" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1585" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1585" s="1" t="n">
         <x:v>0</x:v>
@@ -51478,7 +51478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1585" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1586" spans="1:10">
@@ -51489,7 +51489,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1586" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1586" s="1" t="n">
         <x:v>0</x:v>
@@ -51498,10 +51498,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1586" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1586" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1586" s="1" t="n">
         <x:v>0</x:v>
@@ -51510,7 +51510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1586" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1587" spans="1:10">
@@ -51518,7 +51518,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1587" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1587" s="1" t="s">
         <x:v>13</x:v>
@@ -51530,10 +51530,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1587" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1587" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1587" s="1" t="n">
         <x:v>0</x:v>
@@ -51542,7 +51542,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1587" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1588" spans="1:10">
@@ -51550,7 +51550,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1588" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1588" s="1" t="s">
         <x:v>9</x:v>
@@ -51562,10 +51562,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1588" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1588" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1588" s="1" t="n">
         <x:v>0</x:v>
@@ -51574,7 +51574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1588" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1589" spans="1:10">
@@ -51582,7 +51582,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1589" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1589" s="1" t="s">
         <x:v>13</x:v>
@@ -51594,10 +51594,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1589" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1589" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1589" s="1" t="n">
         <x:v>0</x:v>
@@ -51614,7 +51614,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1590" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1590" s="1" t="s">
         <x:v>9</x:v>
@@ -51626,10 +51626,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1590" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1590" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1590" s="1" t="n">
         <x:v>0</x:v>
@@ -51646,7 +51646,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1591" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1591" s="1" t="s">
         <x:v>13</x:v>
@@ -51661,10 +51661,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1591" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1591" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1591" s="0" t="n">
         <x:v>0</x:v>
@@ -51678,7 +51678,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1592" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1592" s="1" t="s">
         <x:v>9</x:v>
@@ -51693,10 +51693,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1592" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1592" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1592" s="0" t="n">
         <x:v>0</x:v>
@@ -51707,19 +51707,19 @@
     </x:row>
     <x:row r="1593" spans="1:10">
       <x:c r="A1593" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1593" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1593" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1593" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1593" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1593" s="1" t="n">
         <x:v>0</x:v>
@@ -51728,7 +51728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1593" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1593" s="0" t="n">
         <x:v>0</x:v>
@@ -51739,13 +51739,13 @@
     </x:row>
     <x:row r="1594" spans="1:10">
       <x:c r="A1594" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1594" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1594" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1594" s="1" t="n">
         <x:v>0</x:v>
@@ -51754,13 +51754,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1594" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1594" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1594" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1594" s="0" t="n">
         <x:v>0</x:v>
@@ -51777,7 +51777,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1595" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1595" s="1" t="n">
         <x:v>0</x:v>
@@ -51786,7 +51786,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1595" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1595" s="1" t="n">
         <x:v>0</x:v>
@@ -51798,7 +51798,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1595" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1596" spans="1:10">
@@ -51806,31 +51806,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1596" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1596" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1596" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1596" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1596" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1596" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1596" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1596" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1596" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1597" spans="1:10">
@@ -51838,31 +51838,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1597" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1597" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1597" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1597" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1597" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1597" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1597" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1597" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1597" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1598" spans="1:10">
@@ -51873,28 +51873,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1598" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1598" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1598" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1598" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1598" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1598" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1598" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1598" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1599" spans="1:10">
@@ -51902,31 +51902,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1599" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1599" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1599" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1599" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1599" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1599" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1599" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1599" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1599" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1600" spans="1:10">
@@ -51934,31 +51934,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1600" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1600" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1600" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1600" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1600" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1600" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1600" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1600" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1600" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1601" spans="1:10">
@@ -51966,7 +51966,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1601" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1601" s="1" t="s">
         <x:v>13</x:v>
@@ -51998,7 +51998,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1602" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1602" s="1" t="s">
         <x:v>9</x:v>
@@ -52030,10 +52030,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1603" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1603" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1603" s="1" t="n">
         <x:v>0</x:v>
@@ -52062,10 +52062,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1604" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1604" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1604" s="1" t="n">
         <x:v>0</x:v>
@@ -52074,10 +52074,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1604" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1604" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1604" s="1" t="n">
         <x:v>0</x:v>
@@ -52086,7 +52086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1604" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1605" spans="1:10">
@@ -52097,7 +52097,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1605" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1605" s="1" t="n">
         <x:v>0</x:v>
@@ -52109,7 +52109,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1605" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1605" s="1" t="n">
         <x:v>0</x:v>
@@ -52118,7 +52118,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1605" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1606" spans="1:10">
@@ -52126,7 +52126,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1606" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1606" s="1" t="s">
         <x:v>13</x:v>
@@ -52141,7 +52141,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1606" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1606" s="1" t="n">
         <x:v>0</x:v>
@@ -52150,7 +52150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1606" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1607" spans="1:10">
@@ -52158,7 +52158,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1607" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1607" s="1" t="s">
         <x:v>9</x:v>
@@ -52170,10 +52170,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1607" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1607" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1607" s="1" t="n">
         <x:v>0</x:v>
@@ -52182,71 +52182,71 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1607" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1608" spans="1:10">
       <x:c r="A1608" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1608" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1608" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1608" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1608" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1608" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1608" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1608" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1608" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1608" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1609" spans="1:10">
       <x:c r="A1609" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1609" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1609" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1609" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1609" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1609" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1609" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1609" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1609" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1609" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1610" spans="1:10">
@@ -52257,28 +52257,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1610" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1610" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1610" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1610" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1610" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1610" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1610" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1610" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1611" spans="1:10">
@@ -52286,31 +52286,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1611" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1611" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1611" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1611" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1611" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1611" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1611" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1611" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1611" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1612" spans="1:10">
@@ -52318,31 +52318,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1612" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1612" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1612" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1612" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1612" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1612" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1612" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1612" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1612" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1613" spans="1:10">
@@ -52353,16 +52353,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1613" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1613" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1613" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1613" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1613" s="1" t="n">
         <x:v>2</x:v>
@@ -52374,7 +52374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1613" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1614" spans="1:10">
@@ -52382,7 +52382,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1614" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1614" s="1" t="s">
         <x:v>13</x:v>
@@ -52394,7 +52394,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1614" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1614" s="1" t="n">
         <x:v>0</x:v>
@@ -52406,7 +52406,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1614" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1615" spans="1:10">
@@ -52414,7 +52414,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1615" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1615" s="1" t="s">
         <x:v>9</x:v>
@@ -52426,10 +52426,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1615" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1615" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1615" s="1" t="n">
         <x:v>0</x:v>
@@ -52438,7 +52438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1615" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1616" spans="1:10">
@@ -52446,16 +52446,16 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1616" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1616" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1616" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1616" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1616" s="1" t="n">
         <x:v>0</x:v>
@@ -52478,19 +52478,19 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1617" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1617" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1617" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1617" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1617" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1617" s="1" t="n">
         <x:v>0</x:v>
@@ -52513,7 +52513,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1618" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1618" s="1" t="n">
         <x:v>1</x:v>
@@ -52522,7 +52522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1618" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1618" s="1" t="n">
         <x:v>0</x:v>
@@ -52534,7 +52534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1618" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1619" spans="1:10">
@@ -52542,22 +52542,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1619" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1619" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1619" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1619" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1619" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1619" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1619" s="1" t="n">
         <x:v>0</x:v>
@@ -52566,7 +52566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1619" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1620" spans="1:10">
@@ -52574,31 +52574,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1620" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1620" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1620" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1620" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1620" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1620" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1620" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1620" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -52609,28 +52609,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1621" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1621" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1621" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1621" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1621" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
@@ -52638,31 +52638,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1622" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1622" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1622" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1622" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1622" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1622" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1622" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1622" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">
@@ -52670,7 +52670,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1623" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1623" s="1" t="s">
         <x:v>9</x:v>
@@ -52679,22 +52679,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1623" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1623" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1623" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1623" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1623" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1623" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1624" spans="1:10">
@@ -52702,7 +52702,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1624" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C1624" s="1" t="s">
         <x:v>12</x:v>
@@ -52714,10 +52714,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1624" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1624" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1624" s="1" t="n">
         <x:v>0</x:v>
@@ -52734,10 +52734,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1625" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C1625" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1625" s="1" t="n">
         <x:v>0</x:v>
@@ -52749,7 +52749,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1625" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1625" s="1" t="n">
         <x:v>0</x:v>
@@ -52758,7 +52758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1625" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1626" spans="1:10">
@@ -52769,7 +52769,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C1626" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1626" s="1" t="n">
         <x:v>0</x:v>
@@ -52781,7 +52781,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1626" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1626" s="1" t="n">
         <x:v>0</x:v>
@@ -52790,7 +52790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1626" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1627" spans="1:10">
@@ -52798,31 +52798,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1627" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1627" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1627" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1627" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1627" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1627" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1627" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1627" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1627" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1628" spans="1:10">
@@ -52830,31 +52830,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1628" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1628" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1628" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1628" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1628" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1628" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1628" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1628" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1628" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1629" spans="1:10">
@@ -52865,28 +52865,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1629" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1629" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1629" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1629" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1629" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1629" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1629" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1629" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1630" spans="1:10">
@@ -52894,31 +52894,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1630" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C1630" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1630" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1630" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1630" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G1630" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1630" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I1630" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1630" s="0" t="n">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C1630" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1630" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1630" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1630" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1630" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1630" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1630" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1630" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1631" spans="1:10">
@@ -52926,31 +52926,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1631" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1631" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1631" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1631" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1631" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="1632" spans="1:10">
@@ -52958,7 +52958,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1632" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1632" s="1" t="s">
         <x:v>13</x:v>
@@ -52970,19 +52970,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1632" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1632" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1632" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1632" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1632" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1633" spans="1:10">
@@ -52990,7 +52990,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1633" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1633" s="1" t="s">
         <x:v>9</x:v>
@@ -53002,19 +53002,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1633" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1633" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1633" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1633" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1633" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1634" spans="1:10">
@@ -53022,31 +53022,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1634" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1634" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1634" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1634" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1634" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1634" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1634" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1634" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1634" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1635" spans="1:10">
@@ -53054,7 +53054,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1635" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1635" s="1" t="s">
         <x:v>9</x:v>
@@ -53063,22 +53063,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1635" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1635" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1635" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1635" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1635" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1635" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1636" spans="1:10">
@@ -53086,22 +53086,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1636" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1636" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1636" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1636" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1636" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1636" s="1" t="n">
         <x:v>0</x:v>
@@ -53110,7 +53110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -53118,7 +53118,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1637" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1637" s="1" t="s">
         <x:v>9</x:v>
@@ -53127,13 +53127,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1637" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1637" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1637" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1637" s="1" t="n">
         <x:v>0</x:v>
@@ -53142,15 +53142,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1637" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1638" spans="1:10">
       <x:c r="A1638" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1638" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1638" s="1" t="s">
         <x:v>13</x:v>
@@ -53159,13 +53159,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1638" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1638" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1638" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1638" s="1" t="n">
         <x:v>0</x:v>
@@ -53174,15 +53174,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1638" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1639" spans="1:10">
       <x:c r="A1639" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1639" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1639" s="1" t="s">
         <x:v>9</x:v>
@@ -53191,13 +53191,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1639" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1639" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1639" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1639" s="1" t="n">
         <x:v>0</x:v>
@@ -53206,7 +53206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1639" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1640" spans="1:10">
@@ -53214,31 +53214,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1640" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1640" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1640" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1640" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1640" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1640" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1640" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1640" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1640" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1641" spans="1:10">
@@ -53246,31 +53246,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1641" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1641" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1641" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1641" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1641" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1641" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1641" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1641" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1641" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1642" spans="1:10">
@@ -53281,28 +53281,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1642" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1642" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1642" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1642" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1642" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1642" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1642" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1642" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1643" spans="1:10">
@@ -53310,31 +53310,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1643" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1643" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1643" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1643" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1643" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1643" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1643" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E1643" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1643" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="G1643" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1643" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1643" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1643" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="1644" spans="1:10">
@@ -53342,31 +53342,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1644" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1644" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1644" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1644" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1644" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1644" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1644" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1644" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1644" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1645" spans="1:10">
@@ -53374,19 +53374,19 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1645" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1645" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1645" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1645" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1645" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1645" s="1" t="n">
         <x:v>1</x:v>
@@ -53398,7 +53398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1645" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1646" spans="1:10">
@@ -53406,19 +53406,19 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1646" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1646" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1646" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1646" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1646" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1646" s="1" t="n">
         <x:v>1</x:v>
@@ -53430,7 +53430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1646" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1647" spans="1:10">
@@ -53441,7 +53441,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1647" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1647" s="1" t="n">
         <x:v>0</x:v>
@@ -53453,7 +53453,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1647" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1647" s="1" t="n">
         <x:v>0</x:v>
@@ -53462,7 +53462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1647" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1648" spans="1:10">
@@ -53470,22 +53470,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1648" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1648" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1648" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1648" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1648" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1648" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1648" s="1" t="n">
         <x:v>0</x:v>
@@ -53502,19 +53502,19 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1649" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1649" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1649" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1649" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1649" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1649" s="1" t="n">
         <x:v>2</x:v>
@@ -53526,7 +53526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1649" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1650" spans="1:10">
@@ -53537,19 +53537,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1650" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1650" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1650" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1650" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1650" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1650" s="1" t="n">
         <x:v>0</x:v>
@@ -53558,7 +53558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1650" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1651" spans="1:10">
@@ -53566,31 +53566,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1651" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1651" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1651" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1651" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1651" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1651" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1651" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1651" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1651" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1652" spans="1:10">
@@ -53598,31 +53598,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1652" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1652" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1652" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1652" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1652" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1652" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1652" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1652" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1652" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="I1652" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1652" s="0" t="n">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1653" spans="1:10">
@@ -53633,28 +53633,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1653" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1653" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1653" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1653" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F1653" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="G1653" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1653" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1653" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1653" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1654" spans="1:10">
@@ -53662,31 +53662,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1654" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1654" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1654" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1654" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1654" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1654" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1654" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1654" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1654" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1655" spans="1:10">
@@ -53694,31 +53694,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1655" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1655" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1655" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1655" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1655" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1655" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1655" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1655" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1655" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1656" spans="1:10">
@@ -53729,19 +53729,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C1656" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1656" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1656" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1656" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1656" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1656" s="1" t="n">
         <x:v>0</x:v>
@@ -53750,7 +53750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1656" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1657" spans="1:10">
@@ -53758,7 +53758,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1657" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1657" s="1" t="s">
         <x:v>13</x:v>
@@ -53767,13 +53767,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1657" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1657" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1657" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1657" s="1" t="n">
         <x:v>0</x:v>
@@ -53782,7 +53782,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1657" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1658" spans="1:10">
@@ -53790,7 +53790,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1658" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1658" s="1" t="s">
         <x:v>9</x:v>
@@ -53799,13 +53799,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1658" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1658" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1658" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1658" s="1" t="n">
         <x:v>0</x:v>
@@ -53814,7 +53814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1658" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1659" spans="1:10">
@@ -53822,31 +53822,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1659" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1659" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1659" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1659" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1659" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1659" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1659" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1659" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1659" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1660" spans="1:10">
@@ -53854,31 +53854,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1660" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1660" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1660" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1660" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1660" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1660" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1660" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1660" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1660" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1661" spans="1:10">
@@ -53889,28 +53889,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1661" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1661" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1661" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1661" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1661" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1661" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1661" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1661" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1662" spans="1:10">
@@ -53918,31 +53918,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1662" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1662" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1662" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1662" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1662" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1662" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1662" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1662" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1662" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="1663" spans="1:10">
@@ -53950,31 +53950,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1663" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1663" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1663" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1663" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1663" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="1664" spans="1:10">
@@ -53982,13 +53982,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1664" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1664" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1664" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1664" s="1" t="n">
         <x:v>0</x:v>
@@ -53997,7 +53997,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1664" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1664" s="1" t="n">
         <x:v>0</x:v>
@@ -54014,13 +54014,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1665" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1665" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1665" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1665" s="1" t="n">
         <x:v>0</x:v>
@@ -54029,7 +54029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1665" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1665" s="1" t="n">
         <x:v>0</x:v>
@@ -54038,7 +54038,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1665" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1666" spans="1:10">
@@ -54049,10 +54049,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1666" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1666" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1666" s="1" t="n">
         <x:v>0</x:v>
@@ -54070,7 +54070,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1666" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1667" spans="1:10">
@@ -54078,13 +54078,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1667" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1667" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1667" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1667" s="1" t="n">
         <x:v>0</x:v>
@@ -54096,13 +54096,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1667" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1667" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1667" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1668" spans="1:10">
@@ -54110,22 +54110,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1668" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1668" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1668" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1668" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1668" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1668" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1668" s="1" t="n">
         <x:v>0</x:v>
@@ -54134,7 +54134,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1668" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1669" spans="1:10">
@@ -54145,19 +54145,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1669" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1669" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1669" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1669" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1669" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1669" s="1" t="n">
         <x:v>1</x:v>
@@ -54166,7 +54166,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1669" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1670" spans="1:10">
@@ -54174,22 +54174,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1670" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1670" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1670" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1670" s="1" t="n">
         <x:v>0</x:v>
@@ -54198,7 +54198,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1670" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1671" spans="1:10">
@@ -54206,19 +54206,19 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1671" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1671" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1671" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1671" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1671" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1671" s="1" t="n">
         <x:v>1</x:v>
@@ -54230,7 +54230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1671" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1672" spans="1:10">
@@ -54241,10 +54241,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1672" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1672" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1672" s="1" t="n">
         <x:v>0</x:v>
@@ -54253,16 +54253,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1672" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1672" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1672" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1672" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1673" spans="1:10">
@@ -54270,13 +54270,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1673" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1673" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1673" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1673" s="1" t="n">
         <x:v>0</x:v>
@@ -54288,13 +54288,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1673" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1673" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1673" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1674" spans="1:10">
@@ -54302,10 +54302,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1674" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1674" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1674" s="1" t="n">
         <x:v>2</x:v>
@@ -54314,7 +54314,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1674" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1674" s="1" t="n">
         <x:v>1</x:v>
@@ -54326,7 +54326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1674" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1675" spans="1:10">
@@ -54337,42 +54337,42 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1675" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1675" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1675" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1675" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1675" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1675" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1675" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1675" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1676" spans="1:10">
       <x:c r="A1676" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1676" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1676" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1676" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1676" s="1" t="n">
         <x:v>0</x:v>
@@ -54381,27 +54381,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1676" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1676" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1676" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1676" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1677" spans="1:10">
       <x:c r="A1677" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1677" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1677" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1677" s="1" t="n">
         <x:v>2</x:v>
@@ -54410,19 +54410,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1677" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1677" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1677" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1677" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1677" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1678" spans="1:10">
@@ -54433,19 +54433,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1678" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1678" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1678" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1678" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1678" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1678" s="1" t="n">
         <x:v>0</x:v>
@@ -54454,7 +54454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1678" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1679" spans="1:10">
@@ -54462,22 +54462,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1679" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1679" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1679" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1679" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1679" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1679" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1679" s="1" t="n">
         <x:v>0</x:v>
@@ -54486,7 +54486,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1679" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1680" spans="1:10">
@@ -54494,22 +54494,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1680" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1680" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1680" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1680" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1680" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1680" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1680" s="1" t="n">
         <x:v>0</x:v>
@@ -54518,7 +54518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1680" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1681" spans="1:10">
@@ -54526,7 +54526,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1681" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1681" s="1" t="s">
         <x:v>12</x:v>
@@ -54538,7 +54538,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1681" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1681" s="1" t="n">
         <x:v>1</x:v>
@@ -54550,7 +54550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1681" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1682" spans="1:10">
@@ -54558,10 +54558,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1682" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1682" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1682" s="1" t="n">
         <x:v>0</x:v>
@@ -54573,16 +54573,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1682" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1682" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1682" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1682" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1683" spans="1:10">
@@ -54593,7 +54593,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1683" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1683" s="1" t="n">
         <x:v>0</x:v>
@@ -54605,16 +54605,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1683" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1683" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1683" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1683" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1684" spans="1:10">
@@ -54622,10 +54622,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1684" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1684" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1684" s="1" t="n">
         <x:v>0</x:v>
@@ -54637,16 +54637,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1684" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1684" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1684" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1684" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1685" spans="1:10">
@@ -54654,7 +54654,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1685" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1685" s="1" t="s">
         <x:v>9</x:v>
@@ -54666,19 +54666,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1685" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1685" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1685" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1685" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1685" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1686" spans="1:10">
@@ -54686,7 +54686,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1686" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1686" s="1" t="s">
         <x:v>12</x:v>
@@ -54698,10 +54698,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1686" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1686" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1686" s="1" t="n">
         <x:v>0</x:v>
@@ -54710,7 +54710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1686" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1687" spans="1:10">
@@ -54718,7 +54718,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1687" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1687" s="1" t="s">
         <x:v>9</x:v>
@@ -54730,10 +54730,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1687" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1687" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1687" s="1" t="n">
         <x:v>0</x:v>
@@ -54742,7 +54742,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1687" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1688" spans="1:10">
@@ -54750,10 +54750,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1688" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1688" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1688" s="1" t="n">
         <x:v>0</x:v>
@@ -54762,19 +54762,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1688" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1688" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1688" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1688" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1688" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1689" spans="1:10">
@@ -54782,30 +54782,94 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1689" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C1689" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1689" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1689" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1689" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1689" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1689" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1689" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1689" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1690" spans="1:10">
+      <x:c r="A1690" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B1690" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C1689" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1689" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1689" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1689" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1689" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1689" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1689" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1689" s="0" t="n">
+      <x:c r="C1690" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1690" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1690" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1690" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1690" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1690" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1690" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1690" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1691" spans="1:10">
+      <x:c r="A1691" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B1691" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1691" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1691" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1691" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1691" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1691" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1691" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1691" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1691" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -751,7 +751,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J1695"/>
+  <x:dimension ref="A1:J1699"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -12842,10 +12842,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F378" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G378" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H378" s="1" t="n">
         <x:v>14</x:v>
@@ -12854,7 +12854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J378" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:10">
@@ -12877,7 +12877,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="G379" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H379" s="1" t="n">
         <x:v>24</x:v>
@@ -12886,7 +12886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J379" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="380" spans="1:10">
@@ -12906,10 +12906,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F380" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G380" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H380" s="1" t="n">
         <x:v>38</x:v>
@@ -12918,7 +12918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J380" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:10">
@@ -15725,7 +15725,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G468" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H468" s="1" t="n">
         <x:v>0</x:v>
@@ -15734,7 +15734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J468" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:10">
@@ -15757,7 +15757,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G469" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H469" s="1" t="n">
         <x:v>0</x:v>
@@ -15766,7 +15766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J469" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="470" spans="1:10">
@@ -36836,7 +36836,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1128" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1128" s="1" t="n">
         <x:v>2</x:v>
@@ -36854,7 +36854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1128" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1129" spans="1:10">
@@ -36868,7 +36868,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1129" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1129" s="1" t="n">
         <x:v>3</x:v>
@@ -36886,7 +36886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1129" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1130" spans="1:10">
@@ -40743,7 +40743,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1250" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1250" s="1" t="n">
         <x:v>10</x:v>
@@ -40758,7 +40758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1250" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1251" spans="1:10">
@@ -40775,7 +40775,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1251" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1251" s="1" t="n">
         <x:v>16</x:v>
@@ -40790,7 +40790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1251" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="1252" spans="1:10">
@@ -41805,7 +41805,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1283" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1283" s="1" t="n">
         <x:v>0</x:v>
@@ -41814,7 +41814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1283" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1284" spans="1:10">
@@ -41837,7 +41837,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1284" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1284" s="1" t="n">
         <x:v>1</x:v>
@@ -41846,7 +41846,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1284" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1285" spans="1:10">
@@ -43847,7 +43847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1347" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1347" s="1" t="n">
         <x:v>0</x:v>
@@ -43862,7 +43862,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1347" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1348" spans="1:10">
@@ -43879,7 +43879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1348" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1348" s="1" t="n">
         <x:v>0</x:v>
@@ -43894,7 +43894,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1348" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1349" spans="1:10">
@@ -46398,16 +46398,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1427" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1427" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1427" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1427" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1427" s="1" t="n">
         <x:v>0</x:v>
@@ -46422,7 +46422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1427" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1428" spans="1:10">
@@ -46430,16 +46430,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B1428" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1428" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1428" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1428" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1428" s="1" t="n">
         <x:v>0</x:v>
@@ -46454,30 +46454,30 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1428" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1429" spans="1:10">
       <x:c r="A1429" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B1429" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1429" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1429" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1429" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1429" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1429" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1429" s="1" t="n">
         <x:v>0</x:v>
@@ -46486,27 +46486,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1429" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1430" spans="1:10">
       <x:c r="A1430" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B1430" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1430" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1430" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1430" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1430" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1430" s="1" t="n">
         <x:v>0</x:v>
@@ -46518,7 +46518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1430" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1431" spans="1:10">
@@ -46529,16 +46529,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1431" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1431" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1431" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1431" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1431" s="1" t="n">
         <x:v>1</x:v>
@@ -46550,7 +46550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1431" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1432" spans="1:10">
@@ -46558,16 +46558,16 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1432" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1432" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1432" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1432" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1432" s="1" t="n">
         <x:v>1</x:v>
@@ -46582,7 +46582,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1432" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1433" spans="1:10">
@@ -46590,31 +46590,31 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1433" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1433" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1433" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1433" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1433" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1433" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1433" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1433" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1433" s="0" t="n">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="C1433" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1433" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1433" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1433" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1433" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1433" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1433" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1433" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1434" spans="1:10">
@@ -46622,7 +46622,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1434" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1434" s="1" t="s">
         <x:v>13</x:v>
@@ -46654,7 +46654,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1435" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1435" s="1" t="s">
         <x:v>9</x:v>
@@ -46686,7 +46686,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1436" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1436" s="1" t="s">
         <x:v>13</x:v>
@@ -46695,10 +46695,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1436" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1436" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1436" s="1" t="n">
         <x:v>0</x:v>
@@ -46718,7 +46718,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1437" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1437" s="1" t="s">
         <x:v>9</x:v>
@@ -46727,10 +46727,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1437" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1437" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1437" s="1" t="n">
         <x:v>0</x:v>
@@ -46750,7 +46750,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1438" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1438" s="1" t="s">
         <x:v>13</x:v>
@@ -46759,13 +46759,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1438" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1438" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1438" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1438" s="1" t="n">
         <x:v>0</x:v>
@@ -46782,7 +46782,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B1439" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1439" s="1" t="s">
         <x:v>9</x:v>
@@ -46791,13 +46791,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1439" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1439" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1439" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1439" s="1" t="n">
         <x:v>0</x:v>
@@ -46811,16 +46811,16 @@
     </x:row>
     <x:row r="1440" spans="1:10">
       <x:c r="A1440" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B1440" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1440" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1440" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1440" s="1" t="n">
         <x:v>0</x:v>
@@ -46829,7 +46829,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1440" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1440" s="1" t="n">
         <x:v>0</x:v>
@@ -46843,13 +46843,13 @@
     </x:row>
     <x:row r="1441" spans="1:10">
       <x:c r="A1441" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B1441" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1441" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1441" s="1" t="n">
         <x:v>0</x:v>
@@ -46858,19 +46858,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1441" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1441" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1441" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1441" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1441" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1442" spans="1:10">
@@ -46881,7 +46881,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1442" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1442" s="1" t="n">
         <x:v>1</x:v>
@@ -46890,19 +46890,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1442" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1442" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1442" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1442" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1442" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1443" spans="1:10">
@@ -46910,10 +46910,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B1443" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1443" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1443" s="1" t="n">
         <x:v>0</x:v>
@@ -46922,19 +46922,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1443" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1443" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1443" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1443" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1443" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1444" spans="1:10">
@@ -46942,31 +46942,31 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B1444" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1444" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1444" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1444" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1444" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1444" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1444" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1444" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1444" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1445" spans="1:10">
@@ -46974,10 +46974,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B1445" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C1445" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1445" s="1" t="n">
         <x:v>0</x:v>
@@ -46989,10 +46989,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1445" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1445" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1445" s="0" t="n">
         <x:v>0</x:v>
@@ -47006,7 +47006,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B1446" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C1446" s="1" t="s">
         <x:v>9</x:v>
@@ -47021,10 +47021,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1446" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1446" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1446" s="0" t="n">
         <x:v>0</x:v>
@@ -47035,66 +47035,66 @@
     </x:row>
     <x:row r="1447" spans="1:10">
       <x:c r="A1447" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B1447" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1447" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1447" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1447" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1447" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1447" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1447" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1447" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1447" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1448" spans="1:10">
       <x:c r="A1448" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B1448" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1448" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1448" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1448" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1448" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1448" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1448" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1448" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1448" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1449" spans="1:10">
@@ -47105,28 +47105,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1449" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1449" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1449" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1449" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1449" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1449" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1449" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1449" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1450" spans="1:10">
@@ -47134,31 +47134,31 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1450" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1450" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1450" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1450" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1450" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1450" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1450" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1450" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1450" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1451" spans="1:10">
@@ -47166,31 +47166,31 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1451" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1451" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1451" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1451" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1451" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1451" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1451" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1451" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1451" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1452" spans="1:10">
@@ -47198,7 +47198,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1452" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1452" s="1" t="s">
         <x:v>13</x:v>
@@ -47210,13 +47210,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1452" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1452" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1452" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1452" s="0" t="n">
         <x:v>0</x:v>
@@ -47230,7 +47230,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1453" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1453" s="1" t="s">
         <x:v>9</x:v>
@@ -47242,13 +47242,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1453" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1453" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1453" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1453" s="0" t="n">
         <x:v>0</x:v>
@@ -47262,10 +47262,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1454" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1454" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1454" s="1" t="n">
         <x:v>0</x:v>
@@ -47277,10 +47277,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1454" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1454" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1454" s="0" t="n">
         <x:v>0</x:v>
@@ -47294,10 +47294,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1455" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1455" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1455" s="1" t="n">
         <x:v>0</x:v>
@@ -47309,7 +47309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1455" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1455" s="1" t="n">
         <x:v>1</x:v>
@@ -47318,7 +47318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1455" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1456" spans="1:10">
@@ -47329,7 +47329,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1456" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1456" s="1" t="n">
         <x:v>0</x:v>
@@ -47341,16 +47341,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1456" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1456" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1456" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1456" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1457" spans="1:10">
@@ -47358,10 +47358,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1457" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1457" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1457" s="1" t="n">
         <x:v>0</x:v>
@@ -47370,19 +47370,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1457" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1457" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1457" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1457" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1457" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1458" spans="1:10">
@@ -47390,7 +47390,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1458" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1458" s="1" t="s">
         <x:v>9</x:v>
@@ -47402,19 +47402,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1458" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1458" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1458" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1458" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1458" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1459" spans="1:10">
@@ -47422,19 +47422,19 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1459" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1459" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1459" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1459" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1459" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1459" s="1" t="n">
         <x:v>0</x:v>
@@ -47454,10 +47454,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1460" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1460" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1460" s="1" t="n">
         <x:v>0</x:v>
@@ -47466,10 +47466,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1460" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1460" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1460" s="1" t="n">
         <x:v>0</x:v>
@@ -47478,7 +47478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1460" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1461" spans="1:10">
@@ -47489,7 +47489,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1461" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1461" s="1" t="n">
         <x:v>1</x:v>
@@ -47498,10 +47498,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1461" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1461" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1461" s="1" t="n">
         <x:v>0</x:v>
@@ -47510,7 +47510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1461" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1462" spans="1:10">
@@ -47518,7 +47518,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1462" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1462" s="1" t="s">
         <x:v>13</x:v>
@@ -47527,13 +47527,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1462" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1462" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1462" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1462" s="1" t="n">
         <x:v>0</x:v>
@@ -47542,7 +47542,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1462" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1463" spans="1:10">
@@ -47550,22 +47550,22 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1463" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1463" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1463" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1463" s="1" t="n">
         <x:v>0</x:v>
@@ -47574,7 +47574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1463" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1464" spans="1:10">
@@ -47582,7 +47582,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1464" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1464" s="1" t="s">
         <x:v>13</x:v>
@@ -47591,13 +47591,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1464" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1464" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1464" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1464" s="1" t="n">
         <x:v>0</x:v>
@@ -47614,7 +47614,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1465" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1465" s="1" t="s">
         <x:v>9</x:v>
@@ -47623,13 +47623,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1465" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1465" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1465" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1465" s="1" t="n">
         <x:v>0</x:v>
@@ -47646,13 +47646,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1466" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1466" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1466" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1466" s="1" t="n">
         <x:v>0</x:v>
@@ -47661,7 +47661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1466" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1466" s="1" t="n">
         <x:v>0</x:v>
@@ -47678,13 +47678,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B1467" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1467" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1467" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1467" s="1" t="n">
         <x:v>0</x:v>
@@ -47693,7 +47693,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1467" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1467" s="1" t="n">
         <x:v>0</x:v>
@@ -47707,16 +47707,16 @@
     </x:row>
     <x:row r="1468" spans="1:10">
       <x:c r="A1468" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B1468" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1468" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1468" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1468" s="1" t="n">
         <x:v>0</x:v>
@@ -47725,7 +47725,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1468" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1468" s="1" t="n">
         <x:v>0</x:v>
@@ -47739,16 +47739,16 @@
     </x:row>
     <x:row r="1469" spans="1:10">
       <x:c r="A1469" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B1469" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1469" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1469" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1469" s="1" t="n">
         <x:v>0</x:v>
@@ -47760,7 +47760,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1469" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1469" s="0" t="n">
         <x:v>0</x:v>
@@ -47777,7 +47777,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1470" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1470" s="1" t="n">
         <x:v>0</x:v>
@@ -47792,18 +47792,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1470" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1470" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1470" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1471" spans="1:10">
       <x:c r="A1471" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B1471" s="0" t="s">
         <x:v>11</x:v>
@@ -47821,10 +47821,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1471" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1471" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1471" s="0" t="n">
         <x:v>0</x:v>
@@ -47835,7 +47835,7 @@
     </x:row>
     <x:row r="1472" spans="1:10">
       <x:c r="A1472" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B1472" s="0" t="s">
         <x:v>11</x:v>
@@ -47856,24 +47856,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1472" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1472" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1472" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1473" spans="1:10">
       <x:c r="A1473" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B1473" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1473" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1473" s="1" t="n">
         <x:v>0</x:v>
@@ -47882,10 +47882,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1473" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1473" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1473" s="1" t="n">
         <x:v>0</x:v>
@@ -47894,39 +47894,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1473" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1474" spans="1:10">
       <x:c r="A1474" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B1474" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1474" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1474" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1474" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1474" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1474" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1474" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1474" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1474" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1475" spans="1:10">
@@ -47937,28 +47937,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1475" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1475" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1475" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1475" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1475" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G1475" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="H1475" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1475" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1475" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1476" spans="1:10">
@@ -47966,31 +47966,31 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1476" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1476" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1476" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1476" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1476" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1476" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1476" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1476" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1476" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1477" spans="1:10">
@@ -47998,31 +47998,31 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1477" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1477" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1477" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1477" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1477" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1477" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H1477" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I1477" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1477" s="0" t="n">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C1477" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1477" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1477" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1477" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1477" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1477" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1477" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1477" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1478" spans="1:10">
@@ -48030,7 +48030,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1478" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1478" s="1" t="s">
         <x:v>12</x:v>
@@ -48039,13 +48039,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1478" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1478" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1478" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1478" s="1" t="n">
         <x:v>0</x:v>
@@ -48054,7 +48054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1478" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1479" spans="1:10">
@@ -48062,10 +48062,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1479" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1479" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1479" s="1" t="n">
         <x:v>0</x:v>
@@ -48077,7 +48077,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1479" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1479" s="1" t="n">
         <x:v>0</x:v>
@@ -48086,7 +48086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1479" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1480" spans="1:10">
@@ -48097,7 +48097,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1480" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1480" s="1" t="n">
         <x:v>0</x:v>
@@ -48106,10 +48106,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1480" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1480" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1480" s="1" t="n">
         <x:v>0</x:v>
@@ -48118,7 +48118,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1480" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1481" spans="1:10">
@@ -48126,10 +48126,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1481" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1481" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1481" s="1" t="n">
         <x:v>0</x:v>
@@ -48158,22 +48158,22 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1482" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1482" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1482" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1482" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1482" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1482" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1482" s="1" t="n">
         <x:v>0</x:v>
@@ -48182,7 +48182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1482" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1483" spans="1:10">
@@ -48193,7 +48193,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C1483" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1483" s="1" t="n">
         <x:v>0</x:v>
@@ -48205,7 +48205,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1483" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1483" s="1" t="n">
         <x:v>0</x:v>
@@ -48214,7 +48214,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1483" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1484" spans="1:10">
@@ -48222,10 +48222,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1484" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1484" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1484" s="1" t="n">
         <x:v>0</x:v>
@@ -48254,7 +48254,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1485" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1485" s="1" t="s">
         <x:v>9</x:v>
@@ -48266,10 +48266,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1485" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1485" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1485" s="1" t="n">
         <x:v>0</x:v>
@@ -48278,7 +48278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1485" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1486" spans="1:10">
@@ -48286,10 +48286,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1486" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1486" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1486" s="1" t="n">
         <x:v>0</x:v>
@@ -48318,7 +48318,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1487" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1487" s="1" t="s">
         <x:v>9</x:v>
@@ -48350,7 +48350,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1488" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1488" s="1" t="s">
         <x:v>13</x:v>
@@ -48362,10 +48362,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1488" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1488" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1488" s="1" t="n">
         <x:v>0</x:v>
@@ -48374,7 +48374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1488" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1489" spans="1:10">
@@ -48382,7 +48382,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B1489" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1489" s="1" t="s">
         <x:v>9</x:v>
@@ -48394,10 +48394,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1489" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1489" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1489" s="1" t="n">
         <x:v>0</x:v>
@@ -48406,15 +48406,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1489" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1490" spans="1:10">
       <x:c r="A1490" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B1490" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1490" s="1" t="s">
         <x:v>13</x:v>
@@ -48426,27 +48426,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1490" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1490" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1490" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1490" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1490" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1491" spans="1:10">
       <x:c r="A1491" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B1491" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1491" s="1" t="s">
         <x:v>9</x:v>
@@ -48458,19 +48458,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1491" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1491" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1491" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1491" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1491" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1492" spans="1:10">
@@ -48478,10 +48478,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1492" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1492" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1492" s="1" t="n">
         <x:v>0</x:v>
@@ -48490,13 +48490,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1492" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1492" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1492" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1492" s="0" t="n">
         <x:v>0</x:v>
@@ -48510,7 +48510,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1493" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1493" s="1" t="s">
         <x:v>9</x:v>
@@ -48522,13 +48522,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1493" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1493" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1493" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1493" s="0" t="n">
         <x:v>0</x:v>
@@ -48542,13 +48542,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1494" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1494" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1494" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1494" s="1" t="n">
         <x:v>0</x:v>
@@ -48566,7 +48566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1494" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1495" spans="1:10">
@@ -48574,22 +48574,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1495" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1495" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1495" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1495" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1495" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1495" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1495" s="1" t="n">
         <x:v>0</x:v>
@@ -48598,7 +48598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1495" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1496" spans="1:10">
@@ -48609,19 +48609,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1496" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1496" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1496" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1496" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1496" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1496" s="1" t="n">
         <x:v>0</x:v>
@@ -48630,7 +48630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1496" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1497" spans="1:10">
@@ -48638,22 +48638,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1497" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1497" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1497" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1497" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1497" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1497" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1497" s="1" t="n">
         <x:v>0</x:v>
@@ -48662,7 +48662,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1497" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1498" spans="1:10">
@@ -48670,22 +48670,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1498" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1498" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1498" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1498" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1498" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1498" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1498" s="1" t="n">
         <x:v>0</x:v>
@@ -48694,7 +48694,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1498" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1499" spans="1:10">
@@ -48702,7 +48702,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1499" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1499" s="1" t="s">
         <x:v>13</x:v>
@@ -48717,7 +48717,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1499" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1499" s="1" t="n">
         <x:v>0</x:v>
@@ -48726,7 +48726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1499" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1500" spans="1:10">
@@ -48734,7 +48734,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1500" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1500" s="1" t="s">
         <x:v>9</x:v>
@@ -48749,7 +48749,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1500" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1500" s="1" t="n">
         <x:v>0</x:v>
@@ -48758,7 +48758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1500" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1501" spans="1:10">
@@ -48766,10 +48766,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1501" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1501" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1501" s="1" t="n">
         <x:v>0</x:v>
@@ -48778,10 +48778,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1501" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1501" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1501" s="1" t="n">
         <x:v>0</x:v>
@@ -48790,7 +48790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1501" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1502" spans="1:10">
@@ -48798,10 +48798,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1502" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1502" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1502" s="1" t="n">
         <x:v>0</x:v>
@@ -48810,10 +48810,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1502" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1502" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1502" s="1" t="n">
         <x:v>0</x:v>
@@ -48822,7 +48822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1502" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1503" spans="1:10">
@@ -48833,7 +48833,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1503" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1503" s="1" t="n">
         <x:v>0</x:v>
@@ -48845,7 +48845,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1503" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1503" s="1" t="n">
         <x:v>0</x:v>
@@ -48854,7 +48854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1503" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1504" spans="1:10">
@@ -48862,13 +48862,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1504" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1504" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1504" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1504" s="1" t="n">
         <x:v>0</x:v>
@@ -48877,7 +48877,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1504" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1504" s="1" t="n">
         <x:v>0</x:v>
@@ -48894,13 +48894,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1505" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1505" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1505" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1505" s="1" t="n">
         <x:v>0</x:v>
@@ -48909,7 +48909,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1505" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1505" s="1" t="n">
         <x:v>0</x:v>
@@ -48918,7 +48918,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1505" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1506" spans="1:10">
@@ -48926,13 +48926,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1506" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1506" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1506" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1506" s="1" t="n">
         <x:v>0</x:v>
@@ -48941,16 +48941,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1506" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1506" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1506" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1506" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1507" spans="1:10">
@@ -48958,22 +48958,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1507" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1507" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1507" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1507" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1507" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1507" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1507" s="1" t="n">
         <x:v>0</x:v>
@@ -48982,7 +48982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1507" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1508" spans="1:10">
@@ -48993,19 +48993,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1508" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1508" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1508" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1508" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1508" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1508" s="1" t="n">
         <x:v>1</x:v>
@@ -49014,7 +49014,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1508" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1509" spans="1:10">
@@ -49022,22 +49022,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1509" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1509" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1509" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1509" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1509" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1509" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1509" s="1" t="n">
         <x:v>0</x:v>
@@ -49046,7 +49046,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1509" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1510" spans="1:10">
@@ -49054,31 +49054,31 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1510" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1510" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1510" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1510" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1510" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1510" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1510" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1510" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1510" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1511" spans="1:10">
@@ -49086,7 +49086,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1511" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1511" s="1" t="s">
         <x:v>13</x:v>
@@ -49118,7 +49118,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1512" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1512" s="1" t="s">
         <x:v>9</x:v>
@@ -49150,19 +49150,19 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1513" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1513" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1513" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1513" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1513" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1513" s="1" t="n">
         <x:v>0</x:v>
@@ -49174,7 +49174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1513" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1514" spans="1:10">
@@ -49182,19 +49182,19 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1514" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1514" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1514" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1514" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1514" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1514" s="1" t="n">
         <x:v>0</x:v>
@@ -49217,7 +49217,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1515" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1515" s="1" t="n">
         <x:v>1</x:v>
@@ -49226,7 +49226,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1515" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1515" s="1" t="n">
         <x:v>0</x:v>
@@ -49238,7 +49238,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1515" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1516" spans="1:10">
@@ -49246,19 +49246,19 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1516" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1516" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1516" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1516" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1516" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1516" s="1" t="n">
         <x:v>0</x:v>
@@ -49278,7 +49278,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1517" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1517" s="1" t="s">
         <x:v>9</x:v>
@@ -49290,7 +49290,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1517" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1517" s="1" t="n">
         <x:v>0</x:v>
@@ -49302,21 +49302,21 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1517" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1518" spans="1:10">
       <x:c r="A1518" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B1518" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1518" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1518" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1518" s="1" t="n">
         <x:v>0</x:v>
@@ -49325,7 +49325,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1518" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1518" s="1" t="n">
         <x:v>0</x:v>
@@ -49339,16 +49339,16 @@
     </x:row>
     <x:row r="1519" spans="1:10">
       <x:c r="A1519" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B1519" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1519" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1519" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1519" s="1" t="n">
         <x:v>0</x:v>
@@ -49357,7 +49357,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1519" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1519" s="1" t="n">
         <x:v>0</x:v>
@@ -49374,13 +49374,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1520" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1520" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1520" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1520" s="1" t="n">
         <x:v>0</x:v>
@@ -49398,7 +49398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1520" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1521" spans="1:10">
@@ -49406,19 +49406,19 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1521" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1521" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1521" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1521" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1521" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1521" s="1" t="n">
         <x:v>1</x:v>
@@ -49430,7 +49430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1521" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1522" spans="1:10">
@@ -49441,19 +49441,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1522" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1522" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1522" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1522" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1522" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1522" s="1" t="n">
         <x:v>0</x:v>
@@ -49462,7 +49462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1522" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1523" spans="1:10">
@@ -49470,22 +49470,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1523" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1523" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1523" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1523" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1523" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1523" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1523" s="1" t="n">
         <x:v>0</x:v>
@@ -49494,7 +49494,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1523" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1524" spans="1:10">
@@ -49502,22 +49502,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1524" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1524" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1524" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1524" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1524" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1524" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1524" s="1" t="n">
         <x:v>0</x:v>
@@ -49526,7 +49526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1524" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1525" spans="1:10">
@@ -49537,7 +49537,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1525" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1525" s="1" t="n">
         <x:v>0</x:v>
@@ -49546,7 +49546,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1525" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1525" s="1" t="n">
         <x:v>0</x:v>
@@ -49558,7 +49558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1525" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1526" spans="1:10">
@@ -49566,10 +49566,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1526" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1526" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1526" s="1" t="n">
         <x:v>0</x:v>
@@ -49578,10 +49578,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1526" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1526" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1526" s="1" t="n">
         <x:v>0</x:v>
@@ -49598,10 +49598,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1527" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1527" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1527" s="1" t="n">
         <x:v>0</x:v>
@@ -49610,7 +49610,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1527" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1527" s="1" t="n">
         <x:v>0</x:v>
@@ -49622,7 +49622,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1527" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1528" spans="1:10">
@@ -49633,13 +49633,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1528" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1528" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1528" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1528" s="1" t="n">
         <x:v>0</x:v>
@@ -49654,7 +49654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1528" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1529" spans="1:10">
@@ -49662,22 +49662,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1529" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1529" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1529" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1529" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1529" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1529" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1529" s="1" t="n">
         <x:v>0</x:v>
@@ -49686,7 +49686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1529" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1530" spans="1:10">
@@ -49694,22 +49694,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1530" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1530" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1530" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1530" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1530" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1530" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1530" s="1" t="n">
         <x:v>0</x:v>
@@ -49718,7 +49718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1530" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1531" spans="1:10">
@@ -49726,22 +49726,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1531" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1531" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1531" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1531" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1531" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1531" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1531" s="1" t="n">
         <x:v>0</x:v>
@@ -49750,7 +49750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1531" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1532" spans="1:10">
@@ -49758,22 +49758,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1532" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1532" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1532" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1532" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1532" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1532" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1532" s="1" t="n">
         <x:v>0</x:v>
@@ -49782,7 +49782,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1532" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1533" spans="1:10">
@@ -49790,10 +49790,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1533" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1533" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1533" s="1" t="n">
         <x:v>0</x:v>
@@ -49805,7 +49805,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1533" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1533" s="1" t="n">
         <x:v>0</x:v>
@@ -49814,7 +49814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1533" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1534" spans="1:10">
@@ -49822,10 +49822,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1534" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1534" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1534" s="1" t="n">
         <x:v>0</x:v>
@@ -49834,10 +49834,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1534" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1534" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1534" s="1" t="n">
         <x:v>0</x:v>
@@ -49846,7 +49846,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1534" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1535" spans="1:10">
@@ -49857,7 +49857,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1535" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1535" s="1" t="n">
         <x:v>0</x:v>
@@ -49866,19 +49866,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1535" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1535" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1535" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1535" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1535" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1535" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H1535" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1535" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1535" s="0" t="n">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1536" spans="1:10">
@@ -49886,7 +49886,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1536" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1536" s="1" t="s">
         <x:v>13</x:v>
@@ -49898,10 +49898,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1536" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1536" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1536" s="1" t="n">
         <x:v>0</x:v>
@@ -49910,7 +49910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1536" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1537" spans="1:10">
@@ -49918,7 +49918,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1537" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1537" s="1" t="s">
         <x:v>9</x:v>
@@ -49930,10 +49930,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1537" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1537" s="1" t="n">
         <x:v>0</x:v>
@@ -49942,18 +49942,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
       <x:c r="A1538" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1538" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1538" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1538" s="1" t="n">
         <x:v>0</x:v>
@@ -49962,10 +49962,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1538" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1538" s="1" t="n">
         <x:v>0</x:v>
@@ -49979,10 +49979,10 @@
     </x:row>
     <x:row r="1539" spans="1:10">
       <x:c r="A1539" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1539" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1539" s="1" t="s">
         <x:v>9</x:v>
@@ -49994,10 +49994,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1539" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1539" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1539" s="1" t="n">
         <x:v>0</x:v>
@@ -50014,7 +50014,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1540" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1540" s="1" t="s">
         <x:v>12</x:v>
@@ -50026,10 +50026,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1540" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1540" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1540" s="1" t="n">
         <x:v>0</x:v>
@@ -50046,19 +50046,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1541" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1541" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1541" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1541" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1541" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1541" s="1" t="n">
         <x:v>0</x:v>
@@ -50081,10 +50081,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C1542" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1542" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1542" s="1" t="n">
         <x:v>0</x:v>
@@ -50102,7 +50102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1542" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1543" spans="1:10">
@@ -50110,31 +50110,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1543" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1543" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1543" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1543" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1543" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1543" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1543" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1543" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1543" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1544" spans="1:10">
@@ -50142,31 +50142,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1544" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1544" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1544" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1544" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1544" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1544" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1544" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1544" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1544" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1545" spans="1:10">
@@ -50177,28 +50177,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1545" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1545" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1545" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1545" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1545" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1545" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1545" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1545" s="0" t="n">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E1545" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1545" s="1" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G1545" s="1" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H1545" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I1545" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1545" s="0" t="n">
-        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1546" spans="1:10">
@@ -50206,31 +50206,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1546" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1546" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1546" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E1546" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1546" s="1" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G1546" s="1" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H1546" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D1546" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1546" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1546" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1546" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1546" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="I1546" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1546" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="1547" spans="1:10">
@@ -50238,31 +50238,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1547" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1547" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1547" s="1" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E1547" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1547" s="1" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G1547" s="1" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H1547" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C1547" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1547" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1547" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1547" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1547" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1547" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I1547" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1547" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1548" spans="1:10">
@@ -50273,20 +50273,20 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1548" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1548" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1548" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1548" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1548" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G1548" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="H1548" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -50294,7 +50294,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50302,22 +50302,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1549" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1549" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1549" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1549" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1549" s="1" t="n">
         <x:v>0</x:v>
@@ -50326,7 +50326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50334,31 +50334,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1550" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1550" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1550" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1550" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1550" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -50369,28 +50369,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1551" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1551" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1551" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1551" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1551" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1551" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1551" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1551" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1551" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I1551" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1551" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1552" spans="1:10">
@@ -50398,10 +50398,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1552" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1552" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1552" s="1" t="n">
         <x:v>0</x:v>
@@ -50413,16 +50413,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1552" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1552" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1552" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1552" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1553" spans="1:10">
@@ -50430,31 +50430,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1553" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1553" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1553" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1553" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1553" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1553" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1553" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1553" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1553" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1554" spans="1:10">
@@ -50465,28 +50465,28 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1554" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1554" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1554" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1554" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1554" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1554" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1554" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1554" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1554" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1554" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1554" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1554" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1554" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1554" s="0" t="n">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1555" spans="1:10">
@@ -50494,22 +50494,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1555" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1555" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1555" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1555" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1555" s="1" t="n">
         <x:v>1</x:v>
@@ -50518,7 +50518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -50526,31 +50526,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1556" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1556" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1556" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1556" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1556" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1556" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1556" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1556" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1556" s="0" t="n">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="H1556" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I1556" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1556" s="0" t="n">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="1557" spans="1:10">
@@ -50561,28 +50561,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1557" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1557" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1557" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1557" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F1557" s="1" t="n">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="G1557" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1557" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1557" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1557" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1558" spans="1:10">
@@ -50590,31 +50590,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1558" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1558" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1558" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1558" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1558" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1558" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H1558" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1558" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I1558" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1558" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="1559" spans="1:10">
@@ -50622,31 +50622,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1559" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1559" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1559" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1559" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F1559" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C1559" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1559" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E1559" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F1559" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G1559" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1559" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1559" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1559" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1560" spans="1:10">
@@ -50657,20 +50657,20 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C1560" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1560" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1560" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1560" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1560" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G1560" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="H1560" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -50678,7 +50678,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1560" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1561" spans="1:10">
@@ -50686,22 +50686,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1561" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1561" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1561" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1561" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1561" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1561" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1561" s="1" t="n">
         <x:v>0</x:v>
@@ -50710,7 +50710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1561" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1562" spans="1:10">
@@ -50718,22 +50718,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1562" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1562" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1562" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1562" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1562" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1562" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1562" s="1" t="n">
         <x:v>0</x:v>
@@ -50742,7 +50742,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1562" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1563" spans="1:10">
@@ -50753,7 +50753,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C1563" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1563" s="1" t="n">
         <x:v>0</x:v>
@@ -50762,10 +50762,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1563" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1563" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1563" s="1" t="n">
         <x:v>0</x:v>
@@ -50774,7 +50774,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1563" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1564" spans="1:10">
@@ -50782,7 +50782,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1564" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1564" s="1" t="s">
         <x:v>13</x:v>
@@ -50794,7 +50794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1564" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1564" s="1" t="n">
         <x:v>1</x:v>
@@ -50806,7 +50806,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1564" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1565" spans="1:10">
@@ -50814,7 +50814,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1565" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1565" s="1" t="s">
         <x:v>9</x:v>
@@ -50826,10 +50826,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1565" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1565" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1565" s="1" t="n">
         <x:v>0</x:v>
@@ -50838,7 +50838,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1565" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1566" spans="1:10">
@@ -50846,31 +50846,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1566" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1566" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1566" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1566" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1566" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1566" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1566" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1566" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1566" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1567" spans="1:10">
@@ -50878,31 +50878,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1567" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1567" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1567" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1567" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1567" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1567" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1567" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1567" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1567" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1568" spans="1:10">
@@ -50913,28 +50913,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1568" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1568" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1568" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1568" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G1568" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H1568" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E1568" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F1568" s="1" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G1568" s="1" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H1568" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="I1568" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1568" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1569" spans="1:10">
@@ -50942,31 +50942,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1569" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1569" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1569" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1569" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1569" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1569" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1569" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1569" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1569" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1570" spans="1:10">
@@ -50974,31 +50974,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1570" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1570" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1570" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1570" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1570" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1570" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H1570" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1570" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1570" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="1571" spans="1:10">
@@ -51009,16 +51009,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1571" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1571" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1571" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1571" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1571" s="1" t="n">
         <x:v>0</x:v>
@@ -51030,7 +51030,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1571" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1572" spans="1:10">
@@ -51038,19 +51038,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1572" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1572" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1572" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1572" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1572" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1572" s="1" t="n">
         <x:v>0</x:v>
@@ -51062,7 +51062,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1572" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1573" spans="1:10">
@@ -51070,19 +51070,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1573" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1573" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1573" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1573" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1573" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1573" s="1" t="n">
         <x:v>0</x:v>
@@ -51094,7 +51094,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1573" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1574" spans="1:10">
@@ -51102,10 +51102,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1574" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1574" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1574" s="1" t="n">
         <x:v>0</x:v>
@@ -51117,7 +51117,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1574" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1574" s="1" t="n">
         <x:v>0</x:v>
@@ -51126,7 +51126,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1574" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1575" spans="1:10">
@@ -51134,10 +51134,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1575" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1575" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1575" s="1" t="n">
         <x:v>0</x:v>
@@ -51149,7 +51149,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1575" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1575" s="1" t="n">
         <x:v>0</x:v>
@@ -51158,7 +51158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1575" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1576" spans="1:10">
@@ -51169,7 +51169,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C1576" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1576" s="1" t="n">
         <x:v>0</x:v>
@@ -51178,10 +51178,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1576" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1576" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1576" s="1" t="n">
         <x:v>0</x:v>
@@ -51190,7 +51190,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1576" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1577" spans="1:10">
@@ -51198,31 +51198,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1577" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1577" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1577" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1577" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1577" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1577" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1577" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1577" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1577" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1578" spans="1:10">
@@ -51230,31 +51230,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1578" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1578" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1578" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1578" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1578" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1578" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1578" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1578" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1578" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1578" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1578" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1578" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1578" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1578" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1579" spans="1:10">
@@ -51262,31 +51262,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1579" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1579" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1579" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1579" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1579" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1579" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1579" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1579" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1579" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1580" spans="1:10">
@@ -51294,31 +51294,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1580" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1580" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1580" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1580" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1580" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1580" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1580" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1580" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1580" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1581" spans="1:10">
@@ -51329,19 +51329,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1581" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1581" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1581" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1581" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1581" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1581" s="1" t="n">
         <x:v>0</x:v>
@@ -51350,7 +51350,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1581" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1582" spans="1:10">
@@ -51358,22 +51358,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1582" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1582" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1582" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1582" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1582" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1582" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1582" s="1" t="n">
         <x:v>0</x:v>
@@ -51382,7 +51382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1582" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1583" spans="1:10">
@@ -51390,31 +51390,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1583" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1583" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1583" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1583" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1583" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1583" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1583" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1583" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1583" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1584" spans="1:10">
@@ -51425,51 +51425,51 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1584" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1584" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1584" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1584" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1584" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1584" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1584" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1584" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1585" spans="1:10">
       <x:c r="A1585" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B1585" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1585" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1585" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1585" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1585" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1585" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1585" s="1" t="n">
         <x:v>3</x:v>
@@ -51478,39 +51478,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1585" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1586" spans="1:10">
       <x:c r="A1586" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B1586" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1586" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1586" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1586" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1586" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1586" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1586" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H1586" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I1586" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1586" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1587" spans="1:10">
@@ -51521,19 +51521,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1587" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1587" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1587" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1587" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1587" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1587" s="1" t="n">
         <x:v>3</x:v>
@@ -51542,7 +51542,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1587" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1588" spans="1:10">
@@ -51550,22 +51550,22 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1588" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1588" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1588" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1588" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1588" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1588" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1588" s="1" t="n">
         <x:v>0</x:v>
@@ -51574,7 +51574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1588" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1589" spans="1:10">
@@ -51582,31 +51582,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1589" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1589" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1589" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1589" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1589" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1589" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1589" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I1589" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1589" s="0" t="n">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1589" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1589" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1589" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1589" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1589" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1589" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1589" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1589" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1590" spans="1:10">
@@ -51614,10 +51614,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1590" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1590" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1590" s="1" t="n">
         <x:v>0</x:v>
@@ -51646,10 +51646,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1591" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1591" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1591" s="1" t="n">
         <x:v>0</x:v>
@@ -51658,10 +51658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1591" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1591" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1591" s="1" t="n">
         <x:v>0</x:v>
@@ -51670,7 +51670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1591" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1592" spans="1:10">
@@ -51681,7 +51681,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1592" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1592" s="1" t="n">
         <x:v>0</x:v>
@@ -51690,10 +51690,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1592" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1592" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1592" s="1" t="n">
         <x:v>0</x:v>
@@ -51702,7 +51702,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1592" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1593" spans="1:10">
@@ -51710,7 +51710,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1593" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1593" s="1" t="s">
         <x:v>13</x:v>
@@ -51722,10 +51722,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1593" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1593" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1593" s="1" t="n">
         <x:v>0</x:v>
@@ -51734,7 +51734,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1593" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1594" spans="1:10">
@@ -51742,7 +51742,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1594" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1594" s="1" t="s">
         <x:v>9</x:v>
@@ -51754,10 +51754,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1594" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1594" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1594" s="1" t="n">
         <x:v>0</x:v>
@@ -51766,7 +51766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1594" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1595" spans="1:10">
@@ -51774,7 +51774,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1595" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1595" s="1" t="s">
         <x:v>13</x:v>
@@ -51786,10 +51786,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1595" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1595" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1595" s="1" t="n">
         <x:v>0</x:v>
@@ -51806,7 +51806,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1596" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1596" s="1" t="s">
         <x:v>9</x:v>
@@ -51818,10 +51818,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1596" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1596" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1596" s="1" t="n">
         <x:v>0</x:v>
@@ -51838,7 +51838,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1597" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1597" s="1" t="s">
         <x:v>13</x:v>
@@ -51853,10 +51853,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1597" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1597" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1597" s="0" t="n">
         <x:v>0</x:v>
@@ -51870,7 +51870,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1598" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1598" s="1" t="s">
         <x:v>9</x:v>
@@ -51885,10 +51885,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1598" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1598" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1598" s="0" t="n">
         <x:v>0</x:v>
@@ -51899,19 +51899,19 @@
     </x:row>
     <x:row r="1599" spans="1:10">
       <x:c r="A1599" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1599" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1599" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1599" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1599" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1599" s="1" t="n">
         <x:v>0</x:v>
@@ -51920,7 +51920,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1599" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1599" s="0" t="n">
         <x:v>0</x:v>
@@ -51931,13 +51931,13 @@
     </x:row>
     <x:row r="1600" spans="1:10">
       <x:c r="A1600" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1600" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1600" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1600" s="1" t="n">
         <x:v>0</x:v>
@@ -51946,13 +51946,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1600" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1600" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1600" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1600" s="0" t="n">
         <x:v>0</x:v>
@@ -51969,7 +51969,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1601" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1601" s="1" t="n">
         <x:v>0</x:v>
@@ -51978,7 +51978,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1601" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1601" s="1" t="n">
         <x:v>0</x:v>
@@ -51990,7 +51990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1601" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1602" spans="1:10">
@@ -51998,31 +51998,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1602" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1602" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1602" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1602" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1602" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1602" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1602" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1602" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1602" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1603" spans="1:10">
@@ -52030,31 +52030,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1603" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1603" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1603" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1603" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1603" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1603" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1603" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1603" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1603" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1604" spans="1:10">
@@ -52065,28 +52065,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1604" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1604" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1604" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1604" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1604" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1604" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1604" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1604" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1605" spans="1:10">
@@ -52094,31 +52094,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1605" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1605" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1605" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1605" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1605" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1605" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1605" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1605" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1605" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1606" spans="1:10">
@@ -52126,31 +52126,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1606" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1606" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1606" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1606" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1606" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1606" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1606" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1606" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1606" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1607" spans="1:10">
@@ -52158,7 +52158,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1607" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1607" s="1" t="s">
         <x:v>13</x:v>
@@ -52190,7 +52190,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1608" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1608" s="1" t="s">
         <x:v>9</x:v>
@@ -52222,10 +52222,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1609" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1609" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1609" s="1" t="n">
         <x:v>0</x:v>
@@ -52254,10 +52254,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1610" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1610" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1610" s="1" t="n">
         <x:v>0</x:v>
@@ -52266,10 +52266,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1610" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1610" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1610" s="1" t="n">
         <x:v>0</x:v>
@@ -52278,7 +52278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1610" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1611" spans="1:10">
@@ -52289,7 +52289,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1611" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1611" s="1" t="n">
         <x:v>0</x:v>
@@ -52298,10 +52298,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1611" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1611" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1611" s="1" t="n">
         <x:v>0</x:v>
@@ -52310,7 +52310,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1611" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1612" spans="1:10">
@@ -52318,7 +52318,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1612" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1612" s="1" t="s">
         <x:v>13</x:v>
@@ -52333,7 +52333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1612" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1612" s="1" t="n">
         <x:v>0</x:v>
@@ -52342,7 +52342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1612" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1613" spans="1:10">
@@ -52350,7 +52350,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1613" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1613" s="1" t="s">
         <x:v>9</x:v>
@@ -52362,10 +52362,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1613" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1613" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1613" s="1" t="n">
         <x:v>0</x:v>
@@ -52374,114 +52374,114 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1613" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1614" spans="1:10">
       <x:c r="A1614" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1614" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1614" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1614" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1614" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1614" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1614" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1614" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1614" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1614" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1615" spans="1:10">
       <x:c r="A1615" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1615" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1615" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1615" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1615" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1615" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1615" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1615" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1615" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1615" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1616" spans="1:10">
       <x:c r="A1616" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1616" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1616" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1616" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1616" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1616" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1616" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1616" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1616" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1616" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1617" spans="1:10">
       <x:c r="A1617" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1617" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1617" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1617" s="1" t="n">
         <x:v>0</x:v>
@@ -52493,7 +52493,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1617" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1617" s="1" t="n">
         <x:v>0</x:v>
@@ -52502,7 +52502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1617" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1618" spans="1:10">
@@ -52510,31 +52510,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1618" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1618" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1618" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1618" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1618" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1618" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1618" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1618" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1618" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1619" spans="1:10">
@@ -52542,31 +52542,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1619" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1619" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1619" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1619" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1619" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1619" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1619" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1619" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1619" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1620" spans="1:10">
@@ -52574,31 +52574,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1620" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1620" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1620" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1620" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1620" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1620" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1620" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1620" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -52606,22 +52606,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1621" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1621" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1621" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1621" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1621" s="1" t="n">
         <x:v>0</x:v>
@@ -52630,7 +52630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
@@ -52638,19 +52638,19 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1622" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1622" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1622" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1622" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1622" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1622" s="1" t="n">
         <x:v>0</x:v>
@@ -52662,7 +52662,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">
@@ -52670,22 +52670,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1623" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1623" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1623" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1623" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1623" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1623" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1623" s="1" t="n">
         <x:v>0</x:v>
@@ -52694,7 +52694,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1623" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1624" spans="1:10">
@@ -52702,19 +52702,19 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1624" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1624" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1624" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1624" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1624" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1624" s="1" t="n">
         <x:v>0</x:v>
@@ -52726,7 +52726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1624" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1625" spans="1:10">
@@ -52734,22 +52734,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1625" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1625" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1625" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1625" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1625" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1625" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1625" s="1" t="n">
         <x:v>0</x:v>
@@ -52758,7 +52758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1625" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1626" spans="1:10">
@@ -52766,31 +52766,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1626" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1626" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1626" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1626" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1626" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1626" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1626" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1626" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1626" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1627" spans="1:10">
@@ -52798,31 +52798,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1627" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1627" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1627" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1627" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1627" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1627" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1627" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1627" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1627" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1628" spans="1:10">
@@ -52830,22 +52830,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1628" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1628" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1628" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1628" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1628" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1628" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1628" s="1" t="n">
         <x:v>0</x:v>
@@ -52854,7 +52854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1628" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1629" spans="1:10">
@@ -52862,22 +52862,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1629" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1629" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1629" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1629" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1629" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1629" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1629" s="1" t="n">
         <x:v>0</x:v>
@@ -52886,7 +52886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1629" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1630" spans="1:10">
@@ -52894,31 +52894,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1630" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1630" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1630" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1630" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1630" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1630" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1630" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1630" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1630" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1631" spans="1:10">
@@ -52926,31 +52926,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1631" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1631" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1631" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1631" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1631" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1631" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1631" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1632" spans="1:10">
@@ -52958,10 +52958,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1632" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C1632" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1632" s="1" t="n">
         <x:v>0</x:v>
@@ -52970,10 +52970,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1632" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1632" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1632" s="1" t="n">
         <x:v>0</x:v>
@@ -52982,7 +52982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1632" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1633" spans="1:10">
@@ -52990,31 +52990,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1633" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C1633" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1633" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1633" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1633" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1633" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1633" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1633" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1633" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1634" spans="1:10">
@@ -53022,31 +53022,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1634" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1634" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1634" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1634" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1634" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1634" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1634" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1634" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1634" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1635" spans="1:10">
@@ -53054,31 +53054,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1635" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1635" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1635" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1635" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1635" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1635" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1635" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1635" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1635" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1636" spans="1:10">
@@ -53086,22 +53086,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1636" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1636" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1636" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1636" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1636" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1636" s="1" t="n">
         <x:v>0</x:v>
@@ -53110,7 +53110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -53118,31 +53118,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1637" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1637" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1637" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1637" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1637" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1637" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1637" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1637" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1637" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1638" spans="1:10">
@@ -53150,31 +53150,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1638" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1638" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1638" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1638" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1638" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1638" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1638" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1638" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1638" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="1639" spans="1:10">
@@ -53182,31 +53182,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1639" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1639" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1639" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1639" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1639" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1639" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1639" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1639" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1639" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="1640" spans="1:10">
@@ -53214,19 +53214,19 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1640" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1640" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1640" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1640" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1640" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1640" s="1" t="n">
         <x:v>0</x:v>
@@ -53246,7 +53246,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1641" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1641" s="1" t="s">
         <x:v>9</x:v>
@@ -53255,10 +53255,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1641" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1641" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1641" s="1" t="n">
         <x:v>0</x:v>
@@ -53278,7 +53278,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1642" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1642" s="1" t="s">
         <x:v>13</x:v>
@@ -53296,13 +53296,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1642" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1642" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1642" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1643" spans="1:10">
@@ -53310,7 +53310,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1643" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1643" s="1" t="s">
         <x:v>9</x:v>
@@ -53328,24 +53328,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1643" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1643" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1643" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1644" spans="1:10">
       <x:c r="A1644" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1644" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1644" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1644" s="1" t="n">
         <x:v>0</x:v>
@@ -53371,10 +53371,10 @@
     </x:row>
     <x:row r="1645" spans="1:10">
       <x:c r="A1645" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1645" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1645" s="1" t="s">
         <x:v>9</x:v>
@@ -53403,66 +53403,66 @@
     </x:row>
     <x:row r="1646" spans="1:10">
       <x:c r="A1646" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1646" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1646" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1646" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1646" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1646" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1646" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1646" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1646" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1646" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1647" spans="1:10">
       <x:c r="A1647" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1647" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1647" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1647" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1647" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1647" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1647" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1647" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1647" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1647" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1648" spans="1:10">
@@ -53470,31 +53470,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1648" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1648" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1648" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1648" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1648" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1648" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1648" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1648" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1648" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1649" spans="1:10">
@@ -53502,22 +53502,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1649" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1649" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1649" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1649" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1649" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1649" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1649" s="1" t="n">
         <x:v>0</x:v>
@@ -53526,7 +53526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1649" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1650" spans="1:10">
@@ -53534,31 +53534,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1650" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1650" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1650" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1650" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1650" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1650" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1650" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1650" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1650" s="0" t="n">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="C1650" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1650" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E1650" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1650" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1650" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1650" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1650" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1650" s="0" t="n">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1651" spans="1:10">
@@ -53566,31 +53566,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1651" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1651" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1651" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1651" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1651" s="1" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G1651" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D1651" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1651" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1651" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1651" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="H1651" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1651" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1651" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="1652" spans="1:10">
@@ -53598,31 +53598,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1652" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1652" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1652" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1652" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1652" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1652" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1652" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1652" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1652" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1653" spans="1:10">
@@ -53630,22 +53630,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1653" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1653" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1653" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1653" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1653" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1653" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1653" s="1" t="n">
         <x:v>0</x:v>
@@ -53654,7 +53654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1653" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1654" spans="1:10">
@@ -53662,22 +53662,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1654" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1654" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1654" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1654" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1654" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1654" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1654" s="1" t="n">
         <x:v>0</x:v>
@@ -53686,7 +53686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1654" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1655" spans="1:10">
@@ -53694,22 +53694,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1655" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1655" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1655" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1655" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1655" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1655" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1655" s="1" t="n">
         <x:v>0</x:v>
@@ -53718,7 +53718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1655" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1656" spans="1:10">
@@ -53726,22 +53726,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1656" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1656" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1656" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1656" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1656" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1656" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1656" s="1" t="n">
         <x:v>0</x:v>
@@ -53750,7 +53750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1656" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1657" spans="1:10">
@@ -53758,31 +53758,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1657" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1657" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1657" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1657" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1657" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1657" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1657" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1657" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1657" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1658" spans="1:10">
@@ -53790,31 +53790,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1658" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1658" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1658" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1658" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1658" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1658" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1658" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1658" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1658" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1659" spans="1:10">
@@ -53822,31 +53822,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1659" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1659" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1659" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1659" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1659" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1659" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1659" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1659" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1659" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1660" spans="1:10">
@@ -53854,22 +53854,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1660" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1660" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1660" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1660" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1660" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1660" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1660" s="1" t="n">
         <x:v>0</x:v>
@@ -53878,7 +53878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1660" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1661" spans="1:10">
@@ -53886,31 +53886,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1661" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1661" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1661" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1661" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1661" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1661" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1661" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1661" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1661" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1662" spans="1:10">
@@ -53918,31 +53918,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1662" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1662" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1662" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1662" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1662" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1662" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1662" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1662" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1662" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1663" spans="1:10">
@@ -53950,31 +53950,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1663" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1663" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1663" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1663" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1663" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1663" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1664" spans="1:10">
@@ -53982,16 +53982,16 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1664" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1664" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1664" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1664" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1664" s="1" t="n">
         <x:v>0</x:v>
@@ -54006,7 +54006,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1664" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1665" spans="1:10">
@@ -54014,31 +54014,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1665" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1665" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1665" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1665" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1665" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1665" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1665" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1665" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1665" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="G1665" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H1665" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I1665" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1665" s="0" t="n">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1666" spans="1:10">
@@ -54046,31 +54046,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1666" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1666" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1666" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1666" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1666" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1666" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1666" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1666" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1666" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1667" spans="1:10">
@@ -54078,31 +54078,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1667" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1667" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1667" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1667" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1667" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1667" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1667" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1667" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1667" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1668" spans="1:10">
@@ -54110,10 +54110,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1668" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1668" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1668" s="1" t="n">
         <x:v>0</x:v>
@@ -54142,31 +54142,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1669" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1669" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1669" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1669" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1669" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1669" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1669" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1669" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1669" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1670" spans="1:10">
@@ -54174,31 +54174,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1670" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1670" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1670" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1670" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1670" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1670" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="1671" spans="1:10">
@@ -54206,31 +54206,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1671" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1671" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1671" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1671" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1671" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1671" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1671" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1671" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1671" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="1672" spans="1:10">
@@ -54238,13 +54238,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1672" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1672" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1672" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1672" s="1" t="n">
         <x:v>0</x:v>
@@ -54253,7 +54253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1672" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1672" s="1" t="n">
         <x:v>0</x:v>
@@ -54262,7 +54262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1672" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1673" spans="1:10">
@@ -54270,10 +54270,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1673" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1673" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1673" s="1" t="n">
         <x:v>0</x:v>
@@ -54285,10 +54285,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1673" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1673" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1673" s="0" t="n">
         <x:v>0</x:v>
@@ -54302,22 +54302,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1674" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1674" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1674" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1674" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1674" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1674" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1674" s="1" t="n">
         <x:v>0</x:v>
@@ -54326,7 +54326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1674" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1675" spans="1:10">
@@ -54334,31 +54334,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1675" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1675" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1675" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1675" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1675" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1675" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1675" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1675" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1675" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1676" spans="1:10">
@@ -54366,13 +54366,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1676" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1676" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1676" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1676" s="1" t="n">
         <x:v>0</x:v>
@@ -54390,7 +54390,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1676" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1677" spans="1:10">
@@ -54398,13 +54398,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1677" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1677" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1677" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1677" s="1" t="n">
         <x:v>0</x:v>
@@ -54413,7 +54413,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1677" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1677" s="1" t="n">
         <x:v>1</x:v>
@@ -54422,7 +54422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1677" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1678" spans="1:10">
@@ -54430,31 +54430,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1678" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1678" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1678" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1678" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1678" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1678" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1678" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1678" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1678" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1679" spans="1:10">
@@ -54462,31 +54462,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1679" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1679" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1679" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1679" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1679" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1679" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1679" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1679" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1679" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1680" spans="1:10">
@@ -54494,31 +54494,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1680" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1680" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1680" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1680" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1680" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1680" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1680" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1680" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1680" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1681" spans="1:10">
@@ -54526,22 +54526,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1681" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1681" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1681" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1681" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1681" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1681" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1681" s="1" t="n">
         <x:v>1</x:v>
@@ -54550,62 +54550,62 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1681" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1682" spans="1:10">
       <x:c r="A1682" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1682" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1682" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1682" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1682" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1682" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1682" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1682" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1682" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1682" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1683" spans="1:10">
       <x:c r="A1683" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1683" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1683" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1683" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1683" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1683" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1683" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1683" s="1" t="n">
         <x:v>0</x:v>
@@ -54614,71 +54614,71 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1683" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1684" spans="1:10">
       <x:c r="A1684" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1684" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1684" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1684" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1684" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1684" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1684" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1684" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1684" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1684" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1684" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H1684" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1684" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1684" s="0" t="n">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1685" spans="1:10">
       <x:c r="A1685" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1685" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1685" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1685" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1685" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1685" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1685" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1685" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1685" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1685" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1686" spans="1:10">
@@ -54686,22 +54686,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1686" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1686" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1686" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1686" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1686" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1686" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1686" s="1" t="n">
         <x:v>0</x:v>
@@ -54710,7 +54710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1686" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1687" spans="1:10">
@@ -54718,22 +54718,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1687" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1687" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1687" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1687" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1687" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1687" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1687" s="1" t="n">
         <x:v>0</x:v>
@@ -54742,7 +54742,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1687" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1688" spans="1:10">
@@ -54750,31 +54750,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1688" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1688" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1688" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1688" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1688" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1688" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1688" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1688" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1688" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1689" spans="1:10">
@@ -54782,10 +54782,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1689" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1689" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1689" s="1" t="n">
         <x:v>0</x:v>
@@ -54794,19 +54794,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1689" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1689" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1689" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1689" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1689" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1690" spans="1:10">
@@ -54814,10 +54814,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1690" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1690" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1690" s="1" t="n">
         <x:v>0</x:v>
@@ -54846,10 +54846,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1691" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1691" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1691" s="1" t="n">
         <x:v>0</x:v>
@@ -54858,7 +54858,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1691" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1691" s="1" t="n">
         <x:v>1</x:v>
@@ -54870,7 +54870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1691" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1692" spans="1:10">
@@ -54878,10 +54878,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1692" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1692" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1692" s="1" t="n">
         <x:v>0</x:v>
@@ -54890,13 +54890,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1692" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1692" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1692" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1692" s="0" t="n">
         <x:v>0</x:v>
@@ -54910,7 +54910,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1693" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1693" s="1" t="s">
         <x:v>9</x:v>
@@ -54922,19 +54922,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1693" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1693" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G1693" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H1693" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1693" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1693" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1694" spans="1:10">
@@ -54942,10 +54942,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1694" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1694" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1694" s="1" t="n">
         <x:v>0</x:v>
@@ -54957,10 +54957,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1694" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1694" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1694" s="0" t="n">
         <x:v>0</x:v>
@@ -54974,30 +54974,158 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1695" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1695" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1695" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1695" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1695" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1695" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1695" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1695" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1695" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1696" spans="1:10">
+      <x:c r="A1696" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B1696" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C1696" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1696" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1696" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1696" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1696" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1696" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1696" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1696" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1697" spans="1:10">
+      <x:c r="A1697" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B1697" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C1697" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1697" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1697" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1697" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1697" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1697" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1697" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1697" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1698" spans="1:10">
+      <x:c r="A1698" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B1698" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C1695" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1695" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1695" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1695" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1695" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1695" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1695" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1695" s="0" t="n">
+      <x:c r="C1698" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1698" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1698" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1698" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1698" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1698" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1698" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1698" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1699" spans="1:10">
+      <x:c r="A1699" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B1699" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1699" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1699" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1699" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1699" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1699" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1699" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1699" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1699" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1383,7 +1383,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>15</x:v>
@@ -1398,7 +1398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
@@ -1418,19 +1418,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
@@ -1447,22 +1447,22 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>61</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
@@ -1866,7 +1866,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>3</x:v>
@@ -1878,7 +1878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1898,7 +1898,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>13</x:v>
@@ -1910,7 +1910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1930,7 +1930,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>16</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2090,7 +2090,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>55</x:v>
@@ -2102,7 +2102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
@@ -2154,7 +2154,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>116</x:v>
@@ -2166,7 +2166,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
@@ -10378,19 +10378,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F301" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G301" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H301" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I301" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J301" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:10">
@@ -10410,19 +10410,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F302" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G302" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H302" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I302" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J302" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:10">
@@ -15559,7 +15559,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F463" s="1" t="n">
         <x:v>1</x:v>
@@ -15574,7 +15574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J463" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="464" spans="1:10">
@@ -15591,7 +15591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E464" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F464" s="1" t="n">
         <x:v>1</x:v>
@@ -15606,7 +15606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J464" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="465" spans="1:10">
@@ -17293,7 +17293,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="G517" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H517" s="1" t="n">
         <x:v>88</x:v>
@@ -17302,7 +17302,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J517" s="0" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="518" spans="1:10">
@@ -17325,7 +17325,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="G518" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="H518" s="1" t="n">
         <x:v>107</x:v>
@@ -17334,7 +17334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J518" s="0" t="n">
-        <x:v>921</x:v>
+        <x:v>922</x:v>
       </x:c>
     </x:row>
     <x:row r="519" spans="1:10">
@@ -36202,7 +36202,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F1108" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G1108" s="1" t="n">
         <x:v>80</x:v>
@@ -36214,7 +36214,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1108" s="0" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="1109" spans="1:10">
@@ -36234,7 +36234,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F1109" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G1109" s="1" t="n">
         <x:v>110</x:v>
@@ -36246,7 +36246,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1109" s="0" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="1110" spans="1:10">
@@ -36583,10 +36583,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1120" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1120" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G1120" s="1" t="n">
         <x:v>41</x:v>
@@ -36598,7 +36598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1120" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="1121" spans="1:10">
@@ -36615,10 +36615,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1121" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1121" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G1121" s="1" t="n">
         <x:v>50</x:v>
@@ -36630,7 +36630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1121" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="1122" spans="1:10">
@@ -43940,7 +43940,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1350" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1350" s="1" t="n">
         <x:v>17</x:v>
@@ -43958,7 +43958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1350" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="1351" spans="1:10">
@@ -43972,7 +43972,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1351" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1351" s="1" t="n">
         <x:v>35</x:v>
@@ -43990,7 +43990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1351" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="1352" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1418,7 +1418,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>47</x:v>
@@ -1430,7 +1430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
@@ -1450,7 +1450,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>61</x:v>
@@ -1462,7 +1462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
@@ -1805,7 +1805,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>11</x:v>
@@ -1814,7 +1814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
@@ -1837,7 +1837,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>18</x:v>
@@ -1846,7 +1846,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
@@ -2509,7 +2509,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
         <x:v>2</x:v>
@@ -2518,7 +2518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10">
@@ -2541,7 +2541,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
         <x:v>2</x:v>
@@ -2550,7 +2550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
@@ -5191,13 +5191,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E139" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F139" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G139" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H139" s="1" t="n">
         <x:v>2</x:v>
@@ -5206,7 +5206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J139" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:10">
@@ -5229,7 +5229,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G140" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H140" s="1" t="n">
         <x:v>3</x:v>
@@ -5238,7 +5238,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J140" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:10">
@@ -5255,13 +5255,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E141" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F141" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G141" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H141" s="1" t="n">
         <x:v>5</x:v>
@@ -5270,7 +5270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:10">
@@ -5357,7 +5357,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G144" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H144" s="1" t="n">
         <x:v>0</x:v>
@@ -5366,7 +5366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:10">
@@ -5389,7 +5389,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G145" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H145" s="1" t="n">
         <x:v>0</x:v>
@@ -5398,7 +5398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:10">
@@ -5552,13 +5552,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H150" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I150" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J150" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:10">
@@ -5584,13 +5584,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H151" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I151" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:10">
@@ -5610,7 +5610,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F152" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G152" s="1" t="n">
         <x:v>2</x:v>
@@ -5622,7 +5622,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J152" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:10">
@@ -5674,7 +5674,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F154" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G154" s="1" t="n">
         <x:v>2</x:v>
@@ -5686,7 +5686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J154" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:10">
@@ -34218,7 +34218,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1046" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
         <x:v>2</x:v>
@@ -34230,7 +34230,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1046" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1047" spans="1:10">
@@ -34247,7 +34247,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="n">
         <x:v>6</x:v>
@@ -34262,7 +34262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1047" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="1048" spans="1:10">
@@ -34279,10 +34279,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="n">
         <x:v>9</x:v>
@@ -34294,7 +34294,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1048" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1049" spans="1:10">
@@ -34317,7 +34317,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1049" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1049" s="1" t="n">
         <x:v>0</x:v>
@@ -34326,7 +34326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1049" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1050" spans="1:10">
@@ -34349,7 +34349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1050" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1050" s="1" t="n">
         <x:v>0</x:v>
@@ -34358,7 +34358,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1050" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1051" spans="1:10">
@@ -34378,7 +34378,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1051" s="1" t="n">
         <x:v>3</x:v>
@@ -34390,7 +34390,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1051" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1052" spans="1:10">
@@ -34410,7 +34410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="n">
         <x:v>2</x:v>
@@ -34422,7 +34422,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1052" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1053" spans="1:10">
@@ -34442,7 +34442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1053" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="n">
         <x:v>5</x:v>
@@ -34454,7 +34454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1053" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1054" spans="1:10">
@@ -39309,7 +39309,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1205" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1205" s="1" t="n">
         <x:v>0</x:v>
@@ -39318,7 +39318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1205" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1206" spans="1:10">
@@ -39373,7 +39373,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1207" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1207" s="1" t="n">
         <x:v>2</x:v>
@@ -39382,7 +39382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1207" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="1208" spans="1:10">
@@ -40708,7 +40708,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1249" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1249" s="1" t="n">
         <x:v>4</x:v>
@@ -40726,7 +40726,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1249" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1250" spans="1:10">
@@ -40749,7 +40749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1250" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1250" s="1" t="n">
         <x:v>8</x:v>
@@ -40758,7 +40758,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1250" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1251" spans="1:10">
@@ -40772,7 +40772,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1251" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1251" s="1" t="n">
         <x:v>13</x:v>
@@ -40781,7 +40781,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G1251" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H1251" s="1" t="n">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2471,7 +2471,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>37</x:v>
@@ -2489,7 +2489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10">
@@ -2503,7 +2503,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>29</x:v>
@@ -2521,7 +2521,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10">
@@ -2535,7 +2535,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>66</x:v>
@@ -2553,7 +2553,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
@@ -2698,13 +2698,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>0</x:v>
@@ -2713,7 +2713,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -2730,13 +2730,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
         <x:v>0</x:v>
@@ -2745,7 +2745,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
@@ -13805,7 +13805,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
         <x:v>18</x:v>
@@ -13817,7 +13817,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J408" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="409" spans="1:10">
@@ -13837,7 +13837,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>22</x:v>
@@ -13849,7 +13849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J409" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:10">
@@ -14061,10 +14061,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F416" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G416" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H416" s="1" t="n">
         <x:v>31</x:v>
@@ -14073,7 +14073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J416" s="0" t="n">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="417" spans="1:10">
@@ -14093,10 +14093,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F417" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G417" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H417" s="1" t="n">
         <x:v>50</x:v>
@@ -14105,7 +14105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J417" s="0" t="n">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="418" spans="1:10">
@@ -14544,7 +14544,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G431" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H431" s="1" t="n">
         <x:v>1</x:v>
@@ -14553,7 +14553,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J431" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="432" spans="1:10">
@@ -14576,7 +14576,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G432" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H432" s="1" t="n">
         <x:v>1</x:v>
@@ -14585,7 +14585,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J432" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="433" spans="1:10">
@@ -18887,10 +18887,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D567" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E567" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F567" s="1" t="n">
         <x:v>336</x:v>
@@ -18905,7 +18905,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J567" s="0" t="n">
-        <x:v>954</x:v>
+        <x:v>956</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:10">
@@ -18919,10 +18919,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D568" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E568" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F568" s="1" t="n">
         <x:v>414</x:v>
@@ -18937,7 +18937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J568" s="0" t="n">
-        <x:v>1221</x:v>
+        <x:v>1223</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:10">
@@ -19242,7 +19242,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E578" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F578" s="1" t="n">
         <x:v>75</x:v>
@@ -19257,7 +19257,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J578" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:10">
@@ -19306,7 +19306,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E580" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F580" s="1" t="n">
         <x:v>292</x:v>
@@ -19321,7 +19321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J580" s="0" t="n">
-        <x:v>827</x:v>
+        <x:v>826</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:10">
@@ -19754,7 +19754,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E594" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F594" s="1" t="n">
         <x:v>193</x:v>
@@ -19763,13 +19763,13 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="H594" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I594" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J594" s="0" t="n">
-        <x:v>602</x:v>
+        <x:v>604</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:10">
@@ -19786,22 +19786,22 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E595" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I595" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>808</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19818,22 +19818,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E596" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F596" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="H596" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I596" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>1410</x:v>
+        <x:v>1421</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -21645,7 +21645,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F653" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G653" s="1" t="n">
         <x:v>8</x:v>
@@ -21657,7 +21657,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J653" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="654" spans="1:10">
@@ -21677,7 +21677,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F654" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G654" s="1" t="n">
         <x:v>10</x:v>
@@ -21689,7 +21689,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J654" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="655" spans="1:10">
@@ -24467,13 +24467,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H741" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I741" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J741" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:10">
@@ -24531,13 +24531,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H743" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I743" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J743" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="744" spans="1:10">
@@ -40752,7 +40752,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="G1250" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H1250" s="1" t="n">
         <x:v>45</x:v>
@@ -40761,7 +40761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1250" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="1251" spans="1:10">
@@ -40784,7 +40784,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="G1251" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H1251" s="1" t="n">
         <x:v>70</x:v>
@@ -40793,7 +40793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1251" s="0" t="n">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
     </x:row>
     <x:row r="1252" spans="1:10">
@@ -40912,7 +40912,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1255" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1255" s="1" t="n">
         <x:v>0</x:v>
@@ -40921,7 +40921,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1255" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1256" spans="1:10">
@@ -40944,7 +40944,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1256" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1256" s="1" t="n">
         <x:v>0</x:v>
@@ -40953,7 +40953,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1256" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1257" spans="1:10">
@@ -49389,7 +49389,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1520" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1520" s="1" t="n">
         <x:v>11</x:v>
@@ -49401,7 +49401,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1520" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1521" spans="1:10">
@@ -49421,7 +49421,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F1521" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1521" s="1" t="n">
         <x:v>17</x:v>
@@ -49433,7 +49433,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1521" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="1522" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1767,7 +1767,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>31</x:v>
@@ -1785,7 +1785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10">
@@ -1799,7 +1799,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>49</x:v>
@@ -1817,7 +1817,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
@@ -20368,7 +20368,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c r="G613" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H613" s="1" t="n">
         <x:v>161</x:v>
@@ -20377,7 +20377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J613" s="0" t="n">
-        <x:v>1263</x:v>
+        <x:v>1264</x:v>
       </x:c>
     </x:row>
     <x:row r="614" spans="1:10">
@@ -20400,7 +20400,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="G614" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="H614" s="1" t="n">
         <x:v>194</x:v>
@@ -20409,7 +20409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J614" s="0" t="n">
-        <x:v>1608</x:v>
+        <x:v>1609</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:10">
@@ -20723,13 +20723,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="H624" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I624" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J624" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:10">
@@ -20787,13 +20787,13 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="H626" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I626" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J626" s="0" t="n">
-        <x:v>988</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="627" spans="1:10">
@@ -20874,7 +20874,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E629" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F629" s="1" t="n">
         <x:v>40</x:v>
@@ -20889,7 +20889,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J629" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="630" spans="1:10">
@@ -20938,7 +20938,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E631" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F631" s="1" t="n">
         <x:v>104</x:v>
@@ -20953,7 +20953,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J631" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:10">
@@ -21002,7 +21002,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E633" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F633" s="1" t="n">
         <x:v>8</x:v>
@@ -21017,7 +21017,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">
@@ -21034,7 +21034,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E634" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F634" s="1" t="n">
         <x:v>9</x:v>
@@ -21049,7 +21049,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J634" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="635" spans="1:10">
@@ -21255,25 +21255,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D641" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E641" s="1" t="n">
         <x:v>198</x:v>
       </x:c>
       <x:c r="F641" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G641" s="1" t="n">
         <x:v>207</x:v>
       </x:c>
       <x:c r="H641" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I641" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J641" s="0" t="n">
-        <x:v>778</x:v>
+        <x:v>781</x:v>
       </x:c>
     </x:row>
     <x:row r="642" spans="1:10">
@@ -21287,7 +21287,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D642" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E642" s="1" t="n">
         <x:v>208</x:v>
@@ -21305,7 +21305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J642" s="0" t="n">
-        <x:v>1035</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
     <x:row r="643" spans="1:10">
@@ -21319,25 +21319,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D643" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E643" s="1" t="n">
         <x:v>406</x:v>
       </x:c>
       <x:c r="F643" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="G643" s="1" t="n">
         <x:v>480</x:v>
       </x:c>
       <x:c r="H643" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I643" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J643" s="0" t="n">
-        <x:v>1813</x:v>
+        <x:v>1817</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:10">
@@ -43469,7 +43469,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1335" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1335" s="1" t="n">
         <x:v>12</x:v>
@@ -43481,7 +43481,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1335" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="1336" spans="1:10">
@@ -43533,7 +43533,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1337" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G1337" s="1" t="n">
         <x:v>46</x:v>
@@ -43545,7 +43545,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1337" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1338" spans="1:10">
@@ -46125,7 +46125,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1418" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1418" s="1" t="n">
         <x:v>3</x:v>
@@ -46137,7 +46137,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1418" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1419" spans="1:10">
@@ -46157,7 +46157,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1419" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1419" s="1" t="n">
         <x:v>3</x:v>
@@ -46169,7 +46169,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1419" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1420" spans="1:10">
@@ -47213,7 +47213,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1452" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1452" s="1" t="n">
         <x:v>12</x:v>
@@ -47225,7 +47225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1452" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1453" spans="1:10">
@@ -47277,7 +47277,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1454" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1454" s="1" t="n">
         <x:v>23</x:v>
@@ -47289,7 +47289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1454" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="1455" spans="1:10">
@@ -53354,7 +53354,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1644" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1644" s="1" t="n">
         <x:v>46</x:v>
@@ -53369,7 +53369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1644" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="1645" spans="1:10">
@@ -53386,7 +53386,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E1645" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1645" s="1" t="n">
         <x:v>52</x:v>
@@ -53401,7 +53401,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1645" s="0" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="1646" spans="1:10">
@@ -53418,7 +53418,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E1646" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F1646" s="1" t="n">
         <x:v>98</x:v>
@@ -53433,7 +53433,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1646" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="1647" spans="1:10">
@@ -60176,7 +60176,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G1857" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1857" s="1" t="n">
         <x:v>21</x:v>
@@ -60185,7 +60185,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1857" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="1858" spans="1:10">
@@ -60208,7 +60208,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="G1858" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H1858" s="1" t="n">
         <x:v>37</x:v>
@@ -60217,7 +60217,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1858" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="1859" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -999,7 +999,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>2</x:v>
@@ -1017,7 +1017,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -1031,7 +1031,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>2</x:v>
@@ -1049,7 +1049,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -21255,7 +21255,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D641" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E641" s="1" t="n">
         <x:v>198</x:v>
@@ -21273,7 +21273,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J641" s="0" t="n">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
     </x:row>
     <x:row r="642" spans="1:10">
@@ -21290,10 +21290,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E642" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F642" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G642" s="1" t="n">
         <x:v>273</x:v>
@@ -21305,7 +21305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J642" s="0" t="n">
-        <x:v>1036</x:v>
+        <x:v>1038</x:v>
       </x:c>
     </x:row>
     <x:row r="643" spans="1:10">
@@ -21319,13 +21319,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D643" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E643" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="F643" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="G643" s="1" t="n">
         <x:v>480</x:v>
@@ -21337,7 +21337,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J643" s="0" t="n">
-        <x:v>1817</x:v>
+        <x:v>1820</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:10">
@@ -23309,7 +23309,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F705" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G705" s="1" t="n">
         <x:v>2</x:v>
@@ -23321,7 +23321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J705" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="706" spans="1:10">
@@ -23373,7 +23373,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F707" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G707" s="1" t="n">
         <x:v>15</x:v>
@@ -23385,7 +23385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J707" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="708" spans="1:10">
@@ -29776,7 +29776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G907" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H907" s="1" t="n">
         <x:v>1</x:v>
@@ -29785,7 +29785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J907" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="908" spans="1:10">
@@ -29808,7 +29808,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G908" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H908" s="1" t="n">
         <x:v>1</x:v>
@@ -29817,7 +29817,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J908" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="909" spans="1:10">
@@ -32429,7 +32429,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F990" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G990" s="1" t="n">
         <x:v>14</x:v>
@@ -32441,7 +32441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J990" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="991" spans="1:10">
@@ -32461,7 +32461,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F991" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G991" s="1" t="n">
         <x:v>21</x:v>
@@ -32473,7 +32473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J991" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="992" spans="1:10">
@@ -43402,10 +43402,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E1333" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F1333" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G1333" s="1" t="n">
         <x:v>159</x:v>
@@ -43417,7 +43417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1333" s="0" t="n">
-        <x:v>576</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
     <x:row r="1334" spans="1:10">
@@ -43434,10 +43434,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E1334" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F1334" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G1334" s="1" t="n">
         <x:v>210</x:v>
@@ -43449,7 +43449,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1334" s="0" t="n">
-        <x:v>759</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="1335" spans="1:10">
@@ -44208,7 +44208,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G1358" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H1358" s="1" t="n">
         <x:v>34</x:v>
@@ -44217,7 +44217,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1358" s="0" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="1359" spans="1:10">
@@ -44237,7 +44237,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="F1359" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G1359" s="1" t="n">
         <x:v>120</x:v>
@@ -44249,7 +44249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1359" s="0" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="1360" spans="1:10">
@@ -44269,10 +44269,10 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="F1360" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G1360" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H1360" s="1" t="n">
         <x:v>98</x:v>
@@ -44281,7 +44281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1360" s="0" t="n">
-        <x:v>765</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="1361" spans="1:10">
@@ -44301,7 +44301,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1361" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1361" s="1" t="n">
         <x:v>6</x:v>
@@ -44313,7 +44313,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1361" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1362" spans="1:10">
@@ -44365,7 +44365,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F1363" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G1363" s="1" t="n">
         <x:v>22</x:v>
@@ -44377,7 +44377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1363" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="1364" spans="1:10">
@@ -44682,7 +44682,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E1373" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1373" s="1" t="n">
         <x:v>38</x:v>
@@ -44697,7 +44697,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1373" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="1374" spans="1:10">
@@ -44714,7 +44714,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E1374" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1374" s="1" t="n">
         <x:v>50</x:v>
@@ -44729,7 +44729,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1374" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="1375" spans="1:10">
@@ -48784,7 +48784,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1501" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1501" s="1" t="n">
         <x:v>2</x:v>
@@ -48793,7 +48793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1501" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1502" spans="1:10">
@@ -48816,16 +48816,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G1502" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1502" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1502" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1502" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="1503" spans="1:10">
@@ -48848,16 +48848,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G1503" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1503" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1503" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1503" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="1504" spans="1:10">
@@ -49264,7 +49264,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1516" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1516" s="1" t="n">
         <x:v>10</x:v>
@@ -49273,7 +49273,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1516" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1517" spans="1:10">
@@ -49296,16 +49296,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G1517" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H1517" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1517" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1517" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="1518" spans="1:10">
@@ -49328,16 +49328,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G1518" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1518" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1518" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1518" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="1519" spans="1:10">
@@ -49799,7 +49799,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1533" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1533" s="1" t="n">
         <x:v>2</x:v>
@@ -49817,7 +49817,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1533" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1534" spans="1:10">
@@ -49863,7 +49863,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1535" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1535" s="1" t="n">
         <x:v>9</x:v>
@@ -49881,7 +49881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1535" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="1536" spans="1:10">
@@ -50227,13 +50227,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1546" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1546" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1546" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1547" spans="1:10">
@@ -50291,13 +50291,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1548" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -60586,10 +60586,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1870" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1870" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1870" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="G1870" s="1" t="n">
         <x:v>4</x:v>
@@ -60601,7 +60601,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1870" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1871" spans="1:10">
@@ -60618,10 +60618,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1871" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1871" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1871" s="1" t="n">
         <x:v>5</x:v>
@@ -60633,7 +60633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1871" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1872" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -754,7 +754,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J1999"/>
+  <x:dimension ref="A1:J2000"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1869,7 +1869,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>9</x:v>
@@ -1881,7 +1881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1901,7 +1901,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>10</x:v>
@@ -1913,7 +1913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -6759,7 +6759,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D188" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E188" s="1" t="n">
         <x:v>0</x:v>
@@ -6777,7 +6777,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J188" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:10">
@@ -6791,7 +6791,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D189" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E189" s="1" t="n">
         <x:v>0</x:v>
@@ -6809,7 +6809,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J189" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:10">
@@ -14733,7 +14733,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F437" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G437" s="1" t="n">
         <x:v>5</x:v>
@@ -14745,7 +14745,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J437" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="438" spans="1:10">
@@ -14797,7 +14797,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F439" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G439" s="1" t="n">
         <x:v>26</x:v>
@@ -14809,7 +14809,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J439" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="440" spans="1:10">
@@ -15498,7 +15498,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E461" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F461" s="1" t="n">
         <x:v>2</x:v>
@@ -15513,7 +15513,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J461" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:10">
@@ -15530,7 +15530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E462" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F462" s="1" t="n">
         <x:v>5</x:v>
@@ -15545,7 +15545,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J462" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:10">
@@ -16400,7 +16400,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G489" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H489" s="1" t="n">
         <x:v>7</x:v>
@@ -16409,7 +16409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J489" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="490" spans="1:10">
@@ -16432,7 +16432,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G490" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H490" s="1" t="n">
         <x:v>7</x:v>
@@ -16441,7 +16441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J490" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="491" spans="1:10">
@@ -16749,7 +16749,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F500" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G500" s="1" t="n">
         <x:v>1</x:v>
@@ -16761,7 +16761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J500" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:10">
@@ -16781,7 +16781,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F501" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G501" s="1" t="n">
         <x:v>0</x:v>
@@ -16793,7 +16793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J501" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:10">
@@ -16813,7 +16813,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F502" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G502" s="1" t="n">
         <x:v>1</x:v>
@@ -16825,7 +16825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J502" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:10">
@@ -20330,13 +20330,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E612" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F612" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G612" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H612" s="1" t="n">
         <x:v>33</x:v>
@@ -20345,7 +20345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J612" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="613" spans="1:10">
@@ -20362,22 +20362,22 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E613" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F613" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="G613" s="1" t="n">
         <x:v>392</x:v>
       </x:c>
       <x:c r="H613" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I613" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J613" s="0" t="n">
-        <x:v>1264</x:v>
+        <x:v>1268</x:v>
       </x:c>
     </x:row>
     <x:row r="614" spans="1:10">
@@ -20394,22 +20394,22 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E614" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F614" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="G614" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="H614" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I614" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J614" s="0" t="n">
-        <x:v>1609</x:v>
+        <x:v>1616</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:10">
@@ -20432,7 +20432,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G615" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H615" s="1" t="n">
         <x:v>1</x:v>
@@ -20441,7 +20441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J615" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="616" spans="1:10">
@@ -20496,7 +20496,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G617" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H617" s="1" t="n">
         <x:v>23</x:v>
@@ -20505,7 +20505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">
@@ -20528,7 +20528,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G618" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H618" s="1" t="n">
         <x:v>1</x:v>
@@ -20537,7 +20537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J618" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:10">
@@ -20592,7 +20592,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G620" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H620" s="1" t="n">
         <x:v>5</x:v>
@@ -20601,7 +20601,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J620" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="621" spans="1:10">
@@ -20749,7 +20749,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="F625" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G625" s="1" t="n">
         <x:v>237</x:v>
@@ -20761,7 +20761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J625" s="0" t="n">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
     </x:row>
     <x:row r="626" spans="1:10">
@@ -20781,7 +20781,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="F626" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="G626" s="1" t="n">
         <x:v>318</x:v>
@@ -20793,7 +20793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J626" s="0" t="n">
-        <x:v>989</x:v>
+        <x:v>990</x:v>
       </x:c>
     </x:row>
     <x:row r="627" spans="1:10">
@@ -20906,7 +20906,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E630" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F630" s="1" t="n">
         <x:v>64</x:v>
@@ -20921,7 +20921,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J630" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="631" spans="1:10">
@@ -20938,7 +20938,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E631" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F631" s="1" t="n">
         <x:v>104</x:v>
@@ -20953,7 +20953,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J631" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:10">
@@ -21258,7 +21258,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E641" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F641" s="1" t="n">
         <x:v>243</x:v>
@@ -21267,13 +21267,13 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="H641" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I641" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J641" s="0" t="n">
-        <x:v>782</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="642" spans="1:10">
@@ -21287,16 +21287,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D642" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E642" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F642" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G642" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H642" s="1" t="n">
         <x:v>138</x:v>
@@ -21305,7 +21305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J642" s="0" t="n">
-        <x:v>1038</x:v>
+        <x:v>1045</x:v>
       </x:c>
     </x:row>
     <x:row r="643" spans="1:10">
@@ -21319,25 +21319,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D643" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E643" s="1" t="n">
-        <x:v>407</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="F643" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="G643" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="H643" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I643" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J643" s="0" t="n">
-        <x:v>1820</x:v>
+        <x:v>1829</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:10">
@@ -23341,7 +23341,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F706" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G706" s="1" t="n">
         <x:v>13</x:v>
@@ -23353,7 +23353,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J706" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="707" spans="1:10">
@@ -23373,7 +23373,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F707" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G707" s="1" t="n">
         <x:v>15</x:v>
@@ -23385,7 +23385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J707" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="708" spans="1:10">
@@ -23562,7 +23562,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E713" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F713" s="1" t="n">
         <x:v>1</x:v>
@@ -23577,7 +23577,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J713" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="714" spans="1:10">
@@ -23594,7 +23594,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E714" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F714" s="1" t="n">
         <x:v>1</x:v>
@@ -23609,7 +23609,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J714" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="715" spans="1:10">
@@ -33261,7 +33261,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1016" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1016" s="1" t="n">
         <x:v>1</x:v>
@@ -33273,7 +33273,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1016" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1017" spans="1:10">
@@ -33293,7 +33293,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
         <x:v>1</x:v>
@@ -33305,7 +33305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1017" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1018" spans="1:10">
@@ -44234,7 +44234,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E1359" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F1359" s="1" t="n">
         <x:v>138</x:v>
@@ -44249,7 +44249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1359" s="0" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="1360" spans="1:10">
@@ -44266,7 +44266,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E1360" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F1360" s="1" t="n">
         <x:v>234</x:v>
@@ -44281,7 +44281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1360" s="0" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="1361" spans="1:10">
@@ -44490,7 +44490,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1367" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1367" s="1" t="n">
         <x:v>12</x:v>
@@ -44505,7 +44505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1367" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="1368" spans="1:10">
@@ -44522,7 +44522,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1368" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1368" s="1" t="n">
         <x:v>15</x:v>
@@ -44537,7 +44537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1368" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="1369" spans="1:10">
@@ -45261,7 +45261,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1391" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1391" s="1" t="n">
         <x:v>8</x:v>
@@ -45273,7 +45273,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1391" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1392" spans="1:10">
@@ -45293,7 +45293,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1392" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1392" s="1" t="n">
         <x:v>14</x:v>
@@ -45305,7 +45305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1392" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="1393" spans="1:10">
@@ -47210,7 +47210,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1452" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1452" s="1" t="n">
         <x:v>10</x:v>
@@ -47225,7 +47225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1452" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1453" spans="1:10">
@@ -47274,7 +47274,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1454" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1454" s="1" t="n">
         <x:v>19</x:v>
@@ -47289,7 +47289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1454" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1455" spans="1:10">
@@ -48458,7 +48458,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1491" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1491" s="1" t="n">
         <x:v>23</x:v>
@@ -48473,7 +48473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1491" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="1492" spans="1:10">
@@ -48490,7 +48490,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E1492" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1492" s="1" t="n">
         <x:v>32</x:v>
@@ -48505,7 +48505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1492" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="1493" spans="1:10">
@@ -48717,7 +48717,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1499" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1499" s="1" t="n">
         <x:v>1</x:v>
@@ -48729,7 +48729,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1499" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1500" spans="1:10">
@@ -48749,7 +48749,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1500" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1500" s="1" t="n">
         <x:v>2</x:v>
@@ -48761,7 +48761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1500" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1501" spans="1:10">
@@ -49523,13 +49523,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1524" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1524" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1524" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1525" spans="1:10">
@@ -49555,13 +49555,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1525" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1525" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1525" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1526" spans="1:10">
@@ -50317,7 +50317,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
         <x:v>6</x:v>
@@ -50329,7 +50329,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50381,7 +50381,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1551" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1551" s="1" t="n">
         <x:v>14</x:v>
@@ -50393,7 +50393,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1551" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="1552" spans="1:10">
@@ -55940,7 +55940,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1725" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1725" s="1" t="n">
         <x:v>0</x:v>
@@ -55955,13 +55955,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1725" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1725" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1725" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1726" spans="1:10">
@@ -55972,7 +55972,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1726" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1726" s="1" t="n">
         <x:v>0</x:v>
@@ -56001,10 +56001,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1727" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1727" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1727" s="1" t="n">
         <x:v>0</x:v>
@@ -56013,19 +56013,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1727" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1727" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1727" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1727" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1727" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1728" spans="1:10">
@@ -56036,7 +56036,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1728" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1728" s="1" t="n">
         <x:v>0</x:v>
@@ -56048,16 +56048,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1728" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1728" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1728" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1728" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1729" spans="1:10">
@@ -56068,7 +56068,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1729" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1729" s="1" t="n">
         <x:v>0</x:v>
@@ -56080,7 +56080,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1729" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1729" s="1" t="n">
         <x:v>2</x:v>
@@ -56089,7 +56089,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1729" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1730" spans="1:10">
@@ -56097,10 +56097,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1730" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1730" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1730" s="1" t="n">
         <x:v>0</x:v>
@@ -56109,19 +56109,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1730" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1730" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1730" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1730" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1730" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1731" spans="1:10">
@@ -56132,7 +56132,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1731" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1731" s="1" t="n">
         <x:v>0</x:v>
@@ -56161,16 +56161,16 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1732" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1732" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1732" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1732" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1732" s="1" t="n">
         <x:v>1</x:v>
@@ -56185,7 +56185,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1732" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1733" spans="1:10">
@@ -56196,28 +56196,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1733" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1733" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1733" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1733" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1733" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1733" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1733" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1733" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1733" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1733" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1733" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1733" s="0" t="n">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1734" spans="1:10">
@@ -56228,16 +56228,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1734" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1734" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1734" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1734" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1734" s="1" t="n">
         <x:v>2</x:v>
@@ -56249,7 +56249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1734" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1735" spans="1:10">
@@ -56257,31 +56257,31 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1735" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1735" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1735" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1735" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1735" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1735" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1735" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1735" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1735" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1736" spans="1:10">
@@ -56292,7 +56292,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1736" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1736" s="1" t="n">
         <x:v>0</x:v>
@@ -56321,22 +56321,22 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1737" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1737" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1737" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1737" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1737" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1737" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1737" s="1" t="n">
         <x:v>0</x:v>
@@ -56356,7 +56356,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1738" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1738" s="1" t="n">
         <x:v>0</x:v>
@@ -56385,13 +56385,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1739" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1739" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1739" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1739" s="1" t="n">
         <x:v>0</x:v>
@@ -56400,7 +56400,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1739" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1739" s="1" t="n">
         <x:v>0</x:v>
@@ -56409,7 +56409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1739" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1740" spans="1:10">
@@ -56420,7 +56420,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1740" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1740" s="1" t="n">
         <x:v>2</x:v>
@@ -56449,13 +56449,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B1741" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1741" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1741" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1741" s="1" t="n">
         <x:v>0</x:v>
@@ -56467,13 +56467,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1741" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1741" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1741" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1742" spans="1:10">
@@ -56484,7 +56484,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1742" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1742" s="1" t="n">
         <x:v>0</x:v>
@@ -56510,13 +56510,13 @@
     </x:row>
     <x:row r="1743" spans="1:10">
       <x:c r="A1743" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B1743" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1743" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1743" s="1" t="n">
         <x:v>0</x:v>
@@ -56528,10 +56528,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1743" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1743" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1743" s="0" t="n">
         <x:v>0</x:v>
@@ -56548,7 +56548,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1744" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1744" s="1" t="n">
         <x:v>0</x:v>
@@ -56560,10 +56560,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1744" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1744" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1744" s="0" t="n">
         <x:v>0</x:v>
@@ -56580,7 +56580,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1745" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1745" s="1" t="n">
         <x:v>0</x:v>
@@ -56592,7 +56592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1745" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1745" s="1" t="n">
         <x:v>1</x:v>
@@ -56601,18 +56601,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1745" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1746" spans="1:10">
       <x:c r="A1746" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B1746" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1746" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1746" s="1" t="n">
         <x:v>0</x:v>
@@ -56627,13 +56627,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1746" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1746" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1746" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1747" spans="1:10">
@@ -56644,7 +56644,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1747" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1747" s="1" t="n">
         <x:v>0</x:v>
@@ -56670,13 +56670,13 @@
     </x:row>
     <x:row r="1748" spans="1:10">
       <x:c r="A1748" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B1748" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1748" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1748" s="1" t="n">
         <x:v>0</x:v>
@@ -56685,10 +56685,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1748" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1748" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1748" s="1" t="n">
         <x:v>0</x:v>
@@ -56697,7 +56697,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1748" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1749" spans="1:10">
@@ -56708,28 +56708,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1749" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1749" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1749" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1749" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1749" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1749" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1749" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1749" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="H1749" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I1749" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1749" s="0" t="n">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1750" spans="1:10">
@@ -56740,7 +56740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1750" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1750" s="1" t="n">
         <x:v>3</x:v>
@@ -56749,10 +56749,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1750" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1750" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1750" s="1" t="n">
         <x:v>4</x:v>
@@ -56761,7 +56761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1750" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1751" spans="1:10">
@@ -56769,31 +56769,31 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1751" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1751" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1751" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1751" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1751" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1751" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D1751" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1751" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1751" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1751" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="H1751" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1751" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1751" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1752" spans="1:10">
@@ -56804,7 +56804,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1752" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1752" s="1" t="n">
         <x:v>0</x:v>
@@ -56833,10 +56833,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1753" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1753" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1753" s="1" t="n">
         <x:v>0</x:v>
@@ -56845,10 +56845,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1753" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1753" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1753" s="1" t="n">
         <x:v>0</x:v>
@@ -56868,7 +56868,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1754" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1754" s="1" t="n">
         <x:v>0</x:v>
@@ -56897,22 +56897,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1755" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1755" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1755" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1755" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1755" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1755" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1755" s="1" t="n">
         <x:v>0</x:v>
@@ -56921,7 +56921,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1755" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1756" spans="1:10">
@@ -56932,16 +56932,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1756" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1756" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1756" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1756" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1756" s="1" t="n">
         <x:v>1</x:v>
@@ -56964,19 +56964,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1757" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1757" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1757" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1757" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1757" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1757" s="1" t="n">
         <x:v>0</x:v>
@@ -56985,7 +56985,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1757" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1758" spans="1:10">
@@ -56993,22 +56993,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1758" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1758" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1758" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1758" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1758" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1758" s="1" t="n">
         <x:v>0</x:v>
@@ -57017,7 +57017,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1758" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1759" spans="1:10">
@@ -57028,7 +57028,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1759" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1759" s="1" t="n">
         <x:v>0</x:v>
@@ -57037,7 +57037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1759" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1759" s="1" t="n">
         <x:v>1</x:v>
@@ -57049,7 +57049,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1759" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1760" spans="1:10">
@@ -57060,7 +57060,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1760" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1760" s="1" t="n">
         <x:v>0</x:v>
@@ -57069,10 +57069,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1760" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1760" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1760" s="1" t="n">
         <x:v>0</x:v>
@@ -57081,7 +57081,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1760" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1761" spans="1:10">
@@ -57089,10 +57089,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1761" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1761" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1761" s="1" t="n">
         <x:v>0</x:v>
@@ -57101,10 +57101,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1761" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1761" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1761" s="1" t="n">
         <x:v>0</x:v>
@@ -57113,7 +57113,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1761" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1762" spans="1:10">
@@ -57124,7 +57124,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1762" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1762" s="1" t="n">
         <x:v>0</x:v>
@@ -57153,22 +57153,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1763" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1763" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1763" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1763" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1763" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1763" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1763" s="1" t="n">
         <x:v>0</x:v>
@@ -57188,7 +57188,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1764" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1764" s="1" t="n">
         <x:v>0</x:v>
@@ -57217,22 +57217,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1765" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1765" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1765" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1765" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1765" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1765" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1765" s="1" t="n">
         <x:v>0</x:v>
@@ -57241,7 +57241,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1765" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1766" spans="1:10">
@@ -57252,7 +57252,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1766" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1766" s="1" t="n">
         <x:v>1</x:v>
@@ -57281,22 +57281,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B1767" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1767" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1767" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1767" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1767" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1767" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1767" s="1" t="n">
         <x:v>0</x:v>
@@ -57316,7 +57316,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1768" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1768" s="1" t="n">
         <x:v>0</x:v>
@@ -57342,13 +57342,13 @@
     </x:row>
     <x:row r="1769" spans="1:10">
       <x:c r="A1769" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B1769" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1769" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1769" s="1" t="n">
         <x:v>0</x:v>
@@ -57357,19 +57357,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1769" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1769" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1769" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1769" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1769" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1770" spans="1:10">
@@ -57380,7 +57380,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1770" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1770" s="1" t="n">
         <x:v>0</x:v>
@@ -57409,10 +57409,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1771" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1771" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1771" s="1" t="n">
         <x:v>0</x:v>
@@ -57421,13 +57421,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1771" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1771" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1771" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1771" s="0" t="n">
         <x:v>0</x:v>
@@ -57444,7 +57444,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C1772" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1772" s="1" t="n">
         <x:v>0</x:v>
@@ -57473,13 +57473,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1773" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1773" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1773" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1773" s="1" t="n">
         <x:v>0</x:v>
@@ -57488,7 +57488,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1773" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1773" s="1" t="n">
         <x:v>0</x:v>
@@ -57497,7 +57497,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1773" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1774" spans="1:10">
@@ -57508,28 +57508,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1774" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1774" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1774" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1774" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1774" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1774" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1774" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1774" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1775" spans="1:10">
@@ -57540,19 +57540,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1775" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1775" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1775" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1775" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1775" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1775" s="1" t="n">
         <x:v>1</x:v>
@@ -57561,7 +57561,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1775" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1776" spans="1:10">
@@ -57569,31 +57569,31 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1776" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1776" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1776" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1776" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1776" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1776" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1776" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1776" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1776" s="0" t="n">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="C1776" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1776" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1776" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1776" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1776" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1776" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1776" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1776" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1777" spans="1:10">
@@ -57604,7 +57604,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1777" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1777" s="1" t="n">
         <x:v>0</x:v>
@@ -57633,10 +57633,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1778" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1778" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1778" s="1" t="n">
         <x:v>0</x:v>
@@ -57648,7 +57648,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1778" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1778" s="1" t="n">
         <x:v>0</x:v>
@@ -57657,7 +57657,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1778" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1779" spans="1:10">
@@ -57668,7 +57668,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1779" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1779" s="1" t="n">
         <x:v>0</x:v>
@@ -57697,10 +57697,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1780" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1780" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1780" s="1" t="n">
         <x:v>0</x:v>
@@ -57709,7 +57709,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1780" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1780" s="1" t="n">
         <x:v>2</x:v>
@@ -57721,7 +57721,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1780" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1781" spans="1:10">
@@ -57732,7 +57732,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1781" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1781" s="1" t="n">
         <x:v>0</x:v>
@@ -57764,7 +57764,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1782" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1782" s="1" t="n">
         <x:v>0</x:v>
@@ -57776,7 +57776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1782" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1782" s="1" t="n">
         <x:v>0</x:v>
@@ -57785,7 +57785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1782" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1783" spans="1:10">
@@ -57793,13 +57793,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1783" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1783" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1783" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1783" s="1" t="n">
         <x:v>0</x:v>
@@ -57808,7 +57808,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1783" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1783" s="1" t="n">
         <x:v>0</x:v>
@@ -57817,7 +57817,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1783" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1784" spans="1:10">
@@ -57828,7 +57828,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1784" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1784" s="1" t="n">
         <x:v>1</x:v>
@@ -57857,31 +57857,31 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1785" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1785" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1785" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1785" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1785" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1785" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1785" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1785" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1785" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1786" spans="1:10">
@@ -57892,28 +57892,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1786" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1786" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1786" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1786" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1786" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1786" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1786" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1786" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1787" spans="1:10">
@@ -57924,28 +57924,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1787" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1787" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1787" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1787" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1787" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1787" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1787" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1787" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1788" spans="1:10">
@@ -57953,31 +57953,31 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1788" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1788" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1788" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1788" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1788" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1788" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1789" spans="1:10">
@@ -57988,7 +57988,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1789" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1789" s="1" t="n">
         <x:v>0</x:v>
@@ -58017,10 +58017,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1790" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1790" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1790" s="1" t="n">
         <x:v>0</x:v>
@@ -58032,7 +58032,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1790" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1790" s="1" t="n">
         <x:v>0</x:v>
@@ -58041,7 +58041,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1790" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1791" spans="1:10">
@@ -58052,7 +58052,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1791" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1791" s="1" t="n">
         <x:v>0</x:v>
@@ -58081,22 +58081,22 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1792" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1792" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1792" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1792" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1792" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1792" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1792" s="1" t="n">
         <x:v>0</x:v>
@@ -58116,10 +58116,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1793" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1793" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1793" s="1" t="n">
         <x:v>0</x:v>
@@ -58137,7 +58137,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1793" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1794" spans="1:10">
@@ -58148,16 +58148,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1794" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1794" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1794" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1794" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1794" s="1" t="n">
         <x:v>0</x:v>
@@ -58169,7 +58169,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1794" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1795" spans="1:10">
@@ -58177,19 +58177,19 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B1795" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1795" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1795" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1795" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1795" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1795" s="1" t="n">
         <x:v>0</x:v>
@@ -58201,7 +58201,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1795" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1796" spans="1:10">
@@ -58212,7 +58212,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1796" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1796" s="1" t="n">
         <x:v>1</x:v>
@@ -58238,25 +58238,25 @@
     </x:row>
     <x:row r="1797" spans="1:10">
       <x:c r="A1797" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1797" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1797" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1797" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1797" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1797" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1797" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1797" s="1" t="n">
         <x:v>0</x:v>
@@ -58276,7 +58276,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1798" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1798" s="1" t="n">
         <x:v>1</x:v>
@@ -58305,10 +58305,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1799" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1799" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1799" s="1" t="n">
         <x:v>1</x:v>
@@ -58317,19 +58317,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1799" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1799" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1799" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1799" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1799" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1800" spans="1:10">
@@ -58340,28 +58340,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1800" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1800" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1800" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1800" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1800" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1800" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1800" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1800" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F1800" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1800" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H1800" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1800" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1800" s="0" t="n">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1801" spans="1:10">
@@ -58372,28 +58372,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1801" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1801" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1801" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1801" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1801" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1801" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1801" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1801" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1802" spans="1:10">
@@ -58401,31 +58401,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1802" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1802" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1802" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1802" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1802" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1802" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1802" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1802" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1802" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1803" spans="1:10">
@@ -58436,28 +58436,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1803" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1803" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1803" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1803" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1803" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1803" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1803" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1803" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1804" spans="1:10">
@@ -58468,13 +58468,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1804" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1804" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1804" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1804" s="1" t="n">
         <x:v>2</x:v>
@@ -58489,7 +58489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1804" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1805" spans="1:10">
@@ -58497,31 +58497,31 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1805" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1805" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1805" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1805" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1805" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1805" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1805" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1805" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1805" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1806" spans="1:10">
@@ -58532,19 +58532,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1806" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1806" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1806" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1806" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1806" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1806" s="1" t="n">
         <x:v>0</x:v>
@@ -58564,7 +58564,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1807" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1807" s="1" t="n">
         <x:v>0</x:v>
@@ -58576,7 +58576,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1807" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1807" s="1" t="n">
         <x:v>0</x:v>
@@ -58585,7 +58585,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1807" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1808" spans="1:10">
@@ -58593,22 +58593,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1808" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1808" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1808" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1808" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1808" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1808" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1808" s="1" t="n">
         <x:v>0</x:v>
@@ -58617,7 +58617,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1808" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1809" spans="1:10">
@@ -58628,7 +58628,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1809" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1809" s="1" t="n">
         <x:v>1</x:v>
@@ -58657,22 +58657,22 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1810" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1810" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1810" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1810" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1810" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1810" s="1" t="n">
         <x:v>0</x:v>
@@ -58681,7 +58681,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1810" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1811" spans="1:10">
@@ -58692,7 +58692,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1811" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1811" s="1" t="n">
         <x:v>0</x:v>
@@ -58724,7 +58724,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1812" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1812" s="1" t="n">
         <x:v>0</x:v>
@@ -58733,7 +58733,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1812" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1812" s="1" t="n">
         <x:v>0</x:v>
@@ -58745,7 +58745,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1812" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1813" spans="1:10">
@@ -58753,10 +58753,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1813" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1813" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1813" s="1" t="n">
         <x:v>0</x:v>
@@ -58765,19 +58765,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1813" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1813" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1813" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1813" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1813" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1814" spans="1:10">
@@ -58788,7 +58788,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1814" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1814" s="1" t="n">
         <x:v>0</x:v>
@@ -58797,19 +58797,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1814" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1814" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1814" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1814" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1814" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1815" spans="1:10">
@@ -58820,7 +58820,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1815" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1815" s="1" t="n">
         <x:v>0</x:v>
@@ -58829,19 +58829,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1815" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1815" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H1815" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1815" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1815" s="0" t="n">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="H1815" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1815" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1815" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1816" spans="1:10">
@@ -58849,10 +58849,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1816" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1816" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1816" s="1" t="n">
         <x:v>0</x:v>
@@ -58861,19 +58861,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1816" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1816" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1816" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1816" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1816" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1817" spans="1:10">
@@ -58884,7 +58884,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1817" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1817" s="1" t="n">
         <x:v>0</x:v>
@@ -58913,10 +58913,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1818" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1818" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1818" s="1" t="n">
         <x:v>0</x:v>
@@ -58928,7 +58928,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1818" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1818" s="1" t="n">
         <x:v>0</x:v>
@@ -58937,7 +58937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1818" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1819" spans="1:10">
@@ -58948,7 +58948,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1819" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1819" s="1" t="n">
         <x:v>0</x:v>
@@ -58977,10 +58977,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1820" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1820" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1820" s="1" t="n">
         <x:v>0</x:v>
@@ -58992,7 +58992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1820" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1820" s="1" t="n">
         <x:v>0</x:v>
@@ -59001,7 +59001,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1820" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1821" spans="1:10">
@@ -59012,7 +59012,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1821" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1821" s="1" t="n">
         <x:v>0</x:v>
@@ -59041,10 +59041,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1822" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1822" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1822" s="1" t="n">
         <x:v>0</x:v>
@@ -59056,7 +59056,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1822" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1822" s="1" t="n">
         <x:v>0</x:v>
@@ -59065,7 +59065,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1822" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1823" spans="1:10">
@@ -59076,7 +59076,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1823" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1823" s="1" t="n">
         <x:v>0</x:v>
@@ -59105,10 +59105,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B1824" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1824" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1824" s="1" t="n">
         <x:v>0</x:v>
@@ -59120,7 +59120,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1824" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1824" s="1" t="n">
         <x:v>0</x:v>
@@ -59129,7 +59129,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1824" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1825" spans="1:10">
@@ -59140,7 +59140,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1825" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1825" s="1" t="n">
         <x:v>0</x:v>
@@ -59166,13 +59166,13 @@
     </x:row>
     <x:row r="1826" spans="1:10">
       <x:c r="A1826" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B1826" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1826" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1826" s="1" t="n">
         <x:v>0</x:v>
@@ -59181,10 +59181,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1826" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1826" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1826" s="1" t="n">
         <x:v>0</x:v>
@@ -59204,7 +59204,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1827" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1827" s="1" t="n">
         <x:v>0</x:v>
@@ -59233,10 +59233,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1828" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1828" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1828" s="1" t="n">
         <x:v>0</x:v>
@@ -59245,10 +59245,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1828" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1828" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1828" s="1" t="n">
         <x:v>0</x:v>
@@ -59268,10 +59268,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C1829" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1829" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1829" s="1" t="n">
         <x:v>0</x:v>
@@ -59280,7 +59280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1829" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1829" s="1" t="n">
         <x:v>0</x:v>
@@ -59289,7 +59289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1829" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1830" spans="1:10">
@@ -59300,7 +59300,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C1830" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1830" s="1" t="n">
         <x:v>3</x:v>
@@ -59312,7 +59312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1830" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1830" s="1" t="n">
         <x:v>0</x:v>
@@ -59321,7 +59321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1830" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1831" spans="1:10">
@@ -59329,31 +59329,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1831" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C1831" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1831" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1831" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1831" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1831" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1831" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1831" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1831" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="I1831" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1831" s="0" t="n">
-        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1832" spans="1:10">
@@ -59364,28 +59364,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1832" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1832" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1832" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1832" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G1832" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F1832" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G1832" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="H1832" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1832" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1832" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1833" spans="1:10">
@@ -59396,28 +59396,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1833" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1833" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1833" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1833" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G1833" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1833" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I1833" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1833" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="1834" spans="1:10">
@@ -59425,31 +59425,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1834" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1834" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1834" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E1834" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F1834" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G1834" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H1834" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I1834" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1834" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="1835" spans="1:10">
@@ -59460,28 +59460,28 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1835" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1835" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1835" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1835" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1835" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E1835" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1835" s="1" t="n">
+      <x:c r="H1835" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1835" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1835" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G1835" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H1835" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I1835" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1835" s="0" t="n">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1836" spans="1:10">
@@ -59492,7 +59492,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1836" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1836" s="1" t="n">
         <x:v>4</x:v>
@@ -59501,19 +59501,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1836" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1836" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1836" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1836" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1836" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1837" spans="1:10">
@@ -59521,31 +59521,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1837" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1837" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1837" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1837" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1837" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1837" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1837" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1837" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1837" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1838" spans="1:10">
@@ -59556,28 +59556,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1838" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1838" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1838" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1838" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1838" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1838" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1838" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1838" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1839" spans="1:10">
@@ -59588,7 +59588,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1839" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1839" s="1" t="n">
         <x:v>0</x:v>
@@ -59597,10 +59597,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1839" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1839" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1839" s="1" t="n">
         <x:v>2</x:v>
@@ -59609,7 +59609,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1839" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1840" spans="1:10">
@@ -59617,31 +59617,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1840" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1840" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1840" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1840" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1840" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1840" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1840" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1840" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1841" spans="1:10">
@@ -59652,28 +59652,28 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1841" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1841" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1841" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1841" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1841" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1841" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1841" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1841" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="E1841" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1841" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1841" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1841" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I1841" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1841" s="0" t="n">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1842" spans="1:10">
@@ -59684,20 +59684,20 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1842" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1842" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1842" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1842" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1842" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G1842" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="H1842" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -59705,7 +59705,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1842" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1843" spans="1:10">
@@ -59713,31 +59713,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1843" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1843" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1843" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1843" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1843" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1843" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1843" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1843" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1843" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1844" spans="1:10">
@@ -59748,28 +59748,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1844" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1844" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1844" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1844" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G1844" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H1844" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1844" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F1844" s="1" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G1844" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H1844" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="I1844" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1844" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="1845" spans="1:10">
@@ -59780,28 +59780,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1845" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1845" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1845" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1845" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G1845" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H1845" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1845" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1845" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="1846" spans="1:10">
@@ -59809,31 +59809,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1846" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1846" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1846" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1846" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1846" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1846" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H1846" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1846" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1846" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="1847" spans="1:10">
@@ -59844,28 +59844,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1847" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1847" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1847" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1847" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1847" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1847" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1847" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1847" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1848" spans="1:10">
@@ -59876,28 +59876,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1848" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1848" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1848" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1848" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1848" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H1848" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1848" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1848" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="1849" spans="1:10">
@@ -59905,31 +59905,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1849" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1849" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1849" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1849" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1849" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1849" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="1850" spans="1:10">
@@ -59940,7 +59940,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C1850" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1850" s="1" t="n">
         <x:v>0</x:v>
@@ -59969,10 +59969,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1851" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1851" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1851" s="1" t="n">
         <x:v>0</x:v>
@@ -59984,10 +59984,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1851" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1851" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1851" s="0" t="n">
         <x:v>0</x:v>
@@ -60004,7 +60004,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C1852" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1852" s="1" t="n">
         <x:v>0</x:v>
@@ -60013,7 +60013,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1852" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1852" s="1" t="n">
         <x:v>1</x:v>
@@ -60025,7 +60025,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1852" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1853" spans="1:10">
@@ -60036,7 +60036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C1853" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1853" s="1" t="n">
         <x:v>0</x:v>
@@ -60048,7 +60048,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1853" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1853" s="1" t="n">
         <x:v>0</x:v>
@@ -60057,7 +60057,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1853" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1854" spans="1:10">
@@ -60065,10 +60065,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1854" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C1854" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1854" s="1" t="n">
         <x:v>0</x:v>
@@ -60077,19 +60077,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1854" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1854" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1854" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1854" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1854" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1854" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1854" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1854" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1854" s="0" t="n">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1855" spans="1:10">
@@ -60100,7 +60100,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1855" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1855" s="1" t="n">
         <x:v>0</x:v>
@@ -60129,31 +60129,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1856" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1856" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1856" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1856" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1856" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1856" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1856" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1856" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1856" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1857" spans="1:10">
@@ -60164,28 +60164,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1857" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1857" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1857" s="1" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F1857" s="1" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G1857" s="1" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H1857" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F1857" s="1" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G1857" s="1" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H1857" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="I1857" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1857" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1858" spans="1:10">
@@ -60196,28 +60196,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1858" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1858" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1858" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1858" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G1858" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1858" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I1858" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1858" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="1859" spans="1:10">
@@ -60225,31 +60225,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1859" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1859" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1859" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E1859" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F1859" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G1859" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H1859" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I1859" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1859" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="1860" spans="1:10">
@@ -60260,28 +60260,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1860" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1860" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1860" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1860" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1860" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1860" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1860" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1860" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1860" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1860" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1860" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1860" s="0" t="n">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1861" spans="1:10">
@@ -60292,19 +60292,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1861" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1861" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1861" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1861" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1861" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1861" s="1" t="n">
         <x:v>0</x:v>
@@ -60313,7 +60313,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1861" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1862" spans="1:10">
@@ -60321,22 +60321,22 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1862" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1862" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1862" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1862" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1862" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1862" s="1" t="n">
         <x:v>0</x:v>
@@ -60345,7 +60345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1862" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1863" spans="1:10">
@@ -60356,7 +60356,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1863" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1863" s="1" t="n">
         <x:v>1</x:v>
@@ -60385,13 +60385,13 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1864" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1864" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1864" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1864" s="1" t="n">
         <x:v>0</x:v>
@@ -60400,7 +60400,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1864" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1864" s="1" t="n">
         <x:v>0</x:v>
@@ -60420,16 +60420,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C1865" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1865" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1865" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1865" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1865" s="1" t="n">
         <x:v>2</x:v>
@@ -60441,7 +60441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1865" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1866" spans="1:10">
@@ -60452,7 +60452,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C1866" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1866" s="1" t="n">
         <x:v>0</x:v>
@@ -60461,10 +60461,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1866" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1866" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1866" s="1" t="n">
         <x:v>0</x:v>
@@ -60473,7 +60473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1866" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1867" spans="1:10">
@@ -60481,31 +60481,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1867" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1867" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1867" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1867" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1867" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1867" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1867" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1867" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1867" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1868" spans="1:10">
@@ -60516,7 +60516,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1868" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1868" s="1" t="n">
         <x:v>6</x:v>
@@ -60545,31 +60545,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1869" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C1869" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1869" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1869" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1869" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1869" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1869" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1869" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1869" s="0" t="n">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C1869" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D1869" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1869" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1869" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1869" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1869" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1869" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1869" s="0" t="n">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1870" spans="1:10">
@@ -60580,28 +60580,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1870" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1870" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1870" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1870" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1870" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1870" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1870" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1870" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1870" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1870" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H1870" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1870" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1870" s="0" t="n">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1871" spans="1:10">
@@ -60612,19 +60612,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1871" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1871" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1871" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1871" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1871" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1871" s="1" t="n">
         <x:v>1</x:v>
@@ -60633,7 +60633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1871" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1872" spans="1:10">
@@ -60641,31 +60641,31 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B1872" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1872" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1872" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1872" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1872" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1872" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1873" spans="1:10">
@@ -60676,28 +60676,28 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1873" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1873" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1873" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1873" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1873" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1873" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1873" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1874" spans="1:10">
@@ -60708,7 +60708,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1874" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1874" s="1" t="n">
         <x:v>4</x:v>
@@ -60717,10 +60717,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1874" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1874" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1874" s="1" t="n">
         <x:v>3</x:v>
@@ -60729,39 +60729,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1874" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1875" spans="1:10">
       <x:c r="A1875" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1875" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1875" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1875" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1875" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1875" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1875" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1875" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G1875" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1875" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="I1875" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1875" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1876" spans="1:10">
@@ -60772,28 +60772,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1876" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1876" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1876" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1876" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1876" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1876" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I1876" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1876" s="0" t="n">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="G1876" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1876" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I1876" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1876" s="0" t="n">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1877" spans="1:10">
@@ -60804,7 +60804,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1877" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1877" s="1" t="n">
         <x:v>1</x:v>
@@ -60813,19 +60813,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1877" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1877" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1877" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1877" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1877" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1878" spans="1:10">
@@ -60833,31 +60833,31 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1878" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1878" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1878" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1878" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1878" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1878" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="1879" spans="1:10">
@@ -60868,19 +60868,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1879" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1879" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1879" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1879" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1879" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1879" s="1" t="n">
         <x:v>0</x:v>
@@ -60889,7 +60889,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1879" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1880" spans="1:10">
@@ -60900,7 +60900,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1880" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1880" s="1" t="n">
         <x:v>1</x:v>
@@ -60909,7 +60909,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1880" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1880" s="1" t="n">
         <x:v>1</x:v>
@@ -60921,7 +60921,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1880" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1881" spans="1:10">
@@ -60929,19 +60929,19 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1881" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1881" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1881" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1881" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1881" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1881" s="1" t="n">
         <x:v>1</x:v>
@@ -60953,7 +60953,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1881" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1882" spans="1:10">
@@ -60964,7 +60964,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1882" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1882" s="1" t="n">
         <x:v>0</x:v>
@@ -60993,10 +60993,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1883" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1883" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1883" s="1" t="n">
         <x:v>0</x:v>
@@ -61028,7 +61028,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1884" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1884" s="1" t="n">
         <x:v>0</x:v>
@@ -61037,10 +61037,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1884" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1884" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1884" s="1" t="n">
         <x:v>0</x:v>
@@ -61049,7 +61049,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1884" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1885" spans="1:10">
@@ -61060,7 +61060,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1885" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1885" s="1" t="n">
         <x:v>0</x:v>
@@ -61072,7 +61072,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1885" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1885" s="1" t="n">
         <x:v>0</x:v>
@@ -61081,7 +61081,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1885" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1886" spans="1:10">
@@ -61089,10 +61089,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1886" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1886" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1886" s="1" t="n">
         <x:v>0</x:v>
@@ -61101,10 +61101,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1886" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1886" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1886" s="1" t="n">
         <x:v>0</x:v>
@@ -61113,7 +61113,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1886" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1887" spans="1:10">
@@ -61124,7 +61124,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1887" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1887" s="1" t="n">
         <x:v>0</x:v>
@@ -61153,10 +61153,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1888" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1888" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1888" s="1" t="n">
         <x:v>0</x:v>
@@ -61165,10 +61165,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1888" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1888" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1888" s="1" t="n">
         <x:v>0</x:v>
@@ -61188,7 +61188,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1889" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1889" s="1" t="n">
         <x:v>0</x:v>
@@ -61217,10 +61217,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B1890" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1890" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1890" s="1" t="n">
         <x:v>0</x:v>
@@ -61229,19 +61229,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1890" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1890" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1890" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1890" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1891" spans="1:10">
@@ -61252,7 +61252,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1891" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1891" s="1" t="n">
         <x:v>0</x:v>
@@ -61278,34 +61278,34 @@
     </x:row>
     <x:row r="1892" spans="1:10">
       <x:c r="A1892" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B1892" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1892" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1892" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1892" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1892" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1892" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1892" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1892" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1893" spans="1:10">
@@ -61316,16 +61316,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1893" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1893" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1893" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1893" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1893" s="1" t="n">
         <x:v>0</x:v>
@@ -61348,13 +61348,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1894" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1894" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1894" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1894" s="1" t="n">
         <x:v>1</x:v>
@@ -61369,7 +61369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1894" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1895" spans="1:10">
@@ -61377,31 +61377,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1895" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1895" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1895" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1895" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1895" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1895" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1895" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1895" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1895" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1896" spans="1:10">
@@ -61412,16 +61412,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1896" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1896" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1896" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1896" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1896" s="1" t="n">
         <x:v>3</x:v>
@@ -61433,7 +61433,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1896" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1897" spans="1:10">
@@ -61444,28 +61444,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1897" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1897" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1897" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1897" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G1897" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1897" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1897" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G1897" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="H1897" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1897" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1897" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1898" spans="1:10">
@@ -61473,31 +61473,31 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1898" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1898" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1898" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1898" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1898" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="1899" spans="1:10">
@@ -61508,7 +61508,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1899" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1899" s="1" t="n">
         <x:v>0</x:v>
@@ -61537,10 +61537,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1900" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1900" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1900" s="1" t="n">
         <x:v>0</x:v>
@@ -61572,7 +61572,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1901" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1901" s="1" t="n">
         <x:v>0</x:v>
@@ -61601,10 +61601,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1902" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1902" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1902" s="1" t="n">
         <x:v>0</x:v>
@@ -61613,7 +61613,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1902" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1902" s="1" t="n">
         <x:v>0</x:v>
@@ -61625,7 +61625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1902" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1903" spans="1:10">
@@ -61636,19 +61636,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1903" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1903" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1903" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1903" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1903" s="1" t="n">
         <x:v>0</x:v>
@@ -61657,7 +61657,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1903" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1904" spans="1:10">
@@ -61668,7 +61668,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1904" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1904" s="1" t="n">
         <x:v>0</x:v>
@@ -61677,7 +61677,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1904" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1904" s="1" t="n">
         <x:v>2</x:v>
@@ -61689,7 +61689,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1904" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1905" spans="1:10">
@@ -61697,22 +61697,22 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1905" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1905" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1905" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1905" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1905" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1905" s="1" t="n">
         <x:v>0</x:v>
@@ -61721,7 +61721,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1905" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1906" spans="1:10">
@@ -61732,7 +61732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1906" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1906" s="1" t="n">
         <x:v>0</x:v>
@@ -61761,10 +61761,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1907" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1907" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1907" s="1" t="n">
         <x:v>0</x:v>
@@ -61796,7 +61796,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1908" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1908" s="1" t="n">
         <x:v>0</x:v>
@@ -61825,10 +61825,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B1909" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1909" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1909" s="1" t="n">
         <x:v>0</x:v>
@@ -61837,7 +61837,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1909" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1909" s="1" t="n">
         <x:v>1</x:v>
@@ -61849,7 +61849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1909" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1910" spans="1:10">
@@ -61860,7 +61860,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1910" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1910" s="1" t="n">
         <x:v>0</x:v>
@@ -61886,13 +61886,13 @@
     </x:row>
     <x:row r="1911" spans="1:10">
       <x:c r="A1911" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B1911" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1911" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1911" s="1" t="n">
         <x:v>0</x:v>
@@ -61904,7 +61904,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1911" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1911" s="1" t="n">
         <x:v>0</x:v>
@@ -61913,7 +61913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1911" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1912" spans="1:10">
@@ -61924,7 +61924,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1912" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1912" s="1" t="n">
         <x:v>0</x:v>
@@ -61953,31 +61953,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1913" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1913" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1913" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1913" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1913" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1913" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1913" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1913" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1913" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1914" spans="1:10">
@@ -61988,28 +61988,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1914" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1914" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1914" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1914" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1914" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1914" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1914" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1914" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1915" spans="1:10">
@@ -62020,28 +62020,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1915" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1915" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1915" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1915" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1915" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1915" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1915" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1915" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1916" spans="1:10">
@@ -62049,31 +62049,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1916" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1916" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E1916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1916" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1916" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1916" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1916" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="1917" spans="1:10">
@@ -62084,28 +62084,28 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1917" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1917" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1917" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1917" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1917" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1917" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1917" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1917" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1918" spans="1:10">
@@ -62116,7 +62116,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1918" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1918" s="1" t="n">
         <x:v>0</x:v>
@@ -62128,7 +62128,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1918" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1918" s="1" t="n">
         <x:v>1</x:v>
@@ -62137,7 +62137,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1918" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1919" spans="1:10">
@@ -62145,10 +62145,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1919" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1919" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1919" s="1" t="n">
         <x:v>0</x:v>
@@ -62157,19 +62157,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1919" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1919" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1919" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1920" spans="1:10">
@@ -62180,7 +62180,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1920" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1920" s="1" t="n">
         <x:v>0</x:v>
@@ -62209,16 +62209,16 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1921" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1921" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1921" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1921" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1921" s="1" t="n">
         <x:v>0</x:v>
@@ -62244,28 +62244,28 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1922" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1922" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1922" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1922" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1922" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1922" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1922" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1922" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1923" spans="1:10">
@@ -62276,10 +62276,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1923" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1923" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1923" s="1" t="n">
         <x:v>0</x:v>
@@ -62297,7 +62297,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1923" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1924" spans="1:10">
@@ -62305,25 +62305,25 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1924" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1924" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1924" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1924" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1924" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1924" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1924" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1924" s="0" t="n">
         <x:v>0</x:v>
@@ -62340,7 +62340,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1925" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1925" s="1" t="n">
         <x:v>0</x:v>
@@ -62349,19 +62349,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1925" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1925" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G1925" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H1925" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1925" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1925" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1926" spans="1:10">
@@ -62372,20 +62372,20 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1926" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1926" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1926" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1926" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1926" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1926" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1926" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="H1926" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -62393,7 +62393,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1926" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1927" spans="1:10">
@@ -62401,31 +62401,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1927" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1927" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1927" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1927" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1927" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1927" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1928" spans="1:10">
@@ -62436,7 +62436,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C1928" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1928" s="1" t="n">
         <x:v>0</x:v>
@@ -62465,10 +62465,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1929" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C1929" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1929" s="1" t="n">
         <x:v>0</x:v>
@@ -62477,19 +62477,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1929" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1929" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1929" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1929" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1929" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1930" spans="1:10">
@@ -62500,22 +62500,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1930" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1930" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1930" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1930" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1930" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1930" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1930" s="0" t="n">
         <x:v>0</x:v>
@@ -62532,7 +62532,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1931" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1931" s="1" t="n">
         <x:v>0</x:v>
@@ -62541,19 +62541,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1931" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1931" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1931" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1931" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1931" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1932" spans="1:10">
@@ -62561,31 +62561,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1932" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1932" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1932" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1932" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1932" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1932" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="G1932" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1932" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1932" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1932" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1933" spans="1:10">
@@ -62596,28 +62596,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1933" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1933" s="1" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E1933" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1933" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="F1933" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1933" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1933" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1933" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1933" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="1934" spans="1:10">
@@ -62628,28 +62628,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1934" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1934" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1934" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1934" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1934" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1934" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1934" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1934" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="1935" spans="1:10">
@@ -62657,31 +62657,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1935" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1935" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E1935" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1935" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G1935" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1935" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1935" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1935" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="1936" spans="1:10">
@@ -62692,7 +62692,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1936" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1936" s="1" t="n">
         <x:v>0</x:v>
@@ -62721,31 +62721,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1937" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1937" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1937" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1937" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1937" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1937" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1937" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1937" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1937" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1938" spans="1:10">
@@ -62756,7 +62756,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1938" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1938" s="1" t="n">
         <x:v>2</x:v>
@@ -62785,31 +62785,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1939" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1939" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1939" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1939" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1939" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1939" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1940" spans="1:10">
@@ -62820,16 +62820,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1940" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1940" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1940" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1940" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1940" s="1" t="n">
         <x:v>0</x:v>
@@ -62841,7 +62841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1940" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1941" spans="1:10">
@@ -62852,7 +62852,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1941" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1941" s="1" t="n">
         <x:v>0</x:v>
@@ -62861,7 +62861,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1941" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1941" s="1" t="n">
         <x:v>0</x:v>
@@ -62873,7 +62873,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1941" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1942" spans="1:10">
@@ -62881,10 +62881,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B1942" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1942" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1942" s="1" t="n">
         <x:v>0</x:v>
@@ -62896,7 +62896,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1942" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1942" s="1" t="n">
         <x:v>0</x:v>
@@ -62905,7 +62905,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1942" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1943" spans="1:10">
@@ -62916,7 +62916,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1943" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1943" s="1" t="n">
         <x:v>0</x:v>
@@ -62942,25 +62942,25 @@
     </x:row>
     <x:row r="1944" spans="1:10">
       <x:c r="A1944" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B1944" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1944" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1944" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1944" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1944" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1944" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1944" s="1" t="n">
         <x:v>0</x:v>
@@ -62969,7 +62969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1944" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1945" spans="1:10">
@@ -62980,7 +62980,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C1945" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1945" s="1" t="n">
         <x:v>0</x:v>
@@ -63009,31 +63009,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1946" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1946" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1946" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1946" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1946" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1946" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1946" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1946" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1946" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1947" spans="1:10">
@@ -63044,28 +63044,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1947" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1947" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1947" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1947" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1947" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1947" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1947" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1947" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="1948" spans="1:10">
@@ -63076,28 +63076,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1948" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1948" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E1948" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1948" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1948" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1948" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1948" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1948" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="1949" spans="1:10">
@@ -63105,31 +63105,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1949" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1949" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1949" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1949" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1949" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1949" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1949" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1949" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="1950" spans="1:10">
@@ -63140,7 +63140,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1950" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1950" s="1" t="n">
         <x:v>3</x:v>
@@ -63169,22 +63169,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1951" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1951" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1951" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1951" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1951" s="1" t="n">
         <x:v>0</x:v>
@@ -63193,7 +63193,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1951" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1952" spans="1:10">
@@ -63204,7 +63204,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1952" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1952" s="1" t="n">
         <x:v>0</x:v>
@@ -63216,7 +63216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1952" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1952" s="1" t="n">
         <x:v>0</x:v>
@@ -63225,7 +63225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1952" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1953" spans="1:10">
@@ -63236,7 +63236,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C1953" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1953" s="1" t="n">
         <x:v>0</x:v>
@@ -63248,7 +63248,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1953" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1953" s="1" t="n">
         <x:v>0</x:v>
@@ -63257,7 +63257,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1953" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1954" spans="1:10">
@@ -63265,22 +63265,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1954" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1954" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1954" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1954" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1954" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1954" s="1" t="n">
         <x:v>0</x:v>
@@ -63289,7 +63289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1954" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1955" spans="1:10">
@@ -63300,19 +63300,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1955" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1955" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1955" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1955" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1955" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1955" s="1" t="n">
         <x:v>0</x:v>
@@ -63321,7 +63321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1955" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1956" spans="1:10">
@@ -63332,13 +63332,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1956" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1956" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1956" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1956" s="1" t="n">
         <x:v>1</x:v>
@@ -63353,7 +63353,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1956" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1957" spans="1:10">
@@ -63361,31 +63361,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1957" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1957" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1957" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1957" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1957" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1957" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1957" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1957" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1957" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1958" spans="1:10">
@@ -63396,28 +63396,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1958" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1958" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1958" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1958" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="F1958" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1958" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1958" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1958" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1958" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1959" spans="1:10">
@@ -63428,28 +63428,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1959" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1959" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1959" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1959" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1959" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1959" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1959" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1959" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="1960" spans="1:10">
@@ -63457,31 +63457,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1960" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1960" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1960" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1960" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F1960" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G1960" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H1960" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D1960" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1960" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F1960" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G1960" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1960" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I1960" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1960" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="1961" spans="1:10">
@@ -63492,28 +63492,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1961" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1961" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1961" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1961" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1961" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1961" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1961" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1961" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1962" spans="1:10">
@@ -63524,19 +63524,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1962" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1962" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1962" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1962" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1962" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1962" s="1" t="n">
         <x:v>2</x:v>
@@ -63545,7 +63545,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1962" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1963" spans="1:10">
@@ -63553,31 +63553,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1963" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1963" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1963" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1963" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1963" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1963" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1963" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1963" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1963" s="0" t="n">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="C1963" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1963" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1963" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1963" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1963" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H1963" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1963" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1963" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1964" spans="1:10">
@@ -63588,7 +63588,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C1964" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1964" s="1" t="n">
         <x:v>0</x:v>
@@ -63617,31 +63617,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1965" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1965" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1965" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1965" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1965" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1965" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1965" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1965" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1965" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1966" spans="1:10">
@@ -63652,28 +63652,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1966" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1966" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1966" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F1966" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G1966" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E1966" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F1966" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G1966" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="H1966" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1966" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1966" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1967" spans="1:10">
@@ -63684,28 +63684,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1967" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1967" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1967" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1967" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1967" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1967" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1967" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1967" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="1968" spans="1:10">
@@ -63713,31 +63713,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1968" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1968" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G1968" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1968" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I1968" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1968" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="1969" spans="1:10">
@@ -63748,7 +63748,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C1969" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1969" s="1" t="n">
         <x:v>0</x:v>
@@ -63777,13 +63777,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1970" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1970" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1970" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1970" s="1" t="n">
         <x:v>0</x:v>
@@ -63792,7 +63792,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1970" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1970" s="1" t="n">
         <x:v>0</x:v>
@@ -63812,16 +63812,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1971" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1971" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1971" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1971" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1971" s="1" t="n">
         <x:v>0</x:v>
@@ -63833,7 +63833,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1971" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1972" spans="1:10">
@@ -63844,10 +63844,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1972" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1972" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1972" s="1" t="n">
         <x:v>1</x:v>
@@ -63865,7 +63865,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1972" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1973" spans="1:10">
@@ -63873,31 +63873,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1973" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1973" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1973" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1973" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1973" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1973" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1973" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1974" spans="1:10">
@@ -63908,7 +63908,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C1974" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1974" s="1" t="n">
         <x:v>0</x:v>
@@ -63937,10 +63937,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1975" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1975" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1975" s="1" t="n">
         <x:v>0</x:v>
@@ -63972,28 +63972,28 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1976" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1976" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1976" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1976" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1976" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1976" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1976" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">
@@ -64004,7 +64004,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C1977" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1977" s="1" t="n">
         <x:v>2</x:v>
@@ -64019,13 +64019,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1977" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1977" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1977" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1978" spans="1:10">
@@ -64033,31 +64033,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1978" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1978" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1978" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1978" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1978" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1978" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1978" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1979" spans="1:10">
@@ -64068,28 +64068,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1979" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1979" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1979" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1979" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1979" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1979" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1979" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -64100,13 +64100,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C1980" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1980" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1980" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1980" s="1" t="n">
         <x:v>0</x:v>
@@ -64121,7 +64121,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1980" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1981" spans="1:10">
@@ -64129,16 +64129,16 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B1981" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1981" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1981" s="1" t="n">
         <x:v>0</x:v>
@@ -64147,13 +64147,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1981" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1981" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1981" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1982" spans="1:10">
@@ -64164,28 +64164,28 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1982" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1982" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1982" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1982" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1982" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1982" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1982" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1982" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1983" spans="1:10">
@@ -64196,7 +64196,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1983" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1983" s="1" t="n">
         <x:v>2</x:v>
@@ -64208,7 +64208,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1983" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1983" s="1" t="n">
         <x:v>2</x:v>
@@ -64217,39 +64217,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1983" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1984" spans="1:10">
       <x:c r="A1984" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B1984" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1984" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1984" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1984" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1984" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1984" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1984" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1985" spans="1:10">
@@ -64260,28 +64260,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1985" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1985" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1985" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1985" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1985" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1985" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1985" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1985" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1986" spans="1:10">
@@ -64292,16 +64292,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C1986" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1986" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1986" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1986" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1986" s="1" t="n">
         <x:v>6</x:v>
@@ -64313,7 +64313,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1986" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1987" spans="1:10">
@@ -64321,31 +64321,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B1987" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1987" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1987" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1987" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1987" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1987" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1987" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1988" spans="1:10">
@@ -64356,7 +64356,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C1988" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1988" s="1" t="n">
         <x:v>0</x:v>
@@ -64385,10 +64385,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B1989" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1989" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1989" s="1" t="n">
         <x:v>0</x:v>
@@ -64397,10 +64397,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1989" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1989" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1989" s="1" t="n">
         <x:v>0</x:v>
@@ -64420,7 +64420,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C1990" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1990" s="1" t="n">
         <x:v>0</x:v>
@@ -64449,10 +64449,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B1991" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1991" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1991" s="1" t="n">
         <x:v>0</x:v>
@@ -64464,7 +64464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1991" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H1991" s="1" t="n">
         <x:v>0</x:v>
@@ -64473,7 +64473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1991" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1992" spans="1:10">
@@ -64484,7 +64484,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1992" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1992" s="1" t="n">
         <x:v>0</x:v>
@@ -64493,19 +64493,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1992" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1992" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1992" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1992" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1992" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1993" spans="1:10">
@@ -64516,7 +64516,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C1993" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1993" s="1" t="n">
         <x:v>0</x:v>
@@ -64525,10 +64525,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1993" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1993" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1993" s="1" t="n">
         <x:v>1</x:v>
@@ -64537,7 +64537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1993" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1994" spans="1:10">
@@ -64545,10 +64545,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B1994" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1994" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1994" s="1" t="n">
         <x:v>0</x:v>
@@ -64557,19 +64557,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1994" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1994" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1994" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1994" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1994" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1995" spans="1:10">
@@ -64580,7 +64580,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C1995" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1995" s="1" t="n">
         <x:v>0</x:v>
@@ -64609,10 +64609,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B1996" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1996" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1996" s="1" t="n">
         <x:v>0</x:v>
@@ -64621,10 +64621,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1996" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G1996" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1996" s="1" t="n">
         <x:v>0</x:v>
@@ -64633,7 +64633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1996" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1997" spans="1:10">
@@ -64644,7 +64644,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C1997" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D1997" s="1" t="n">
         <x:v>0</x:v>
@@ -64673,10 +64673,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B1998" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C1998" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1998" s="1" t="n">
         <x:v>0</x:v>
@@ -64685,19 +64685,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1998" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1998" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1998" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1998" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1998" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1999" spans="1:10">
@@ -64708,7 +64708,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C1999" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1999" s="1" t="n">
         <x:v>0</x:v>
@@ -64729,6 +64729,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1999" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2000" spans="1:10">
+      <x:c r="A2000" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B2000" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2000" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2000" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2000" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2000" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2000" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2000" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2000" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2000" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -14387,13 +14387,13 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="H426" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I426" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J426" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="427" spans="1:10">
@@ -14419,13 +14419,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="H427" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I427" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J427" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
     <x:row r="428" spans="1:10">
@@ -14477,7 +14477,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F429" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G429" s="1" t="n">
         <x:v>8</x:v>
@@ -14489,7 +14489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J429" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="430" spans="1:10">
@@ -14509,7 +14509,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F430" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G430" s="1" t="n">
         <x:v>11</x:v>
@@ -14521,7 +14521,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J430" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="431" spans="1:10">
@@ -14736,7 +14736,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G437" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H437" s="1" t="n">
         <x:v>1</x:v>
@@ -14745,7 +14745,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J437" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="438" spans="1:10">
@@ -14771,13 +14771,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H438" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I438" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J438" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="439" spans="1:10">
@@ -14800,10 +14800,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G439" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H439" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I439" s="0" t="n">
         <x:v>0</x:v>
@@ -15082,10 +15082,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E448" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F448" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G448" s="1" t="n">
         <x:v>103</x:v>
@@ -15097,7 +15097,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J448" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="449" spans="1:10">
@@ -15114,10 +15114,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E449" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F449" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G449" s="1" t="n">
         <x:v>174</x:v>
@@ -15129,7 +15129,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J449" s="0" t="n">
-        <x:v>597</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="450" spans="1:10">
@@ -16234,7 +16234,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E484" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F484" s="1" t="n">
         <x:v>0</x:v>
@@ -16249,7 +16249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J484" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:10">
@@ -16266,7 +16266,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E485" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F485" s="1" t="n">
         <x:v>0</x:v>
@@ -16281,7 +16281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -20368,7 +20368,7 @@
         <x:v>431</x:v>
       </x:c>
       <x:c r="G613" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H613" s="1" t="n">
         <x:v>162</x:v>
@@ -20377,7 +20377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J613" s="0" t="n">
-        <x:v>1268</x:v>
+        <x:v>1269</x:v>
       </x:c>
     </x:row>
     <x:row r="614" spans="1:10">
@@ -20400,7 +20400,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="G614" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="H614" s="1" t="n">
         <x:v>195</x:v>
@@ -20409,7 +20409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J614" s="0" t="n">
-        <x:v>1616</x:v>
+        <x:v>1617</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:10">
@@ -21383,7 +21383,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D645" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E645" s="1" t="n">
         <x:v>7</x:v>
@@ -21392,7 +21392,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G645" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H645" s="1" t="n">
         <x:v>2</x:v>
@@ -21401,7 +21401,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J645" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="646" spans="1:10">
@@ -21415,7 +21415,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D646" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E646" s="1" t="n">
         <x:v>12</x:v>
@@ -21424,7 +21424,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G646" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H646" s="1" t="n">
         <x:v>3</x:v>
@@ -21433,7 +21433,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J646" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:10">
@@ -43981,7 +43981,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1351" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G1351" s="1" t="n">
         <x:v>11</x:v>
@@ -43993,7 +43993,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1351" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="1352" spans="1:10">
@@ -44013,7 +44013,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F1352" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1352" s="1" t="n">
         <x:v>18</x:v>
@@ -44025,7 +44025,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1352" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="1353" spans="1:10">
@@ -47216,7 +47216,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1452" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1452" s="1" t="n">
         <x:v>6</x:v>
@@ -47225,7 +47225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1452" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1453" spans="1:10">
@@ -47245,7 +47245,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1453" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1453" s="1" t="n">
         <x:v>11</x:v>
@@ -47257,7 +47257,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1453" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1454" spans="1:10">
@@ -47277,10 +47277,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1454" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G1454" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1454" s="1" t="n">
         <x:v>7</x:v>
@@ -47289,7 +47289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1454" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="1455" spans="1:10">
@@ -48810,7 +48810,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1502" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1502" s="1" t="n">
         <x:v>12</x:v>
@@ -48825,7 +48825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1502" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="1503" spans="1:10">
@@ -48842,7 +48842,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1503" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1503" s="1" t="n">
         <x:v>20</x:v>
@@ -48857,7 +48857,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1503" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="1504" spans="1:10">
@@ -50160,7 +50160,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1544" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1544" s="1" t="n">
         <x:v>1</x:v>
@@ -50169,7 +50169,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1544" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1545" spans="1:10">
@@ -50192,7 +50192,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1545" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1545" s="1" t="n">
         <x:v>1</x:v>
@@ -50201,7 +50201,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1545" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1546" spans="1:10">
@@ -51405,7 +51405,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F1583" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G1583" s="1" t="n">
         <x:v>75</x:v>
@@ -51417,7 +51417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1583" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="1584" spans="1:10">
@@ -51437,7 +51437,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F1584" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G1584" s="1" t="n">
         <x:v>102</x:v>
@@ -51449,7 +51449,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1584" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="1585" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -15088,7 +15088,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G448" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H448" s="1" t="n">
         <x:v>27</x:v>
@@ -15097,7 +15097,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J448" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="449" spans="1:10">
@@ -15152,7 +15152,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="G450" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H450" s="1" t="n">
         <x:v>62</x:v>
@@ -15161,7 +15161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J450" s="0" t="n">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="451" spans="1:10">
@@ -20397,7 +20397,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="F614" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="G614" s="1" t="n">
         <x:v>393</x:v>
@@ -20409,7 +20409,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J614" s="0" t="n">
-        <x:v>1271</x:v>
+        <x:v>1272</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:10">
@@ -20429,7 +20429,7 @@
         <x:v>281</x:v>
       </x:c>
       <x:c r="F615" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="G615" s="1" t="n">
         <x:v>487</x:v>
@@ -20441,7 +20441,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J615" s="0" t="n">
-        <x:v>1619</x:v>
+        <x:v>1620</x:v>
       </x:c>
     </x:row>
     <x:row r="616" spans="1:10">
@@ -20589,7 +20589,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F620" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G620" s="1" t="n">
         <x:v>7</x:v>
@@ -20601,7 +20601,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J620" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="621" spans="1:10">
@@ -20621,7 +20621,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F621" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G621" s="1" t="n">
         <x:v>18</x:v>
@@ -20633,7 +20633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J621" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="622" spans="1:10">
@@ -20685,7 +20685,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F623" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G623" s="1" t="n">
         <x:v>46</x:v>
@@ -20697,7 +20697,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J623" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:10">
@@ -20717,7 +20717,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F624" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G624" s="1" t="n">
         <x:v>57</x:v>
@@ -20729,7 +20729,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J624" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:10">
@@ -21325,10 +21325,10 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="F643" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="G643" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="H643" s="1" t="n">
         <x:v>138</x:v>
@@ -21337,7 +21337,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J643" s="0" t="n">
-        <x:v>1045</x:v>
+        <x:v>1049</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:10">
@@ -21357,10 +21357,10 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="F644" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="G644" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="H644" s="1" t="n">
         <x:v>202</x:v>
@@ -21369,7 +21369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J644" s="0" t="n">
-        <x:v>1830</x:v>
+        <x:v>1834</x:v>
       </x:c>
     </x:row>
     <x:row r="645" spans="1:10">
@@ -21869,7 +21869,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="F660" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G660" s="1" t="n">
         <x:v>63</x:v>
@@ -21881,7 +21881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J660" s="0" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:10">
@@ -21901,7 +21901,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F661" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G661" s="1" t="n">
         <x:v>69</x:v>
@@ -21913,7 +21913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J661" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="662" spans="1:10">
@@ -60653,7 +60653,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1872" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1872" s="1" t="n">
         <x:v>4</x:v>
@@ -60665,7 +60665,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1872" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1873" spans="1:10">
@@ -60685,7 +60685,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1873" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1873" s="1" t="n">
         <x:v>5</x:v>
@@ -60697,7 +60697,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1873" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1139,7 +1139,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -1148,7 +1148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
@@ -1171,7 +1171,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -1180,7 +1180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
@@ -2707,7 +2707,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>36</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -2739,7 +2739,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
         <x:v>71</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
@@ -5299,7 +5299,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G142" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H142" s="1" t="n">
         <x:v>1</x:v>
@@ -5308,7 +5308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:10">
@@ -5331,7 +5331,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G143" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H143" s="1" t="n">
         <x:v>1</x:v>
@@ -5340,7 +5340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:10">
@@ -15472,10 +15472,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F460" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G460" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H460" s="1" t="n">
         <x:v>53</x:v>
@@ -15484,7 +15484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J460" s="0" t="n">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="461" spans="1:10">
@@ -15504,10 +15504,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F461" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G461" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H461" s="1" t="n">
         <x:v>64</x:v>
@@ -15516,7 +15516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J461" s="0" t="n">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:10">
@@ -15728,7 +15728,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F468" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G468" s="1" t="n">
         <x:v>4</x:v>
@@ -15740,7 +15740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J468" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:10">
@@ -15792,7 +15792,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F470" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G470" s="1" t="n">
         <x:v>8</x:v>
@@ -15804,7 +15804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J470" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:10">
@@ -15827,7 +15827,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G471" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H471" s="1" t="n">
         <x:v>1</x:v>
@@ -15836,7 +15836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J471" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:10">
@@ -15856,7 +15856,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F472" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G472" s="1" t="n">
         <x:v>26</x:v>
@@ -15868,7 +15868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J472" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="473" spans="1:10">
@@ -15888,10 +15888,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F473" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G473" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H473" s="1" t="n">
         <x:v>12</x:v>
@@ -15900,7 +15900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J473" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="474" spans="1:10">
@@ -16243,16 +16243,16 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="G484" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H484" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I484" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J484" s="0" t="n">
-        <x:v>420</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:10">
@@ -16275,16 +16275,16 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H485" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I485" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>698</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -17619,7 +17619,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G527" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H527" s="1" t="n">
         <x:v>0</x:v>
@@ -17628,7 +17628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J527" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="528" spans="1:10">
@@ -17683,7 +17683,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G529" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H529" s="1" t="n">
         <x:v>0</x:v>
@@ -17692,7 +17692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J529" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="530" spans="1:10">
@@ -17872,7 +17872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F535" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G535" s="1" t="n">
         <x:v>5</x:v>
@@ -17884,7 +17884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J535" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:10">
@@ -17936,7 +17936,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F537" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G537" s="1" t="n">
         <x:v>19</x:v>
@@ -17948,7 +17948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J537" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:10">
@@ -18518,13 +18518,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H555" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I555" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J555" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:10">
@@ -18550,13 +18550,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H556" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I556" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J556" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:10">
@@ -20298,7 +20298,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D611" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E611" s="1" t="n">
         <x:v>9</x:v>
@@ -20316,7 +20316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J611" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="612" spans="1:10">
@@ -20330,7 +20330,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D612" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E612" s="1" t="n">
         <x:v>9</x:v>
@@ -20348,7 +20348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J612" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="613" spans="1:10">
@@ -21683,16 +21683,16 @@
         <x:v>499</x:v>
       </x:c>
       <x:c r="G654" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="H654" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I654" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J654" s="0" t="n">
-        <x:v>1494</x:v>
+        <x:v>1496</x:v>
       </x:c>
     </x:row>
     <x:row r="655" spans="1:10">
@@ -21715,16 +21715,16 @@
         <x:v>630</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="H655" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I655" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>1922</x:v>
+        <x:v>1924</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -22221,10 +22221,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E671" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F671" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
         <x:v>45</x:v>
@@ -22236,7 +22236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J671" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:10">
@@ -22253,10 +22253,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E672" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F672" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G672" s="1" t="n">
         <x:v>78</x:v>
@@ -22268,7 +22268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J672" s="0" t="n">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="673" spans="1:10">
@@ -22573,13 +22573,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E682" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F682" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G682" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="H682" s="1" t="n">
         <x:v>70</x:v>
@@ -22588,7 +22588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J682" s="0" t="n">
-        <x:v>915</x:v>
+        <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="683" spans="1:10">
@@ -22605,22 +22605,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E683" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F683" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="G683" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H683" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I683" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J683" s="0" t="n">
-        <x:v>1227</x:v>
+        <x:v>1234</x:v>
       </x:c>
     </x:row>
     <x:row r="684" spans="1:10">
@@ -22637,22 +22637,22 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E684" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="H684" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I684" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>2142</x:v>
+        <x:v>2153</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -27626,7 +27626,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D840" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
         <x:v>1</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27658,7 +27658,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
         <x:v>2</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -33206,13 +33206,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1014" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1014" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1014" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1015" spans="1:10">
@@ -33270,13 +33270,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H1016" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1016" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1016" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1017" spans="1:10">
@@ -34963,16 +34963,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1069" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="1070" spans="1:10">
@@ -34995,16 +34995,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1070" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1070" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I1070" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1070" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="1071" spans="1:10">
@@ -47379,7 +47379,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G1457" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1457" s="1" t="n">
         <x:v>2</x:v>
@@ -47388,7 +47388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1457" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="1458" spans="1:10">
@@ -47411,7 +47411,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G1458" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H1458" s="1" t="n">
         <x:v>2</x:v>
@@ -47420,7 +47420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1458" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="1459" spans="1:10">
@@ -51661,7 +51661,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E1591" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1591" s="1" t="n">
         <x:v>10</x:v>
@@ -51676,7 +51676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1591" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="1592" spans="1:10">
@@ -51725,7 +51725,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E1593" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1593" s="1" t="n">
         <x:v>39</x:v>
@@ -51740,7 +51740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1593" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="1594" spans="1:10">
@@ -52013,7 +52013,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1602" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1602" s="1" t="n">
         <x:v>10</x:v>
@@ -52028,7 +52028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1602" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="1603" spans="1:10">
@@ -52077,7 +52077,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1604" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F1604" s="1" t="n">
         <x:v>27</x:v>
@@ -52092,7 +52092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1604" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="1605" spans="1:10">
@@ -55056,7 +55056,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1697" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1697" s="1" t="n">
         <x:v>11</x:v>
@@ -55068,7 +55068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1697" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1698" spans="1:10">
@@ -55120,7 +55120,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1699" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1699" s="1" t="n">
         <x:v>43</x:v>
@@ -55132,7 +55132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1699" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="1700" spans="1:10">
@@ -55155,7 +55155,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1700" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1700" s="1" t="n">
         <x:v>0</x:v>
@@ -55164,7 +55164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1700" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1701" spans="1:10">
@@ -55219,7 +55219,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G1702" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1702" s="1" t="n">
         <x:v>1</x:v>
@@ -55228,7 +55228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1702" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1703" spans="1:10">
@@ -56106,7 +56106,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1730" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1730" s="1" t="n">
         <x:v>31</x:v>
@@ -56124,7 +56124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1730" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="1731" spans="1:10">
@@ -56170,7 +56170,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1732" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E1732" s="1" t="n">
         <x:v>74</x:v>
@@ -56188,7 +56188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1732" s="0" t="n">
-        <x:v>376</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="1733" spans="1:10">
@@ -56688,7 +56688,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F1748" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1748" s="1" t="n">
         <x:v>64</x:v>
@@ -56700,7 +56700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1748" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="1749" spans="1:10">
@@ -56752,7 +56752,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F1750" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G1750" s="1" t="n">
         <x:v>130</x:v>
@@ -56764,7 +56764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1750" s="0" t="n">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="1751" spans="1:10">
@@ -57171,7 +57171,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1763" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1763" s="1" t="n">
         <x:v>0</x:v>
@@ -57180,7 +57180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1763" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1764" spans="1:10">
@@ -57235,7 +57235,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1765" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1765" s="1" t="n">
         <x:v>0</x:v>
@@ -57244,7 +57244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1765" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="1766" spans="1:10">
@@ -57450,7 +57450,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1772" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1772" s="1" t="n">
         <x:v>5</x:v>
@@ -57468,7 +57468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1772" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1773" spans="1:10">
@@ -57482,7 +57482,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1773" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E1773" s="1" t="n">
         <x:v>6</x:v>
@@ -57500,7 +57500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1773" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="1774" spans="1:10">
@@ -63472,7 +63472,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F1960" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G1960" s="1" t="n">
         <x:v>33</x:v>
@@ -63484,7 +63484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1960" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="1961" spans="1:10">
@@ -63504,7 +63504,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1961" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G1961" s="1" t="n">
         <x:v>51</x:v>
@@ -63516,7 +63516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1961" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="1962" spans="1:10">
@@ -66902,13 +66902,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H2067" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I2067" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2067" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2068" spans="1:10">
@@ -66934,13 +66934,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H2068" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I2068" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2068" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2069" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2067,7 +2067,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
         <x:v>0</x:v>
@@ -2076,7 +2076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10">
@@ -2099,7 +2099,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -2108,7 +2108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
@@ -2992,7 +2992,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F70" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="1" t="n">
         <x:v>4</x:v>
@@ -3004,7 +3004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
@@ -3024,7 +3024,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F71" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G71" s="1" t="n">
         <x:v>5</x:v>
@@ -3036,7 +3036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
@@ -4467,7 +4467,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G116" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H116" s="1" t="n">
         <x:v>2</x:v>
@@ -4476,7 +4476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J116" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:10">
@@ -4499,7 +4499,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G117" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H117" s="1" t="n">
         <x:v>2</x:v>
@@ -4508,7 +4508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J117" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:10">
@@ -16211,7 +16211,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="G483" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H483" s="1" t="n">
         <x:v>29</x:v>
@@ -16220,7 +16220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J483" s="0" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="484" spans="1:10">
@@ -16275,7 +16275,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H485" s="1" t="n">
         <x:v>75</x:v>
@@ -16284,7 +16284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16490,7 +16490,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D492" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E492" s="1" t="n">
         <x:v>2</x:v>
@@ -16508,7 +16508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J492" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="493" spans="1:10">
@@ -16522,7 +16522,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D493" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E493" s="1" t="n">
         <x:v>3</x:v>
@@ -16540,7 +16540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J493" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="494" spans="1:10">
@@ -16746,7 +16746,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D500" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E500" s="1" t="n">
         <x:v>10</x:v>
@@ -16764,7 +16764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J500" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:10">
@@ -16778,7 +16778,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D501" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E501" s="1" t="n">
         <x:v>10</x:v>
@@ -16796,7 +16796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J501" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:10">
@@ -17872,7 +17872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F535" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G535" s="1" t="n">
         <x:v>5</x:v>
@@ -17884,7 +17884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J535" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:10">
@@ -17936,7 +17936,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F537" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G537" s="1" t="n">
         <x:v>19</x:v>
@@ -17948,7 +17948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J537" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:10">
@@ -21642,16 +21642,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D653" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E653" s="1" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="F653" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G653" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H653" s="1" t="n">
         <x:v>42</x:v>
@@ -21660,7 +21660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J653" s="0" t="n">
-        <x:v>428</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="654" spans="1:10">
@@ -21674,25 +21674,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D654" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E654" s="1" t="n">
         <x:v>247</x:v>
       </x:c>
       <x:c r="F654" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="G654" s="1" t="n">
         <x:v>470</x:v>
       </x:c>
       <x:c r="H654" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I654" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J654" s="0" t="n">
-        <x:v>1496</x:v>
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
     <x:row r="655" spans="1:10">
@@ -21706,25 +21706,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D655" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E655" s="1" t="n">
         <x:v>332</x:v>
       </x:c>
       <x:c r="F655" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="H655" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I655" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>1924</x:v>
+        <x:v>1934</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -21779,7 +21779,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G657" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H657" s="1" t="n">
         <x:v>25</x:v>
@@ -21788,7 +21788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -21811,7 +21811,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G658" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H658" s="1" t="n">
         <x:v>27</x:v>
@@ -21820,7 +21820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J658" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="659" spans="1:10">
@@ -22029,13 +22029,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E665" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F665" s="1" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="G665" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H665" s="1" t="n">
         <x:v>18</x:v>
@@ -22044,7 +22044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J665" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:10">
@@ -22093,13 +22093,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E667" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F667" s="1" t="n">
         <x:v>420</x:v>
       </x:c>
       <x:c r="G667" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="H667" s="1" t="n">
         <x:v>116</x:v>
@@ -22108,7 +22108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J667" s="0" t="n">
-        <x:v>1145</x:v>
+        <x:v>1148</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:10">
@@ -22221,7 +22221,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E671" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F671" s="1" t="n">
         <x:v>76</x:v>
@@ -22236,7 +22236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J671" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:10">
@@ -22253,7 +22253,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E672" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F672" s="1" t="n">
         <x:v>121</x:v>
@@ -22268,7 +22268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J672" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="673" spans="1:10">
@@ -22573,13 +22573,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E682" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F682" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G682" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H682" s="1" t="n">
         <x:v>70</x:v>
@@ -22588,7 +22588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J682" s="0" t="n">
-        <x:v>919</x:v>
+        <x:v>925</x:v>
       </x:c>
     </x:row>
     <x:row r="683" spans="1:10">
@@ -22602,25 +22602,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D683" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E683" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F683" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="G683" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H683" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I683" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J683" s="0" t="n">
-        <x:v>1234</x:v>
+        <x:v>1243</x:v>
       </x:c>
     </x:row>
     <x:row r="684" spans="1:10">
@@ -22634,25 +22634,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D684" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E684" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="H684" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I684" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>2153</x:v>
+        <x:v>2168</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -51667,7 +51667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1591" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H1591" s="1" t="n">
         <x:v>4</x:v>
@@ -51676,7 +51676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1591" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="1592" spans="1:10">
@@ -51731,7 +51731,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G1593" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H1593" s="1" t="n">
         <x:v>23</x:v>
@@ -51740,7 +51740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1593" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="1594" spans="1:10">
@@ -52534,13 +52534,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H1618" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1618" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1618" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="1619" spans="1:10">
@@ -52598,13 +52598,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="H1620" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I1620" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -53165,7 +53165,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1638" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1638" s="1" t="n">
         <x:v>15</x:v>
@@ -53180,7 +53180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1638" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="1639" spans="1:10">
@@ -53197,7 +53197,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1639" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1639" s="1" t="n">
         <x:v>20</x:v>
@@ -53212,7 +53212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1639" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="1640" spans="1:10">
@@ -57587,7 +57587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1776" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1776" s="1" t="n">
         <x:v>0</x:v>
@@ -57596,7 +57596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1776" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1777" spans="1:10">
@@ -57619,7 +57619,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1777" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1777" s="1" t="n">
         <x:v>0</x:v>
@@ -57628,7 +57628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1777" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1778" spans="1:10">
@@ -57878,13 +57878,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1785" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I1785" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1785" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1786" spans="1:10">
@@ -57942,13 +57942,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H1787" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1787" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1787" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="1788" spans="1:10">
@@ -66902,13 +66902,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H2067" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I2067" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2067" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="2068" spans="1:10">
@@ -66934,13 +66934,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H2068" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I2068" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2068" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="2069" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -3184,7 +3184,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F76" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G76" s="1" t="n">
         <x:v>7</x:v>
@@ -3196,7 +3196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
@@ -3216,7 +3216,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F77" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G77" s="1" t="n">
         <x:v>8</x:v>
@@ -3228,7 +3228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
@@ -5360,7 +5360,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F144" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G144" s="1" t="n">
         <x:v>0</x:v>
@@ -5372,7 +5372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J144" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:10">
@@ -5424,7 +5424,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F146" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G146" s="1" t="n">
         <x:v>11</x:v>
@@ -5436,7 +5436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J146" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:10">
@@ -11859,7 +11859,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G347" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
         <x:v>0</x:v>
@@ -11868,7 +11868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J347" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:10">
@@ -11891,7 +11891,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G348" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H348" s="1" t="n">
         <x:v>0</x:v>
@@ -11900,7 +11900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J348" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:10">
@@ -15466,7 +15466,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D460" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E460" s="1" t="n">
         <x:v>24</x:v>
@@ -15484,7 +15484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J460" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="461" spans="1:10">
@@ -15507,7 +15507,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G461" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H461" s="1" t="n">
         <x:v>53</x:v>
@@ -15516,7 +15516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J461" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:10">
@@ -15530,7 +15530,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D462" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E462" s="1" t="n">
         <x:v>72</x:v>
@@ -15539,7 +15539,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G462" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H462" s="1" t="n">
         <x:v>64</x:v>
@@ -15548,7 +15548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J462" s="0" t="n">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:10">
@@ -15606,13 +15606,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H464" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I464" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J464" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="465" spans="1:10">
@@ -15638,13 +15638,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H465" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I465" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J465" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="466" spans="1:10">
@@ -15795,7 +15795,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G470" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H470" s="1" t="n">
         <x:v>2</x:v>
@@ -15804,7 +15804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J470" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:10">
@@ -15827,7 +15827,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G471" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H471" s="1" t="n">
         <x:v>3</x:v>
@@ -15836,7 +15836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J471" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:10">
@@ -16234,10 +16234,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D484" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E484" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F484" s="1" t="n">
         <x:v>95</x:v>
@@ -16252,7 +16252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J484" s="0" t="n">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:10">
@@ -16272,7 +16272,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F485" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
         <x:v>122</x:v>
@@ -16284,7 +16284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16298,13 +16298,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D486" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E486" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F486" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G486" s="1" t="n">
         <x:v>205</x:v>
@@ -16316,7 +16316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -16592,7 +16592,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F495" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G495" s="1" t="n">
         <x:v>5</x:v>
@@ -16604,7 +16604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J495" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:10">
@@ -16624,7 +16624,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F496" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G496" s="1" t="n">
         <x:v>5</x:v>
@@ -16636,7 +16636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J496" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:10">
@@ -19466,7 +19466,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D585" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E585" s="1" t="n">
         <x:v>5</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -19498,7 +19498,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D586" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E586" s="1" t="n">
         <x:v>5</x:v>
@@ -19516,7 +19516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J586" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:10">
@@ -21712,7 +21712,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F655" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
         <x:v>118</x:v>
@@ -21724,7 +21724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>431</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -21741,13 +21741,13 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E656" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="H656" s="1" t="n">
         <x:v>189</x:v>
@@ -21773,13 +21773,13 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E657" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F657" s="1" t="n">
         <x:v>636</x:v>
       </x:c>
       <x:c r="G657" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="H657" s="1" t="n">
         <x:v>231</x:v>
@@ -21788,7 +21788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>1937</x:v>
+        <x:v>1939</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -21904,7 +21904,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F661" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G661" s="1" t="n">
         <x:v>13</x:v>
@@ -21916,7 +21916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J661" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="662" spans="1:10">
@@ -21968,7 +21968,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F663" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G663" s="1" t="n">
         <x:v>21</x:v>
@@ -21980,7 +21980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J663" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="664" spans="1:10">
@@ -22003,7 +22003,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G664" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H664" s="1" t="n">
         <x:v>2</x:v>
@@ -22012,7 +22012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J664" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:10">
@@ -22067,7 +22067,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="G666" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H666" s="1" t="n">
         <x:v>16</x:v>
@@ -22076,7 +22076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J666" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:10">
@@ -22096,7 +22096,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F667" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G667" s="1" t="n">
         <x:v>101</x:v>
@@ -22108,7 +22108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J667" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:10">
@@ -22160,7 +22160,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
         <x:v>371</x:v>
@@ -22172,7 +22172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22637,10 +22637,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E684" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
         <x:v>247</x:v>
@@ -22652,7 +22652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>926</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -22669,13 +22669,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E685" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F685" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="G685" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H685" s="1" t="n">
         <x:v>166</x:v>
@@ -22684,7 +22684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J685" s="0" t="n">
-        <x:v>1248</x:v>
+        <x:v>1251</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:10">
@@ -22701,13 +22701,13 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E686" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="F686" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="H686" s="1" t="n">
         <x:v>236</x:v>
@@ -22716,7 +22716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J686" s="0" t="n">
-        <x:v>2174</x:v>
+        <x:v>2179</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:10">
@@ -23024,7 +23024,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F696" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G696" s="1" t="n">
         <x:v>30</x:v>
@@ -23036,7 +23036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J696" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:10">
@@ -23056,7 +23056,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F697" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G697" s="1" t="n">
         <x:v>31</x:v>
@@ -23068,7 +23068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J697" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:10">
@@ -23126,13 +23126,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H699" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I699" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J699" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:10">
@@ -23158,13 +23158,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="H700" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I700" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J700" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:10">
@@ -32112,10 +32112,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F980" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G980" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H980" s="1" t="n">
         <x:v>3</x:v>
@@ -32124,7 +32124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J980" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="981" spans="1:10">
@@ -32144,10 +32144,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H981" s="1" t="n">
         <x:v>3</x:v>
@@ -32156,7 +32156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J981" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="982" spans="1:10">
@@ -34675,7 +34675,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1060" s="1" t="n">
         <x:v>12</x:v>
@@ -34684,7 +34684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1060" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="1061" spans="1:10">
@@ -34707,7 +34707,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
         <x:v>14</x:v>
@@ -34716,7 +34716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1061" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="1062" spans="1:10">
@@ -50253,7 +50253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1547" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1547" s="1" t="n">
         <x:v>1</x:v>
@@ -50268,7 +50268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1547" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1548" spans="1:10">
@@ -50317,7 +50317,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1549" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
         <x:v>4</x:v>
@@ -50332,7 +50332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -51731,7 +51731,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1593" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1593" s="1" t="n">
         <x:v>4</x:v>
@@ -51740,7 +51740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1593" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="1594" spans="1:10">
@@ -51795,7 +51795,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G1595" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H1595" s="1" t="n">
         <x:v>23</x:v>
@@ -51804,7 +51804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1595" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="1596" spans="1:10">
@@ -55440,7 +55440,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F1709" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G1709" s="1" t="n">
         <x:v>47</x:v>
@@ -55452,7 +55452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1709" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="1710" spans="1:10">
@@ -55504,7 +55504,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F1711" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G1711" s="1" t="n">
         <x:v>118</x:v>
@@ -55516,7 +55516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1711" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="1712" spans="1:10">
@@ -56205,7 +56205,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E1733" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F1733" s="1" t="n">
         <x:v>66</x:v>
@@ -56220,7 +56220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1733" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="1734" spans="1:10">
@@ -56237,7 +56237,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E1734" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F1734" s="1" t="n">
         <x:v>104</x:v>
@@ -56252,7 +56252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1734" s="0" t="n">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="1735" spans="1:10">
@@ -56586,7 +56586,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1745" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1745" s="1" t="n">
         <x:v>27</x:v>
@@ -56604,7 +56604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1745" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="1746" spans="1:10">
@@ -56618,7 +56618,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1746" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1746" s="1" t="n">
         <x:v>31</x:v>
@@ -56636,7 +56636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1746" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="1747" spans="1:10">
@@ -56691,7 +56691,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G1748" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1748" s="1" t="n">
         <x:v>0</x:v>
@@ -56700,7 +56700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1748" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1749" spans="1:10">
@@ -56723,7 +56723,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G1749" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1749" s="1" t="n">
         <x:v>1</x:v>
@@ -56732,7 +56732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1749" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="1750" spans="1:10">
@@ -57162,7 +57162,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1763" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1763" s="1" t="n">
         <x:v>8</x:v>
@@ -57180,7 +57180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1763" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1764" spans="1:10">
@@ -57194,7 +57194,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1764" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1764" s="1" t="n">
         <x:v>8</x:v>
@@ -57212,7 +57212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1764" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1765" spans="1:10">
@@ -57357,7 +57357,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1769" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1769" s="1" t="n">
         <x:v>12</x:v>
@@ -57372,7 +57372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1769" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1770" spans="1:10">
@@ -57389,7 +57389,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1770" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1770" s="1" t="n">
         <x:v>12</x:v>
@@ -57404,7 +57404,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1770" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1771" spans="1:10">
@@ -57808,11 +57808,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1783" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1783" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G1783" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="H1783" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -57820,7 +57820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1783" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1784" spans="1:10">
@@ -57840,11 +57840,11 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1784" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1784" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1784" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H1784" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -57852,7 +57852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1784" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1785" spans="1:10">
@@ -63120,7 +63120,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1949" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1949" s="1" t="n">
         <x:v>18</x:v>
@@ -63132,7 +63132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1949" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="1950" spans="1:10">
@@ -63184,7 +63184,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F1951" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G1951" s="1" t="n">
         <x:v>74</x:v>
@@ -63196,7 +63196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1951" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="1952" spans="1:10">
@@ -63539,7 +63539,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G1962" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1962" s="1" t="n">
         <x:v>15</x:v>
@@ -63548,7 +63548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1962" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="1963" spans="1:10">
@@ -63571,7 +63571,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G1963" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H1963" s="1" t="n">
         <x:v>19</x:v>
@@ -63580,7 +63580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1963" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="1964" spans="1:10">
@@ -63952,7 +63952,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1975" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G1975" s="1" t="n">
         <x:v>44</x:v>
@@ -63964,7 +63964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1975" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="1976" spans="1:10">
@@ -63984,7 +63984,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F1976" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G1976" s="1" t="n">
         <x:v>88</x:v>
@@ -63996,7 +63996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -757,7 +757,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J2122"/>
+  <x:dimension ref="A1:J2123"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1875,7 +1875,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>25</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1907,7 +1907,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>35</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -4880,7 +4880,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F129" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G129" s="1" t="n">
         <x:v>3</x:v>
@@ -4892,7 +4892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J129" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:10">
@@ -4944,7 +4944,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F131" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G131" s="1" t="n">
         <x:v>11</x:v>
@@ -4956,7 +4956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:10">
@@ -15498,13 +15498,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D461" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E461" s="1" t="n">
         <x:v>48</x:v>
       </x:c>
       <x:c r="F461" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G461" s="1" t="n">
         <x:v>118</x:v>
@@ -15516,7 +15516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J461" s="0" t="n">
-        <x:v>359</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:10">
@@ -15530,13 +15530,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D462" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E462" s="1" t="n">
         <x:v>72</x:v>
       </x:c>
       <x:c r="F462" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G462" s="1" t="n">
         <x:v>151</x:v>
@@ -15548,7 +15548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J462" s="0" t="n">
-        <x:v>492</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:10">
@@ -15667,7 +15667,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G466" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H466" s="1" t="n">
         <x:v>2</x:v>
@@ -15676,7 +15676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J466" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="467" spans="1:10">
@@ -15731,7 +15731,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G468" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H468" s="1" t="n">
         <x:v>2</x:v>
@@ -15740,7 +15740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J468" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:10">
@@ -15786,7 +15786,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D470" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E470" s="1" t="n">
         <x:v>1</x:v>
@@ -15804,7 +15804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J470" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:10">
@@ -15818,7 +15818,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D471" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E471" s="1" t="n">
         <x:v>3</x:v>
@@ -15836,7 +15836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J471" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:10">
@@ -16275,7 +16275,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H485" s="1" t="n">
         <x:v>47</x:v>
@@ -16284,7 +16284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16307,7 +16307,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="G486" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H486" s="1" t="n">
         <x:v>76</x:v>
@@ -16316,7 +16316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -16685,7 +16685,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E498" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F498" s="1" t="n">
         <x:v>3</x:v>
@@ -16700,7 +16700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J498" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:10">
@@ -16717,7 +16717,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E499" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F499" s="1" t="n">
         <x:v>6</x:v>
@@ -16732,7 +16732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J499" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:10">
@@ -19245,7 +19245,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E578" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F578" s="1" t="n">
         <x:v>13</x:v>
@@ -19260,7 +19260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J578" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:10">
@@ -19277,7 +19277,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E579" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F579" s="1" t="n">
         <x:v>16</x:v>
@@ -19292,7 +19292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J579" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:10">
@@ -19760,7 +19760,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F594" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G594" s="1" t="n">
         <x:v>5</x:v>
@@ -19772,7 +19772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J594" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:10">
@@ -19824,7 +19824,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F596" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
         <x:v>9</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -21712,19 +21712,19 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F655" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H655" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I655" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>433</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -21738,25 +21738,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D656" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E656" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
         <x:v>502</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="H656" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I656" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>1506</x:v>
+        <x:v>1514</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -21770,25 +21770,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D657" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E657" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F657" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="G657" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="H657" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I657" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>1939</x:v>
+        <x:v>1951</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -22029,7 +22029,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E665" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F665" s="1" t="n">
         <x:v>63</x:v>
@@ -22044,7 +22044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J665" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:10">
@@ -22061,7 +22061,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E666" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F666" s="1" t="n">
         <x:v>76</x:v>
@@ -22076,7 +22076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J666" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:10">
@@ -22288,19 +22288,19 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F673" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G673" s="1" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H673" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I673" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J673" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:10">
@@ -22320,19 +22320,19 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F674" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G674" s="1" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="H674" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I674" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J674" s="0" t="n">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:10">
@@ -22384,7 +22384,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F676" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G676" s="1" t="n">
         <x:v>4</x:v>
@@ -22396,7 +22396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J676" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="677" spans="1:10">
@@ -22416,7 +22416,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F677" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G677" s="1" t="n">
         <x:v>4</x:v>
@@ -22428,7 +22428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J677" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="678" spans="1:10">
@@ -22640,7 +22640,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
         <x:v>247</x:v>
@@ -22652,7 +22652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>928</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -22704,7 +22704,7 @@
         <x:v>481</x:v>
       </x:c>
       <x:c r="F686" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
         <x:v>581</x:v>
@@ -22716,7 +22716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J686" s="0" t="n">
-        <x:v>2179</x:v>
+        <x:v>2181</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:10">
@@ -22762,7 +22762,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D688" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E688" s="1" t="n">
         <x:v>9</x:v>
@@ -22780,7 +22780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J688" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="689" spans="1:10">
@@ -22794,7 +22794,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D689" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E689" s="1" t="n">
         <x:v>14</x:v>
@@ -22812,7 +22812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J689" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="690" spans="1:10">
@@ -23120,7 +23120,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F699" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G699" s="1" t="n">
         <x:v>46</x:v>
@@ -23132,7 +23132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J699" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:10">
@@ -23152,7 +23152,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F700" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G700" s="1" t="n">
         <x:v>61</x:v>
@@ -23164,7 +23164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J700" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:10">
@@ -23216,7 +23216,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F702" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G702" s="1" t="n">
         <x:v>72</x:v>
@@ -23228,7 +23228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J702" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="703" spans="1:10">
@@ -23248,7 +23248,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="F703" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G703" s="1" t="n">
         <x:v>79</x:v>
@@ -23260,7 +23260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J703" s="0" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="704" spans="1:10">
@@ -24787,7 +24787,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G751" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H751" s="1" t="n">
         <x:v>7</x:v>
@@ -24796,7 +24796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J751" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="752" spans="1:10">
@@ -24819,7 +24819,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G752" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H752" s="1" t="n">
         <x:v>9</x:v>
@@ -24828,7 +24828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J752" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="753" spans="1:10">
@@ -32080,7 +32080,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F979" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G979" s="1" t="n">
         <x:v>0</x:v>
@@ -32092,7 +32092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J979" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="980" spans="1:10">
@@ -32144,7 +32144,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F981" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G981" s="1" t="n">
         <x:v>5</x:v>
@@ -32156,7 +32156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J981" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="982" spans="1:10">
@@ -33296,7 +33296,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1017" s="1" t="n">
         <x:v>10</x:v>
@@ -33308,7 +33308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1017" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1018" spans="1:10">
@@ -33328,7 +33328,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1018" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="n">
         <x:v>13</x:v>
@@ -33340,7 +33340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1018" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1019" spans="1:10">
@@ -47344,7 +47344,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F1456" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G1456" s="1" t="n">
         <x:v>145</x:v>
@@ -47356,7 +47356,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1456" s="0" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="1457" spans="1:10">
@@ -47376,7 +47376,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="F1457" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="G1457" s="1" t="n">
         <x:v>255</x:v>
@@ -47388,7 +47388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1457" s="0" t="n">
-        <x:v>911</x:v>
+        <x:v>912</x:v>
       </x:c>
     </x:row>
     <x:row r="1458" spans="1:10">
@@ -47760,7 +47760,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1469" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1469" s="1" t="n">
         <x:v>16</x:v>
@@ -47772,7 +47772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1469" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="1470" spans="1:10">
@@ -47824,7 +47824,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F1471" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G1471" s="1" t="n">
         <x:v>49</x:v>
@@ -47836,7 +47836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1471" s="0" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="1472" spans="1:10">
@@ -51766,13 +51766,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H1594" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1594" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1594" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="1595" spans="1:10">
@@ -51798,13 +51798,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="H1595" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I1595" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1595" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="1596" spans="1:10">
@@ -52624,7 +52624,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
         <x:v>19</x:v>
@@ -52636,7 +52636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
@@ -52656,7 +52656,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1622" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G1622" s="1" t="n">
         <x:v>44</x:v>
@@ -52668,7 +52668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">
@@ -53235,7 +53235,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1640" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1640" s="1" t="n">
         <x:v>11</x:v>
@@ -53244,7 +53244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1640" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="1641" spans="1:10">
@@ -53267,7 +53267,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G1641" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1641" s="1" t="n">
         <x:v>13</x:v>
@@ -53276,7 +53276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1641" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="1642" spans="1:10">
@@ -53706,7 +53706,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1655" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1655" s="1" t="n">
         <x:v>1</x:v>
@@ -53724,7 +53724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1655" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1656" spans="1:10">
@@ -53770,7 +53770,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1657" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1657" s="1" t="n">
         <x:v>3</x:v>
@@ -53788,7 +53788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1657" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1658" spans="1:10">
@@ -56272,7 +56272,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1735" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1735" s="1" t="n">
         <x:v>2</x:v>
@@ -56284,7 +56284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1735" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1736" spans="1:10">
@@ -56336,7 +56336,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1737" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1737" s="1" t="n">
         <x:v>4</x:v>
@@ -56348,7 +56348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1737" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1738" spans="1:10">
@@ -56784,7 +56784,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F1751" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G1751" s="1" t="n">
         <x:v>66</x:v>
@@ -56796,7 +56796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1751" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="1752" spans="1:10">
@@ -56816,7 +56816,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F1752" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G1752" s="1" t="n">
         <x:v>130</x:v>
@@ -56828,7 +56828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1752" s="0" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="1753" spans="1:10">
@@ -57878,13 +57878,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1785" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1785" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1785" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1786" spans="1:10">
@@ -57910,13 +57910,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1786" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1786" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1786" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1787" spans="1:10">
@@ -58163,7 +58163,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1794" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1794" s="1" t="n">
         <x:v>0</x:v>
@@ -58172,7 +58172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1794" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1795" spans="1:10">
@@ -58195,7 +58195,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1795" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1795" s="1" t="n">
         <x:v>0</x:v>
@@ -58204,7 +58204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1795" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1796" spans="1:10">
@@ -63149,7 +63149,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E1950" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1950" s="1" t="n">
         <x:v>55</x:v>
@@ -63164,7 +63164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1950" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="1951" spans="1:10">
@@ -63181,7 +63181,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E1951" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1951" s="1" t="n">
         <x:v>71</x:v>
@@ -63196,7 +63196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1951" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="1952" spans="1:10">
@@ -65703,7 +65703,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2030" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2030" s="1" t="n">
         <x:v>0</x:v>
@@ -65715,7 +65715,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2030" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2030" s="1" t="n">
         <x:v>0</x:v>
@@ -65724,7 +65724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2030" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2031" spans="1:10">
@@ -65735,7 +65735,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2031" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2031" s="1" t="n">
         <x:v>0</x:v>
@@ -65747,7 +65747,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2031" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2031" s="1" t="n">
         <x:v>0</x:v>
@@ -65756,18 +65756,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2031" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2032" spans="1:10">
       <x:c r="A2032" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B2032" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2032" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2032" s="1" t="n">
         <x:v>0</x:v>
@@ -65776,10 +65776,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2032" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2032" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2032" s="1" t="n">
         <x:v>0</x:v>
@@ -65788,7 +65788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2032" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2033" spans="1:10">
@@ -65799,7 +65799,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C2033" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2033" s="1" t="n">
         <x:v>0</x:v>
@@ -65808,10 +65808,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2033" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2033" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2033" s="1" t="n">
         <x:v>0</x:v>
@@ -65831,7 +65831,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C2034" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2034" s="1" t="n">
         <x:v>0</x:v>
@@ -65843,7 +65843,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2034" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2034" s="1" t="n">
         <x:v>0</x:v>
@@ -65852,7 +65852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2034" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2035" spans="1:10">
@@ -65860,31 +65860,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2035" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2035" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2035" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2035" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2035" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2035" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2035" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2035" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2035" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2036" spans="1:10">
@@ -65895,28 +65895,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2036" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2036" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E2036" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2036" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2036" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2036" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2036" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2036" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2037" spans="1:10">
@@ -65927,28 +65927,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2037" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2037" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2037" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2037" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G2037" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H2037" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2037" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2037" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2038" spans="1:10">
@@ -65956,31 +65956,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2038" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2038" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2038" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H2038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I2038" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2038" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="2039" spans="1:10">
@@ -65991,28 +65991,28 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C2039" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2039" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2039" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2039" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2039" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2039" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2039" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2040" spans="1:10">
@@ -66023,7 +66023,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C2040" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2040" s="1" t="n">
         <x:v>0</x:v>
@@ -66035,7 +66035,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2040" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2040" s="1" t="n">
         <x:v>1</x:v>
@@ -66044,7 +66044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2040" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2041" spans="1:10">
@@ -66052,10 +66052,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2041" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2041" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2041" s="1" t="n">
         <x:v>0</x:v>
@@ -66064,19 +66064,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2041" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2041" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2041" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2042" spans="1:10">
@@ -66087,7 +66087,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C2042" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2042" s="1" t="n">
         <x:v>0</x:v>
@@ -66116,16 +66116,16 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2043" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2043" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2043" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2043" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2043" s="1" t="n">
         <x:v>0</x:v>
@@ -66151,28 +66151,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2044" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2044" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2044" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2044" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2044" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2044" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2044" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2045" spans="1:10">
@@ -66183,10 +66183,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2045" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2045" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2045" s="1" t="n">
         <x:v>0</x:v>
@@ -66204,7 +66204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2045" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2046" spans="1:10">
@@ -66212,31 +66212,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2046" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2046" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2046" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2046" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2046" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H2046" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2046" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2046" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2047" spans="1:10">
@@ -66247,7 +66247,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2047" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2047" s="1" t="n">
         <x:v>0</x:v>
@@ -66256,19 +66256,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2047" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2047" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2047" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2047" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2047" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2048" spans="1:10">
@@ -66279,19 +66279,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2048" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2048" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2048" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2048" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F2048" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="G2048" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2048" s="1" t="n">
         <x:v>2</x:v>
@@ -66300,7 +66300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2048" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2049" spans="1:10">
@@ -66308,31 +66308,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2049" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2049" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2049" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2049" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2049" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2049" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2049" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2049" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2049" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2050" spans="1:10">
@@ -66343,7 +66343,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C2050" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2050" s="1" t="n">
         <x:v>0</x:v>
@@ -66372,10 +66372,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2051" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2051" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2051" s="1" t="n">
         <x:v>0</x:v>
@@ -66384,19 +66384,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2051" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2051" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2051" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2051" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2051" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2052" spans="1:10">
@@ -66407,28 +66407,28 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2052" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2052" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2052" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2052" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2052" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2052" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2052" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2052" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2053" spans="1:10">
@@ -66439,7 +66439,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2053" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2053" s="1" t="n">
         <x:v>0</x:v>
@@ -66448,19 +66448,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2053" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2053" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2053" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2053" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2053" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2054" spans="1:10">
@@ -66468,31 +66468,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2054" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2054" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2054" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2054" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2054" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2054" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2054" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2054" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2054" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2055" spans="1:10">
@@ -66503,22 +66503,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2055" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2055" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2055" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2055" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2055" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H2055" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2055" s="0" t="n">
         <x:v>0</x:v>
@@ -66535,28 +66535,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2056" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2056" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2056" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2056" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G2056" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E2056" s="1" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F2056" s="1" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G2056" s="1" t="n">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="H2056" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2056" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2056" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2057" spans="1:10">
@@ -66564,31 +66564,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2057" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2057" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E2057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2057" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2057" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2057" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I2057" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2057" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2058" spans="1:10">
@@ -66599,7 +66599,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C2058" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2058" s="1" t="n">
         <x:v>0</x:v>
@@ -66628,31 +66628,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2059" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2059" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2059" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2059" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H2059" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2059" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2059" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H2059" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I2059" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2059" s="0" t="n">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2060" spans="1:10">
@@ -66663,7 +66663,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C2060" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2060" s="1" t="n">
         <x:v>2</x:v>
@@ -66692,31 +66692,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2061" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2061" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2061" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2061" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2061" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2061" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2062" spans="1:10">
@@ -66727,19 +66727,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2062" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2062" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2062" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2062" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2062" s="1" t="n">
         <x:v>0</x:v>
@@ -66748,7 +66748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2062" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2063" spans="1:10">
@@ -66759,7 +66759,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2063" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2063" s="1" t="n">
         <x:v>0</x:v>
@@ -66768,10 +66768,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2063" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2063" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2063" s="1" t="n">
         <x:v>0</x:v>
@@ -66780,7 +66780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2063" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2064" spans="1:10">
@@ -66788,10 +66788,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2064" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2064" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2064" s="1" t="n">
         <x:v>0</x:v>
@@ -66823,7 +66823,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2065" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2065" s="1" t="n">
         <x:v>0</x:v>
@@ -66849,13 +66849,13 @@
     </x:row>
     <x:row r="2066" spans="1:10">
       <x:c r="A2066" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B2066" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2066" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2066" s="1" t="n">
         <x:v>0</x:v>
@@ -66864,7 +66864,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2066" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2066" s="1" t="n">
         <x:v>1</x:v>
@@ -66876,7 +66876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2066" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2067" spans="1:10">
@@ -66887,7 +66887,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C2067" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2067" s="1" t="n">
         <x:v>0</x:v>
@@ -66916,31 +66916,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2068" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2068" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2068" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2068" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2068" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2068" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2068" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2068" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2068" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2069" spans="1:10">
@@ -66951,28 +66951,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2069" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2069" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2069" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2069" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2069" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2069" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2069" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2069" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="2070" spans="1:10">
@@ -66983,28 +66983,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2070" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2070" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2070" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2070" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2070" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H2070" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I2070" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2070" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2071" spans="1:10">
@@ -67012,31 +67012,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2071" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2071" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2071" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E2071" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2071" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2071" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2071" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I2071" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2071" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2072" spans="1:10">
@@ -67047,7 +67047,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C2072" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2072" s="1" t="n">
         <x:v>5</x:v>
@@ -67076,22 +67076,22 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2073" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2073" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2073" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2073" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2073" s="1" t="n">
         <x:v>0</x:v>
@@ -67100,7 +67100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2073" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2074" spans="1:10">
@@ -67111,10 +67111,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C2074" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2074" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2074" s="1" t="n">
         <x:v>0</x:v>
@@ -67132,7 +67132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2074" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2075" spans="1:10">
@@ -67143,7 +67143,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C2075" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2075" s="1" t="n">
         <x:v>1</x:v>
@@ -67155,7 +67155,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2075" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2075" s="1" t="n">
         <x:v>0</x:v>
@@ -67164,7 +67164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2075" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2076" spans="1:10">
@@ -67172,22 +67172,22 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2076" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2076" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2076" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2076" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2076" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2076" s="1" t="n">
         <x:v>0</x:v>
@@ -67196,7 +67196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2076" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2077" spans="1:10">
@@ -67207,19 +67207,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2077" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2077" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2077" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2077" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2077" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2077" s="1" t="n">
         <x:v>0</x:v>
@@ -67228,7 +67228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2077" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2078" spans="1:10">
@@ -67239,13 +67239,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2078" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2078" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2078" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2078" s="1" t="n">
         <x:v>2</x:v>
@@ -67260,7 +67260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2078" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2079" spans="1:10">
@@ -67268,31 +67268,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2079" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2079" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2079" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2079" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F2079" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2079" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2079" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2079" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2079" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2080" spans="1:10">
@@ -67303,28 +67303,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2080" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2080" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2080" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E2080" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="F2080" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G2080" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2080" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2080" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2080" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2081" spans="1:10">
@@ -67335,28 +67335,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2081" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2081" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2081" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2081" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2081" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H2081" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I2081" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2081" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="2082" spans="1:10">
@@ -67364,31 +67364,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2082" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2082" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2082" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2082" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2082" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G2082" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H2082" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I2082" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2082" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="2083" spans="1:10">
@@ -67399,28 +67399,28 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2083" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2083" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2083" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2083" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2083" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="G2083" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2083" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2083" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2083" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2084" spans="1:10">
@@ -67431,19 +67431,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2084" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2084" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2084" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F2084" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F2084" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="G2084" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2084" s="1" t="n">
         <x:v>2</x:v>
@@ -67452,7 +67452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2084" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2085" spans="1:10">
@@ -67460,31 +67460,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2085" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2085" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2085" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2085" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2085" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G2085" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H2085" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2085" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2085" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2086" spans="1:10">
@@ -67495,7 +67495,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C2086" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2086" s="1" t="n">
         <x:v>0</x:v>
@@ -67524,31 +67524,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2087" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2087" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2087" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2087" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2087" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2087" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2087" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2087" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2087" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2088" spans="1:10">
@@ -67559,28 +67559,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2088" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2088" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2088" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2088" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2088" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2088" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I2088" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2088" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="2089" spans="1:10">
@@ -67591,28 +67591,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2089" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2089" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2089" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2089" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G2089" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H2089" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2089" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2089" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="2090" spans="1:10">
@@ -67620,31 +67620,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2090" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2090" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E2090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F2090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G2090" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2090" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I2090" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2090" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="2091" spans="1:10">
@@ -67655,7 +67655,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C2091" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2091" s="1" t="n">
         <x:v>0</x:v>
@@ -67684,13 +67684,13 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2092" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2092" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2092" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2092" s="1" t="n">
         <x:v>0</x:v>
@@ -67699,7 +67699,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2092" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2092" s="1" t="n">
         <x:v>0</x:v>
@@ -67719,16 +67719,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C2093" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2093" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2093" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2093" s="1" t="n">
         <x:v>0</x:v>
@@ -67740,7 +67740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2093" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2094" spans="1:10">
@@ -67751,10 +67751,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C2094" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2094" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2094" s="1" t="n">
         <x:v>1</x:v>
@@ -67772,7 +67772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2094" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2095" spans="1:10">
@@ -67780,31 +67780,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2095" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2095" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2095" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2095" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2095" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2095" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2095" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2095" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2095" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2096" spans="1:10">
@@ -67815,7 +67815,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C2096" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2096" s="1" t="n">
         <x:v>0</x:v>
@@ -67844,10 +67844,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2097" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2097" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2097" s="1" t="n">
         <x:v>0</x:v>
@@ -67879,28 +67879,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C2098" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2098" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2098" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2098" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2098" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2098" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2098" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2098" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2099" spans="1:10">
@@ -67911,7 +67911,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C2099" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2099" s="1" t="n">
         <x:v>2</x:v>
@@ -67926,13 +67926,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2099" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2099" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2099" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2100" spans="1:10">
@@ -67940,31 +67940,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2100" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2100" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2100" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2100" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2100" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2100" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2100" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -67975,7 +67975,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2101" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2101" s="1" t="n">
         <x:v>1</x:v>
@@ -67987,16 +67987,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2101" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2101" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68007,13 +68007,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2102" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2102" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2102" s="1" t="n">
         <x:v>0</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68036,16 +68036,16 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2103" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2103" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2103" s="1" t="n">
         <x:v>0</x:v>
@@ -68054,13 +68054,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2103" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2103" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2103" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2104" spans="1:10">
@@ -68071,28 +68071,28 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2104" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2104" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2104" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2104" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2104" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2104" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2104" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2104" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2105" spans="1:10">
@@ -68103,7 +68103,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2105" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2105" s="1" t="n">
         <x:v>2</x:v>
@@ -68115,7 +68115,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2105" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2105" s="1" t="n">
         <x:v>2</x:v>
@@ -68124,39 +68124,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2105" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2106" spans="1:10">
       <x:c r="A2106" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B2106" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2106" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2106" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2106" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F2106" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2106" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H2106" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I2106" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2106" s="0" t="n">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2106" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2106" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2106" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G2106" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2106" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2106" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2106" s="0" t="n">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -68167,28 +68167,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2107" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2107" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2107" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2107" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2107" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2107" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2107" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2107" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2108" spans="1:10">
@@ -68199,16 +68199,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2108" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2108" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2108" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2108" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2108" s="1" t="n">
         <x:v>6</x:v>
@@ -68220,7 +68220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2108" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2109" spans="1:10">
@@ -68228,31 +68228,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2109" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2109" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2109" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2109" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2109" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G2109" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2109" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2109" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2109" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2110" spans="1:10">
@@ -68263,7 +68263,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C2110" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2110" s="1" t="n">
         <x:v>0</x:v>
@@ -68292,10 +68292,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2111" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2111" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2111" s="1" t="n">
         <x:v>0</x:v>
@@ -68304,19 +68304,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2111" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2111" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2111" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2111" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2111" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2112" spans="1:10">
@@ -68327,7 +68327,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2112" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2112" s="1" t="n">
         <x:v>0</x:v>
@@ -68356,10 +68356,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2113" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2113" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2113" s="1" t="n">
         <x:v>0</x:v>
@@ -68371,10 +68371,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2113" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2113" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2113" s="0" t="n">
         <x:v>0</x:v>
@@ -68391,7 +68391,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2114" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2114" s="1" t="n">
         <x:v>0</x:v>
@@ -68400,19 +68400,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2114" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2114" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2114" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -68423,7 +68423,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2115" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2115" s="1" t="n">
         <x:v>0</x:v>
@@ -68432,10 +68432,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2115" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2115" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2115" s="1" t="n">
         <x:v>1</x:v>
@@ -68444,7 +68444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2115" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2116" spans="1:10">
@@ -68452,10 +68452,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2116" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2116" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2116" s="1" t="n">
         <x:v>0</x:v>
@@ -68464,19 +68464,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2116" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2116" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2117" spans="1:10">
@@ -68487,7 +68487,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2117" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2117" s="1" t="n">
         <x:v>0</x:v>
@@ -68516,10 +68516,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2118" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2118" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2118" s="1" t="n">
         <x:v>0</x:v>
@@ -68528,10 +68528,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2118" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2118" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2118" s="1" t="n">
         <x:v>0</x:v>
@@ -68540,7 +68540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2118" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2119" spans="1:10">
@@ -68551,7 +68551,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2119" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2119" s="1" t="n">
         <x:v>0</x:v>
@@ -68560,10 +68560,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2119" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2119" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2119" s="1" t="n">
         <x:v>0</x:v>
@@ -68572,7 +68572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2119" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2120" spans="1:10">
@@ -68583,7 +68583,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2120" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2120" s="1" t="n">
         <x:v>0</x:v>
@@ -68592,7 +68592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2120" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2120" s="1" t="n">
         <x:v>1</x:v>
@@ -68604,7 +68604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2120" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2121" spans="1:10">
@@ -68612,10 +68612,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2121" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2121" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2121" s="1" t="n">
         <x:v>0</x:v>
@@ -68624,19 +68624,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2121" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2121" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2121" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2121" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2122" spans="1:10">
@@ -68647,7 +68647,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2122" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2122" s="1" t="n">
         <x:v>0</x:v>
@@ -68668,6 +68668,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2122" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2123" spans="1:10">
+      <x:c r="A2123" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B2123" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C2123" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2123" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2123" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2123" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2123" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2123" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2123" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2123" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -15856,7 +15856,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F472" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G472" s="1" t="n">
         <x:v>6</x:v>
@@ -15868,7 +15868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J472" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="473" spans="1:10">
@@ -15920,7 +15920,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F474" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G474" s="1" t="n">
         <x:v>32</x:v>
@@ -15932,7 +15932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J474" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="475" spans="1:10">
@@ -16976,7 +16976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F507" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G507" s="1" t="n">
         <x:v>3</x:v>
@@ -16988,7 +16988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J507" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="508" spans="1:10">
@@ -17008,7 +17008,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F508" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G508" s="1" t="n">
         <x:v>3</x:v>
@@ -17020,7 +17020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J508" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="509" spans="1:10">
@@ -19792,10 +19792,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
         <x:v>2</x:v>
@@ -19804,7 +19804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19824,10 +19824,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F596" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H596" s="1" t="n">
         <x:v>5</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -20083,7 +20083,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>0</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20115,7 +20115,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
         <x:v>0</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -21744,19 +21744,19 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="H656" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I656" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>1514</x:v>
+        <x:v>1517</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -21776,19 +21776,19 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="F657" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="G657" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="H657" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I657" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>1951</x:v>
+        <x:v>1954</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -21936,7 +21936,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F662" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G662" s="1" t="n">
         <x:v>8</x:v>
@@ -21948,7 +21948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J662" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="663" spans="1:10">
@@ -21968,7 +21968,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F663" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G663" s="1" t="n">
         <x:v>21</x:v>
@@ -21980,7 +21980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J663" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="664" spans="1:10">
@@ -22096,7 +22096,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F667" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G667" s="1" t="n">
         <x:v>101</x:v>
@@ -22108,7 +22108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J667" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:10">
@@ -22128,10 +22128,10 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="F668" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G668" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H668" s="1" t="n">
         <x:v>98</x:v>
@@ -22140,7 +22140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J668" s="0" t="n">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:10">
@@ -22160,10 +22160,10 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="H669" s="1" t="n">
         <x:v>116</x:v>
@@ -22172,7 +22172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>1151</x:v>
+        <x:v>1154</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22643,7 +22643,7 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H684" s="1" t="n">
         <x:v>70</x:v>
@@ -22652,7 +22652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>930</x:v>
+        <x:v>931</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -22666,7 +22666,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D685" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E685" s="1" t="n">
         <x:v>257</x:v>
@@ -22684,7 +22684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J685" s="0" t="n">
-        <x:v>1251</x:v>
+        <x:v>1252</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:10">
@@ -22698,7 +22698,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D686" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E686" s="1" t="n">
         <x:v>481</x:v>
@@ -22707,7 +22707,7 @@
         <x:v>696</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="H686" s="1" t="n">
         <x:v>236</x:v>
@@ -22716,7 +22716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J686" s="0" t="n">
-        <x:v>2181</x:v>
+        <x:v>2183</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:10">
@@ -23021,7 +23021,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E696" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F696" s="1" t="n">
         <x:v>37</x:v>
@@ -23036,7 +23036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J696" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:10">
@@ -23053,7 +23053,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E697" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F697" s="1" t="n">
         <x:v>38</x:v>
@@ -23068,7 +23068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J697" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:10">
@@ -23082,7 +23082,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D698" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E698" s="1" t="n">
         <x:v>11</x:v>
@@ -23100,7 +23100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J698" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="699" spans="1:10">
@@ -23117,7 +23117,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E699" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F699" s="1" t="n">
         <x:v>68</x:v>
@@ -23132,7 +23132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J699" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:10">
@@ -23146,10 +23146,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D700" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E700" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F700" s="1" t="n">
         <x:v>93</x:v>
@@ -23164,7 +23164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J700" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:10">
@@ -23213,10 +23213,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E702" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F702" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G702" s="1" t="n">
         <x:v>72</x:v>
@@ -23228,7 +23228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J702" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="703" spans="1:10">
@@ -23245,10 +23245,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E703" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F703" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G703" s="1" t="n">
         <x:v>79</x:v>
@@ -23260,7 +23260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J703" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="704" spans="1:10">
@@ -23891,7 +23891,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G723" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H723" s="1" t="n">
         <x:v>0</x:v>
@@ -23900,7 +23900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J723" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="724" spans="1:10">
@@ -23955,7 +23955,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G725" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H725" s="1" t="n">
         <x:v>4</x:v>
@@ -23964,7 +23964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J725" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="726" spans="1:10">
@@ -42288,7 +42288,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1298" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1298" s="1" t="n">
         <x:v>13</x:v>
@@ -42300,7 +42300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1298" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1299" spans="1:10">
@@ -42320,7 +42320,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1299" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1299" s="1" t="n">
         <x:v>17</x:v>
@@ -42332,7 +42332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1299" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1300" spans="1:10">
@@ -46838,13 +46838,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H1440" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1440" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1440" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="1441" spans="1:10">
@@ -46867,7 +46867,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G1441" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H1441" s="1" t="n">
         <x:v>24</x:v>
@@ -46876,7 +46876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1441" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="1442" spans="1:10">
@@ -46899,16 +46899,16 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="G1442" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H1442" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1442" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1442" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="1443" spans="1:10">
@@ -48368,10 +48368,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1488" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1488" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1488" s="1" t="n">
         <x:v>6</x:v>
@@ -48380,7 +48380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1488" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="1489" spans="1:10">
@@ -48400,10 +48400,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1489" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1489" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1489" s="1" t="n">
         <x:v>6</x:v>
@@ -48412,7 +48412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1489" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="1490" spans="1:10">
@@ -51722,7 +51722,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1593" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1593" s="1" t="n">
         <x:v>8</x:v>
@@ -51740,7 +51740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1593" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="1594" spans="1:10">
@@ -51763,7 +51763,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G1594" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H1594" s="1" t="n">
         <x:v>20</x:v>
@@ -51772,7 +51772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1594" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="1595" spans="1:10">
@@ -51786,7 +51786,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1595" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E1595" s="1" t="n">
         <x:v>28</x:v>
@@ -51795,7 +51795,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G1595" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H1595" s="1" t="n">
         <x:v>24</x:v>
@@ -51804,7 +51804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1595" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="1596" spans="1:10">
@@ -52109,7 +52109,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1605" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1605" s="1" t="n">
         <x:v>18</x:v>
@@ -52124,7 +52124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1605" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="1606" spans="1:10">
@@ -52141,7 +52141,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1606" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1606" s="1" t="n">
         <x:v>28</x:v>
@@ -52156,7 +52156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1606" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="1607" spans="1:10">
@@ -52598,13 +52598,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H1620" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I1620" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -52662,13 +52662,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="H1622" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I1622" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">
@@ -56560,7 +56560,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1744" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1744" s="1" t="n">
         <x:v>21</x:v>
@@ -56572,7 +56572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1744" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="1745" spans="1:10">
@@ -56624,7 +56624,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F1746" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G1746" s="1" t="n">
         <x:v>66</x:v>
@@ -56636,7 +56636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1746" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="1747" spans="1:10">
@@ -62061,7 +62061,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1916" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1916" s="1" t="n">
         <x:v>5</x:v>
@@ -62076,7 +62076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1916" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1917" spans="1:10">
@@ -62093,7 +62093,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1917" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1917" s="1" t="n">
         <x:v>8</x:v>
@@ -62108,7 +62108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1917" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="1918" spans="1:10">
@@ -63606,13 +63606,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H1964" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1964" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1964" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="1965" spans="1:10">
@@ -63670,13 +63670,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H1966" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1966" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1966" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="1967" spans="1:10">
@@ -63955,7 +63955,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="G1975" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H1975" s="1" t="n">
         <x:v>26</x:v>
@@ -63964,7 +63964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1975" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="1976" spans="1:10">
@@ -63987,7 +63987,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="G1976" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1976" s="1" t="n">
         <x:v>46</x:v>
@@ -63996,7 +63996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -15795,7 +15795,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G470" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H470" s="1" t="n">
         <x:v>2</x:v>
@@ -15804,7 +15804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J470" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:10">
@@ -15827,7 +15827,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G471" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H471" s="1" t="n">
         <x:v>3</x:v>
@@ -15836,7 +15836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J471" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:10">
@@ -16243,7 +16243,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="G484" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H484" s="1" t="n">
         <x:v>29</x:v>
@@ -16252,7 +16252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J484" s="0" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:10">
@@ -16307,7 +16307,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="G486" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H486" s="1" t="n">
         <x:v>76</x:v>
@@ -16316,7 +16316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -21750,13 +21750,13 @@
         <x:v>476</x:v>
       </x:c>
       <x:c r="H656" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I656" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>1517</x:v>
+        <x:v>1518</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -21782,13 +21782,13 @@
         <x:v>596</x:v>
       </x:c>
       <x:c r="H657" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I657" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>1954</x:v>
+        <x:v>1955</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -22032,7 +22032,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F665" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G665" s="1" t="n">
         <x:v>51</x:v>
@@ -22044,7 +22044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J665" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:10">
@@ -22064,7 +22064,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F666" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G666" s="1" t="n">
         <x:v>69</x:v>
@@ -22076,7 +22076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J666" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:10">
@@ -22125,7 +22125,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E668" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F668" s="1" t="n">
         <x:v>314</x:v>
@@ -22140,7 +22140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J668" s="0" t="n">
-        <x:v>855</x:v>
+        <x:v>856</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:10">
@@ -22157,7 +22157,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E669" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
         <x:v>424</x:v>
@@ -22172,7 +22172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>1154</x:v>
+        <x:v>1155</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22640,7 +22640,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
         <x:v>248</x:v>
@@ -22652,7 +22652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>931</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -22704,7 +22704,7 @@
         <x:v>481</x:v>
       </x:c>
       <x:c r="F686" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
         <x:v>582</x:v>
@@ -22716,7 +22716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J686" s="0" t="n">
-        <x:v>2183</x:v>
+        <x:v>2184</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:10">
@@ -23018,7 +23018,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D696" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E696" s="1" t="n">
         <x:v>16</x:v>
@@ -23036,7 +23036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J696" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:10">
@@ -23050,7 +23050,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D697" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E697" s="1" t="n">
         <x:v>16</x:v>
@@ -23068,7 +23068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J697" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:10">
@@ -25011,7 +25011,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G758" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H758" s="1" t="n">
         <x:v>4</x:v>
@@ -25020,7 +25020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J758" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:10">
@@ -25043,7 +25043,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G759" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H759" s="1" t="n">
         <x:v>4</x:v>
@@ -25052,7 +25052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J759" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="760" spans="1:10">
@@ -56758,13 +56758,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="H1750" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I1750" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1750" s="0" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="1751" spans="1:10">
@@ -56822,13 +56822,13 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="H1752" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I1752" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1752" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="1753" spans="1:10">
@@ -63155,7 +63155,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="G1950" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H1950" s="1" t="n">
         <x:v>28</x:v>
@@ -63164,7 +63164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1950" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="1951" spans="1:10">
@@ -63187,7 +63187,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G1951" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H1951" s="1" t="n">
         <x:v>35</x:v>
@@ -63196,7 +63196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1951" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="1952" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -5261,7 +5261,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E141" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F141" s="1" t="n">
         <x:v>1</x:v>
@@ -5276,7 +5276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:10">
@@ -5293,7 +5293,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E142" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F142" s="1" t="n">
         <x:v>2</x:v>
@@ -5308,7 +5308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:10">
@@ -5325,7 +5325,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E143" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F143" s="1" t="n">
         <x:v>3</x:v>
@@ -5340,7 +5340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:10">
@@ -9648,7 +9648,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F278" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G278" s="1" t="n">
         <x:v>30</x:v>
@@ -9660,7 +9660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J278" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:10">
@@ -9680,7 +9680,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F279" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G279" s="1" t="n">
         <x:v>44</x:v>
@@ -9692,7 +9692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J279" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:10">
@@ -11443,7 +11443,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G334" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H334" s="1" t="n">
         <x:v>7</x:v>
@@ -11452,7 +11452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J334" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:10">
@@ -11475,7 +11475,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G335" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H335" s="1" t="n">
         <x:v>8</x:v>
@@ -11484,7 +11484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J335" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:10">
@@ -15757,7 +15757,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E469" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F469" s="1" t="n">
         <x:v>2</x:v>
@@ -15772,7 +15772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J469" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="470" spans="1:10">
@@ -15821,7 +15821,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E471" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F471" s="1" t="n">
         <x:v>11</x:v>
@@ -15836,7 +15836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J471" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:10">
@@ -16048,7 +16048,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F478" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G478" s="1" t="n">
         <x:v>14</x:v>
@@ -16060,7 +16060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J478" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:10">
@@ -16080,7 +16080,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F479" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G479" s="1" t="n">
         <x:v>19</x:v>
@@ -16092,7 +16092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J479" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:10">
@@ -16234,7 +16234,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D484" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E484" s="1" t="n">
         <x:v>46</x:v>
@@ -16252,7 +16252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J484" s="0" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:10">
@@ -16275,7 +16275,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H485" s="1" t="n">
         <x:v>47</x:v>
@@ -16284,7 +16284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16298,7 +16298,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D486" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E486" s="1" t="n">
         <x:v>122</x:v>
@@ -16307,7 +16307,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="G486" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="H486" s="1" t="n">
         <x:v>76</x:v>
@@ -16316,7 +16316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>706</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -16589,7 +16589,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E495" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F495" s="1" t="n">
         <x:v>4</x:v>
@@ -16604,7 +16604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J495" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:10">
@@ -16621,7 +16621,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E496" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F496" s="1" t="n">
         <x:v>4</x:v>
@@ -16636,7 +16636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J496" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:10">
@@ -17936,7 +17936,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F537" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G537" s="1" t="n">
         <x:v>14</x:v>
@@ -17948,7 +17948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J537" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:10">
@@ -17968,7 +17968,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F538" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G538" s="1" t="n">
         <x:v>19</x:v>
@@ -17980,7 +17980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J538" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="539" spans="1:10">
@@ -22643,16 +22643,16 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H684" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I684" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>932</x:v>
+        <x:v>934</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -22678,13 +22678,13 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="H685" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I685" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J685" s="0" t="n">
-        <x:v>1252</x:v>
+        <x:v>1253</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:10">
@@ -22707,16 +22707,16 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="H686" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I686" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J686" s="0" t="n">
-        <x:v>2184</x:v>
+        <x:v>2187</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:10">
@@ -46867,7 +46867,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G1441" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H1441" s="1" t="n">
         <x:v>24</x:v>
@@ -46876,7 +46876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1441" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="1442" spans="1:10">
@@ -46899,7 +46899,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="G1442" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H1442" s="1" t="n">
         <x:v>32</x:v>
@@ -46908,7 +46908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1442" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="1443" spans="1:10">
@@ -49130,7 +49130,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1512" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1512" s="1" t="n">
         <x:v>1</x:v>
@@ -49148,7 +49148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1512" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1513" spans="1:10">
@@ -49162,7 +49162,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1513" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1513" s="1" t="n">
         <x:v>1</x:v>
@@ -49180,7 +49180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1513" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1514" spans="1:10">
@@ -49936,7 +49936,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1537" s="1" t="n">
         <x:v>4</x:v>
@@ -49948,7 +49948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
@@ -49968,7 +49968,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1538" s="1" t="n">
         <x:v>12</x:v>
@@ -49980,7 +49980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1538" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="1539" spans="1:10">
@@ -50000,7 +50000,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F1539" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1539" s="1" t="n">
         <x:v>16</x:v>
@@ -50012,7 +50012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1539" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="1540" spans="1:10">
@@ -50355,7 +50355,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
         <x:v>0</x:v>
@@ -50364,7 +50364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -50419,7 +50419,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1552" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1552" s="1" t="n">
         <x:v>0</x:v>
@@ -50428,7 +50428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1552" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1553" spans="1:10">
@@ -53747,7 +53747,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1656" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1656" s="1" t="n">
         <x:v>0</x:v>
@@ -53756,7 +53756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1656" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1657" spans="1:10">
@@ -53779,7 +53779,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1657" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1657" s="1" t="n">
         <x:v>0</x:v>
@@ -53788,7 +53788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1657" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1658" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -4368,7 +4368,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F113" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G113" s="1" t="n">
         <x:v>18</x:v>
@@ -4380,7 +4380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J113" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:10">
@@ -4400,7 +4400,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F114" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G114" s="1" t="n">
         <x:v>24</x:v>
@@ -4412,7 +4412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:10">
@@ -4688,7 +4688,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F123" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G123" s="1" t="n">
         <x:v>12</x:v>
@@ -4700,7 +4700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J123" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:10">
@@ -4726,13 +4726,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H124" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:10">
@@ -4752,19 +4752,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F125" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G125" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H125" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J125" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:10">
@@ -4819,7 +4819,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G127" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H127" s="1" t="n">
         <x:v>2</x:v>
@@ -4828,7 +4828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J127" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:10">
@@ -4851,7 +4851,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G128" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H128" s="1" t="n">
         <x:v>2</x:v>
@@ -4860,7 +4860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J128" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:10">
@@ -13107,7 +13107,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G386" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H386" s="1" t="n">
         <x:v>1</x:v>
@@ -13116,7 +13116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J386" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:10">
@@ -13139,7 +13139,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G387" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H387" s="1" t="n">
         <x:v>1</x:v>
@@ -13148,7 +13148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J387" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:10">
@@ -20883,7 +20883,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G629" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H629" s="1" t="n">
         <x:v>3</x:v>
@@ -20892,7 +20892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J629" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="630" spans="1:10">
@@ -20915,7 +20915,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G630" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H630" s="1" t="n">
         <x:v>15</x:v>
@@ -20924,7 +20924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J630" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="631" spans="1:10">
@@ -21741,10 +21741,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E656" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
         <x:v>476</x:v>
@@ -21756,7 +21756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>1521</x:v>
+        <x:v>1523</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -21773,10 +21773,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E657" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F657" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="G657" s="1" t="n">
         <x:v>597</x:v>
@@ -21788,7 +21788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>1957</x:v>
+        <x:v>1959</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -21837,7 +21837,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E659" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F659" s="1" t="n">
         <x:v>87</x:v>
@@ -21852,7 +21852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J659" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="660" spans="1:10">
@@ -21869,7 +21869,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E660" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F660" s="1" t="n">
         <x:v>103</x:v>
@@ -21884,7 +21884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J660" s="0" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:10">
@@ -22035,7 +22035,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G665" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H665" s="1" t="n">
         <x:v>14</x:v>
@@ -22044,7 +22044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J665" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:10">
@@ -22067,7 +22067,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G666" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H666" s="1" t="n">
         <x:v>16</x:v>
@@ -22076,7 +22076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J666" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:10">
@@ -22096,7 +22096,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F667" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G667" s="1" t="n">
         <x:v>101</x:v>
@@ -22108,7 +22108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J667" s="0" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:10">
@@ -22125,13 +22125,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E668" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F668" s="1" t="n">
         <x:v>314</x:v>
       </x:c>
       <x:c r="G668" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="H668" s="1" t="n">
         <x:v>98</x:v>
@@ -22140,7 +22140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J668" s="0" t="n">
-        <x:v>857</x:v>
+        <x:v>860</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:10">
@@ -22157,13 +22157,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E669" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="H669" s="1" t="n">
         <x:v>116</x:v>
@@ -22172,7 +22172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>1156</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22288,7 +22288,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F673" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G673" s="1" t="n">
         <x:v>45</x:v>
@@ -22300,7 +22300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J673" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:10">
@@ -22320,7 +22320,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F674" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G674" s="1" t="n">
         <x:v>78</x:v>
@@ -22332,7 +22332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J674" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:10">
@@ -23155,7 +23155,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="G700" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H700" s="1" t="n">
         <x:v>14</x:v>
@@ -23164,7 +23164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J700" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:10">
@@ -23187,7 +23187,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G701" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H701" s="1" t="n">
         <x:v>17</x:v>
@@ -23196,7 +23196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J701" s="0" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="702" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1875,7 +1875,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>25</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1907,7 +1907,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>35</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -15158,13 +15158,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H450" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I450" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J450" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="451" spans="1:10">
@@ -15190,13 +15190,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H451" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I451" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J451" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="452" spans="1:10">
@@ -16048,7 +16048,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F478" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G478" s="1" t="n">
         <x:v>16</x:v>
@@ -16060,7 +16060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J478" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:10">
@@ -16080,7 +16080,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F479" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G479" s="1" t="n">
         <x:v>21</x:v>
@@ -16092,7 +16092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J479" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:10">
@@ -16272,7 +16272,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F485" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
         <x:v>124</x:v>
@@ -16284,7 +16284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16304,7 +16304,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F486" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G486" s="1" t="n">
         <x:v>208</x:v>
@@ -16316,7 +16316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -16438,13 +16438,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H490" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I490" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J490" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="491" spans="1:10">
@@ -16470,13 +16470,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H491" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I491" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J491" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="492" spans="1:10">
@@ -16778,7 +16778,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D501" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E501" s="1" t="n">
         <x:v>10</x:v>
@@ -16796,7 +16796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J501" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:10">
@@ -16810,7 +16810,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D502" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E502" s="1" t="n">
         <x:v>10</x:v>
@@ -16828,7 +16828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J502" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:10">
@@ -20874,7 +20874,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D629" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E629" s="1" t="n">
         <x:v>6</x:v>
@@ -20892,7 +20892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J629" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="630" spans="1:10">
@@ -20906,7 +20906,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D630" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E630" s="1" t="n">
         <x:v>10</x:v>
@@ -20924,7 +20924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J630" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="631" spans="1:10">
@@ -21715,7 +21715,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H655" s="1" t="n">
         <x:v>43</x:v>
@@ -21724,7 +21724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -21744,19 +21744,19 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
         <x:v>476</x:v>
       </x:c>
       <x:c r="H656" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I656" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>1523</x:v>
+        <x:v>1526</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -21776,19 +21776,19 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="F657" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="G657" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="H657" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I657" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J657" s="0" t="n">
-        <x:v>1959</x:v>
+        <x:v>1963</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:10">
@@ -21808,7 +21808,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F658" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G658" s="1" t="n">
         <x:v>15</x:v>
@@ -21820,7 +21820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J658" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="659" spans="1:10">
@@ -21843,7 +21843,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G659" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H659" s="1" t="n">
         <x:v>25</x:v>
@@ -21852,7 +21852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J659" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="660" spans="1:10">
@@ -21872,10 +21872,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F660" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G660" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H660" s="1" t="n">
         <x:v>27</x:v>
@@ -21884,7 +21884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J660" s="0" t="n">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:10">
@@ -22093,7 +22093,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E667" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F667" s="1" t="n">
         <x:v>111</x:v>
@@ -22108,7 +22108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J667" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:10">
@@ -22128,19 +22128,19 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="F668" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="G668" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="H668" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I668" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J668" s="0" t="n">
-        <x:v>860</x:v>
+        <x:v>861</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:10">
@@ -22157,22 +22157,22 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E669" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="H669" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I669" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>1160</x:v>
+        <x:v>1162</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22256,7 +22256,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F672" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G672" s="1" t="n">
         <x:v>33</x:v>
@@ -22268,7 +22268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J672" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="673" spans="1:10">
@@ -22320,7 +22320,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F674" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G674" s="1" t="n">
         <x:v>78</x:v>
@@ -22332,7 +22332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J674" s="0" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:10">
@@ -22640,7 +22640,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="F684" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G684" s="1" t="n">
         <x:v>250</x:v>
@@ -22652,7 +22652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J684" s="0" t="n">
-        <x:v>938</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:10">
@@ -22672,19 +22672,19 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="F685" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="G685" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="H685" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I685" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J685" s="0" t="n">
-        <x:v>1258</x:v>
+        <x:v>1262</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:10">
@@ -22704,19 +22704,19 @@
         <x:v>484</x:v>
       </x:c>
       <x:c r="F686" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="G686" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="H686" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="I686" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J686" s="0" t="n">
-        <x:v>2196</x:v>
+        <x:v>2202</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:10">
@@ -23245,7 +23245,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E703" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F703" s="1" t="n">
         <x:v>109</x:v>
@@ -23260,7 +23260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J703" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="704" spans="1:10">
@@ -23277,7 +23277,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E704" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F704" s="1" t="n">
         <x:v>120</x:v>
@@ -23292,7 +23292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J704" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="705" spans="1:10">
@@ -27469,7 +27469,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E835" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F835" s="1" t="n">
         <x:v>16</x:v>
@@ -27484,7 +27484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J835" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="836" spans="1:10">
@@ -27501,7 +27501,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E836" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F836" s="1" t="n">
         <x:v>21</x:v>
@@ -27516,7 +27516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J836" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="837" spans="1:10">
@@ -33898,7 +33898,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
         <x:v>2</x:v>
@@ -33916,7 +33916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1036" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1037" spans="1:10">
@@ -33962,7 +33962,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1038" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1038" s="1" t="n">
         <x:v>3</x:v>
@@ -33980,7 +33980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1038" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1039" spans="1:10">
@@ -34067,7 +34067,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
         <x:v>1</x:v>
@@ -34076,7 +34076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1041" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1042" spans="1:10">
@@ -34131,7 +34131,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
         <x:v>2</x:v>
@@ -34140,7 +34140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1043" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="1044" spans="1:10">
@@ -35827,7 +35827,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1096" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H1096" s="1" t="n">
         <x:v>5</x:v>
@@ -35836,7 +35836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1096" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="1097" spans="1:10">
@@ -35859,7 +35859,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1097" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1097" s="1" t="n">
         <x:v>5</x:v>
@@ -35868,7 +35868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1097" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1098" spans="1:10">
@@ -40144,7 +40144,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1231" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1231" s="1" t="n">
         <x:v>0</x:v>
@@ -40156,7 +40156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1232" spans="1:10">
@@ -40176,7 +40176,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1232" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1232" s="1" t="n">
         <x:v>0</x:v>
@@ -40188,7 +40188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1232" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1233" spans="1:10">
@@ -42451,7 +42451,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1303" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1303" s="1" t="n">
         <x:v>1</x:v>
@@ -42460,7 +42460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1303" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1304" spans="1:10">
@@ -42483,7 +42483,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1304" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1304" s="1" t="n">
         <x:v>1</x:v>
@@ -42492,7 +42492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1304" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1305" spans="1:10">
@@ -47373,7 +47373,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E1457" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F1457" s="1" t="n">
         <x:v>109</x:v>
@@ -47388,7 +47388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1457" s="0" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="1458" spans="1:10">
@@ -47408,7 +47408,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F1458" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G1458" s="1" t="n">
         <x:v>145</x:v>
@@ -47420,7 +47420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1458" s="0" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
     <x:row r="1459" spans="1:10">
@@ -47437,10 +47437,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E1459" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F1459" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G1459" s="1" t="n">
         <x:v>255</x:v>
@@ -47452,7 +47452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1459" s="0" t="n">
-        <x:v>914</x:v>
+        <x:v>916</x:v>
       </x:c>
     </x:row>
     <x:row r="1460" spans="1:10">
@@ -50509,10 +50509,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1555" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
         <x:v>14</x:v>
@@ -50524,7 +50524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -50573,10 +50573,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1557" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1557" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1557" s="1" t="n">
         <x:v>26</x:v>
@@ -50588,7 +50588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1557" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="1558" spans="1:10">
@@ -53613,7 +53613,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1652" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1652" s="1" t="n">
         <x:v>12</x:v>
@@ -53628,7 +53628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1652" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="1653" spans="1:10">
@@ -53645,7 +53645,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1653" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1653" s="1" t="n">
         <x:v>17</x:v>
@@ -53660,7 +53660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1653" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1654" spans="1:10">
@@ -56234,7 +56234,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1734" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1734" s="1" t="n">
         <x:v>31</x:v>
@@ -56252,7 +56252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1734" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="1735" spans="1:10">
@@ -56298,7 +56298,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1736" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E1736" s="1" t="n">
         <x:v>73</x:v>
@@ -56316,7 +56316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1736" s="0" t="n">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="1737" spans="1:10">
@@ -57229,7 +57229,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1765" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1765" s="1" t="n">
         <x:v>5</x:v>
@@ -57244,7 +57244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1765" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1766" spans="1:10">
@@ -57261,7 +57261,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1766" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1766" s="1" t="n">
         <x:v>5</x:v>
@@ -57276,7 +57276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1766" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1767" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -15891,7 +15891,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G473" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H473" s="1" t="n">
         <x:v>11</x:v>
@@ -15900,7 +15900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J473" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="474" spans="1:10">
@@ -15923,7 +15923,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G474" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H474" s="1" t="n">
         <x:v>12</x:v>
@@ -15932,7 +15932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J474" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="475" spans="1:10">
@@ -16586,7 +16586,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D495" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E495" s="1" t="n">
         <x:v>6</x:v>
@@ -16604,7 +16604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J495" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:10">
@@ -16618,7 +16618,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D496" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E496" s="1" t="n">
         <x:v>6</x:v>
@@ -16636,7 +16636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J496" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:10">
@@ -17834,7 +17834,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D534" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E534" s="1" t="n">
         <x:v>1</x:v>
@@ -17852,7 +17852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J534" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="535" spans="1:10">
@@ -17866,7 +17866,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D535" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E535" s="1" t="n">
         <x:v>1</x:v>
@@ -17884,7 +17884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J535" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:10">
@@ -20467,7 +20467,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G616" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H616" s="1" t="n">
         <x:v>0</x:v>
@@ -20476,7 +20476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J616" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="617" spans="1:10">
@@ -20531,7 +20531,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G618" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H618" s="1" t="n">
         <x:v>0</x:v>
@@ -20540,7 +20540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J618" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:10">
@@ -21846,13 +21846,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H659" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I659" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J659" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="660" spans="1:10">
@@ -21878,13 +21878,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="H660" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I660" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J660" s="0" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:10">
@@ -23120,7 +23120,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F699" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G699" s="1" t="n">
         <x:v>15</x:v>
@@ -23132,7 +23132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J699" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:10">
@@ -23184,7 +23184,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F701" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G701" s="1" t="n">
         <x:v>62</x:v>
@@ -23196,7 +23196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J701" s="0" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="702" spans="1:10">
@@ -34067,7 +34067,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1041" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1041" s="1" t="n">
         <x:v>1</x:v>
@@ -34076,7 +34076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1041" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1042" spans="1:10">
@@ -34099,7 +34099,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1042" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1042" s="1" t="n">
         <x:v>1</x:v>
@@ -34108,7 +34108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1042" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1043" spans="1:10">
@@ -34131,7 +34131,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="n">
         <x:v>2</x:v>
@@ -34140,7 +34140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1043" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1044" spans="1:10">
@@ -36307,7 +36307,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1111" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1111" s="1" t="n">
         <x:v>0</x:v>
@@ -36316,7 +36316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1111" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1112" spans="1:10">
@@ -36371,7 +36371,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
         <x:v>2</x:v>
@@ -36380,7 +36380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1113" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1114" spans="1:10">
@@ -47760,10 +47760,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1469" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1469" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1469" s="1" t="n">
         <x:v>6</x:v>
@@ -47772,7 +47772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1469" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1470" spans="1:10">
@@ -47792,10 +47792,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1470" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1470" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1470" s="1" t="n">
         <x:v>6</x:v>
@@ -47804,7 +47804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1470" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="1471" spans="1:10">
@@ -50512,7 +50512,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
         <x:v>14</x:v>
@@ -50524,7 +50524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -50576,7 +50576,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1557" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G1557" s="1" t="n">
         <x:v>26</x:v>
@@ -50588,7 +50588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1557" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="1558" spans="1:10">
@@ -54861,22 +54861,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E1691" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1691" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G1691" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1691" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1691" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1691" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="1692" spans="1:10">
@@ -54890,16 +54890,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1692" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E1692" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F1692" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G1692" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H1692" s="1" t="n">
         <x:v>30</x:v>
@@ -54908,7 +54908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1692" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="1693" spans="1:10">
@@ -54922,25 +54922,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1693" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E1693" s="1" t="n">
         <x:v>51</x:v>
       </x:c>
       <x:c r="F1693" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G1693" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H1693" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I1693" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1693" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="1694" spans="1:10">
@@ -55155,7 +55155,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G1700" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1700" s="1" t="n">
         <x:v>6</x:v>
@@ -55164,7 +55164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1700" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="1701" spans="1:10">
@@ -55187,7 +55187,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G1701" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1701" s="1" t="n">
         <x:v>7</x:v>
@@ -55196,7 +55196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1701" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="1702" spans="1:10">
@@ -55242,7 +55242,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1703" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1703" s="1" t="n">
         <x:v>11</x:v>
@@ -55251,7 +55251,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G1703" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1703" s="1" t="n">
         <x:v>12</x:v>
@@ -55260,7 +55260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1703" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="1704" spans="1:10">
@@ -55274,7 +55274,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1704" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1704" s="1" t="n">
         <x:v>17</x:v>
@@ -55283,7 +55283,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1704" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H1704" s="1" t="n">
         <x:v>13</x:v>
@@ -55292,7 +55292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1704" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="1705" spans="1:10">
@@ -55338,7 +55338,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1706" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1706" s="1" t="n">
         <x:v>3</x:v>
@@ -55356,7 +55356,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1706" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1707" spans="1:10">
@@ -55370,7 +55370,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1707" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1707" s="1" t="n">
         <x:v>5</x:v>
@@ -55388,7 +55388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1707" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="1708" spans="1:10">
@@ -55411,7 +55411,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1708" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1708" s="1" t="n">
         <x:v>0</x:v>
@@ -55420,7 +55420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1708" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1709" spans="1:10">
@@ -55443,7 +55443,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1709" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1709" s="1" t="n">
         <x:v>0</x:v>
@@ -55452,7 +55452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1709" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1710" spans="1:10">
@@ -55533,22 +55533,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1712" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F1712" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G1712" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H1712" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I1712" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1712" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="1713" spans="1:10">
@@ -55562,25 +55562,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1713" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1713" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1713" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1713" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H1713" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I1713" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1713" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="1714" spans="1:10">
@@ -55594,25 +55594,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1714" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E1714" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F1714" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G1714" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H1714" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I1714" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1714" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="1715" spans="1:10">
@@ -55850,13 +55850,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1722" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1722" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1722" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1722" s="1" t="n">
         <x:v>5</x:v>
@@ -55868,7 +55868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1722" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1723" spans="1:10">
@@ -55882,13 +55882,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1723" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E1723" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1723" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1723" s="1" t="n">
         <x:v>5</x:v>
@@ -55900,7 +55900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1723" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1724" spans="1:10">
@@ -56048,7 +56048,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1728" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1728" s="1" t="n">
         <x:v>6</x:v>
@@ -56060,7 +56060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1728" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1729" spans="1:10">
@@ -56080,7 +56080,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1729" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1729" s="1" t="n">
         <x:v>7</x:v>
@@ -56092,7 +56092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1729" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1730" spans="1:10">
@@ -61619,7 +61619,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1902" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1902" s="1" t="n">
         <x:v>0</x:v>
@@ -61628,7 +61628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1902" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1903" spans="1:10">
@@ -61651,7 +61651,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1903" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1903" s="1" t="n">
         <x:v>0</x:v>
@@ -61660,7 +61660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1903" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1904" spans="1:10">
@@ -63699,7 +63699,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1967" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1967" s="1" t="n">
         <x:v>7</x:v>
@@ -63708,7 +63708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1967" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="1968" spans="1:10">
@@ -63734,13 +63734,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H1968" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1968" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1968" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1969" spans="1:10">
@@ -63763,16 +63763,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G1969" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1969" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1969" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1969" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="1970" spans="1:10">
@@ -64054,13 +64054,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="H1978" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I1978" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1978" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="1979" spans="1:10">
@@ -64086,13 +64086,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="H1979" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I1979" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -4947,7 +4947,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G131" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H131" s="1" t="n">
         <x:v>0</x:v>
@@ -4956,7 +4956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:10">
@@ -5011,7 +5011,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G133" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H133" s="1" t="n">
         <x:v>2</x:v>
@@ -5020,7 +5020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J133" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:10">
@@ -7030,13 +7030,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H196" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I196" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J196" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:10">
@@ -7094,13 +7094,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H198" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J198" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:10">
@@ -7664,7 +7664,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F216" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G216" s="1" t="n">
         <x:v>6</x:v>
@@ -7676,7 +7676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J216" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:10">
@@ -7728,7 +7728,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F218" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G218" s="1" t="n">
         <x:v>9</x:v>
@@ -7740,7 +7740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J218" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:10">
@@ -8336,10 +8336,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F237" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G237" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H237" s="1" t="n">
         <x:v>0</x:v>
@@ -8348,7 +8348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J237" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:10">
@@ -8368,10 +8368,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F238" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G238" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H238" s="1" t="n">
         <x:v>0</x:v>
@@ -8380,7 +8380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J238" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:10">
@@ -17418,7 +17418,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D521" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E521" s="1" t="n">
         <x:v>64</x:v>
@@ -17427,7 +17427,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G521" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H521" s="1" t="n">
         <x:v>33</x:v>
@@ -17436,7 +17436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J521" s="0" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:10">
@@ -17450,7 +17450,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D522" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E522" s="1" t="n">
         <x:v>88</x:v>
@@ -17468,7 +17468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J522" s="0" t="n">
-        <x:v>493</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="523" spans="1:10">
@@ -17482,7 +17482,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D523" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E523" s="1" t="n">
         <x:v>152</x:v>
@@ -17491,7 +17491,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="G523" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H523" s="1" t="n">
         <x:v>86</x:v>
@@ -17500,7 +17500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J523" s="0" t="n">
-        <x:v>848</x:v>
+        <x:v>852</x:v>
       </x:c>
     </x:row>
     <x:row r="524" spans="1:10">
@@ -23632,7 +23632,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F715" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G715" s="1" t="n">
         <x:v>13</x:v>
@@ -23644,7 +23644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J715" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="716" spans="1:10">
@@ -23667,7 +23667,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G716" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H716" s="1" t="n">
         <x:v>5</x:v>
@@ -23676,7 +23676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J716" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="717" spans="1:10">
@@ -23696,10 +23696,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F717" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G717" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H717" s="1" t="n">
         <x:v>6</x:v>
@@ -23708,7 +23708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J717" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="718" spans="1:10">
@@ -24464,19 +24464,19 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="F741" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="G741" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="H741" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I741" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J741" s="0" t="n">
-        <x:v>1508</x:v>
+        <x:v>1511</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:10">
@@ -24496,19 +24496,19 @@
         <x:v>573</x:v>
       </x:c>
       <x:c r="F742" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="G742" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="H742" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="I742" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J742" s="0" t="n">
-        <x:v>2645</x:v>
+        <x:v>2648</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:10">
@@ -24938,7 +24938,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D756" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E756" s="1" t="n">
         <x:v>35</x:v>
@@ -24956,7 +24956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J756" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="757" spans="1:10">
@@ -24970,7 +24970,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D757" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E757" s="1" t="n">
         <x:v>46</x:v>
@@ -24988,7 +24988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J757" s="0" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="758" spans="1:10">
@@ -37738,7 +37738,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1156" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1156" s="1" t="n">
         <x:v>2</x:v>
@@ -37756,7 +37756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1156" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="1157" spans="1:10">
@@ -37802,7 +37802,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1158" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E1158" s="1" t="n">
         <x:v>17</x:v>
@@ -37820,7 +37820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1158" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="1159" spans="1:10">
@@ -67792,7 +67792,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2095" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2095" s="1" t="n">
         <x:v>21</x:v>
@@ -67804,7 +67804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2095" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2096" spans="1:10">
@@ -67856,7 +67856,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F2097" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G2097" s="1" t="n">
         <x:v>87</x:v>
@@ -67868,7 +67868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2097" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="2098" spans="1:10">
@@ -67987,7 +67987,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G2101" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2101" s="1" t="n">
         <x:v>0</x:v>
@@ -67996,7 +67996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68016,7 +68016,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F2102" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="n">
         <x:v>9</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68048,10 +68048,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2103" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2103" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H2103" s="1" t="n">
         <x:v>4</x:v>
@@ -68060,7 +68060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2103" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="2104" spans="1:10">
@@ -68106,7 +68106,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2105" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2105" s="1" t="n">
         <x:v>5</x:v>
@@ -68124,7 +68124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2105" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2106" spans="1:10">
@@ -68138,7 +68138,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2106" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2106" s="1" t="n">
         <x:v>6</x:v>
@@ -68156,7 +68156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2106" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -68205,7 +68205,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2108" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2108" s="1" t="n">
         <x:v>38</x:v>
@@ -68220,7 +68220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2108" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="2109" spans="1:10">
@@ -68237,7 +68237,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2109" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2109" s="1" t="n">
         <x:v>53</x:v>
@@ -68252,7 +68252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2109" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="2110" spans="1:10">
@@ -68464,7 +68464,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2116" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2116" s="1" t="n">
         <x:v>1</x:v>
@@ -68476,7 +68476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2116" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2117" spans="1:10">
@@ -68496,7 +68496,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2117" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2117" s="1" t="n">
         <x:v>2</x:v>
@@ -68508,7 +68508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2117" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2118" spans="1:10">
@@ -68618,7 +68618,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2121" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E2121" s="1" t="n">
         <x:v>33</x:v>
@@ -68636,7 +68636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2121" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="2122" spans="1:10">
@@ -68650,7 +68650,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2122" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E2122" s="1" t="n">
         <x:v>54</x:v>
@@ -68668,7 +68668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2122" s="0" t="n">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="2123" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2925,7 +2925,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E68" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F68" s="1" t="n">
         <x:v>0</x:v>
@@ -2940,7 +2940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
@@ -2989,22 +2989,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E70" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F70" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G70" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H70" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="F70" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G70" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H70" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J70" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
@@ -7693,7 +7693,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E217" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F217" s="1" t="n">
         <x:v>2</x:v>
@@ -7708,7 +7708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J217" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:10">
@@ -7725,7 +7725,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E218" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F218" s="1" t="n">
         <x:v>7</x:v>
@@ -7740,7 +7740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J218" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:10">
@@ -16851,7 +16851,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G503" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H503" s="1" t="n">
         <x:v>0</x:v>
@@ -16860,7 +16860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J503" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="504" spans="1:10">
@@ -16883,7 +16883,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G504" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H504" s="1" t="n">
         <x:v>2</x:v>
@@ -16892,7 +16892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J504" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="505" spans="1:10">
@@ -17421,7 +17421,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E521" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F521" s="1" t="n">
         <x:v>123</x:v>
@@ -17436,7 +17436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J521" s="0" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:10">
@@ -17453,7 +17453,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E522" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F522" s="1" t="n">
         <x:v>169</x:v>
@@ -17468,7 +17468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J522" s="0" t="n">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
     </x:row>
     <x:row r="523" spans="1:10">
@@ -17485,7 +17485,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E523" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F523" s="1" t="n">
         <x:v>292</x:v>
@@ -17500,7 +17500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J523" s="0" t="n">
-        <x:v>852</x:v>
+        <x:v>854</x:v>
       </x:c>
     </x:row>
     <x:row r="524" spans="1:10">
@@ -18000,7 +18000,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F539" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G539" s="1" t="n">
         <x:v>15</x:v>
@@ -18012,7 +18012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J539" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:10">
@@ -18032,7 +18032,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F540" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G540" s="1" t="n">
         <x:v>16</x:v>
@@ -18044,7 +18044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J540" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="541" spans="1:10">
@@ -24429,7 +24429,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E740" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F740" s="1" t="n">
         <x:v>361</x:v>
@@ -24444,7 +24444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J740" s="0" t="n">
-        <x:v>1137</x:v>
+        <x:v>1139</x:v>
       </x:c>
     </x:row>
     <x:row r="741" spans="1:10">
@@ -24464,7 +24464,7 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="F741" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G741" s="1" t="n">
         <x:v>411</x:v>
@@ -24476,7 +24476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J741" s="0" t="n">
-        <x:v>1511</x:v>
+        <x:v>1513</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:10">
@@ -24493,10 +24493,10 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="E742" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="F742" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="G742" s="1" t="n">
         <x:v>717</x:v>
@@ -24508,7 +24508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J742" s="0" t="n">
-        <x:v>2648</x:v>
+        <x:v>2652</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2730,7 +2730,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>63</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
@@ -2762,7 +2762,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>135</x:v>
@@ -2780,7 +2780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
@@ -4589,7 +4589,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E120" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F120" s="1" t="n">
         <x:v>24</x:v>
@@ -4604,7 +4604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J120" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:10">
@@ -4621,7 +4621,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E121" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F121" s="1" t="n">
         <x:v>33</x:v>
@@ -4636,7 +4636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J121" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:10">
@@ -5046,13 +5046,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H134" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I134" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J134" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:10">
@@ -5078,13 +5078,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H135" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J135" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:10">
@@ -15952,7 +15952,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F475" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G475" s="1" t="n">
         <x:v>45</x:v>
@@ -15964,7 +15964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J475" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="476" spans="1:10">
@@ -15984,7 +15984,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F476" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G476" s="1" t="n">
         <x:v>55</x:v>
@@ -15996,7 +15996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J476" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="477" spans="1:10">
@@ -17229,7 +17229,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E515" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F515" s="1" t="n">
         <x:v>144</x:v>
@@ -17244,7 +17244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J515" s="0" t="n">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="516" spans="1:10">
@@ -17261,7 +17261,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E516" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F516" s="1" t="n">
         <x:v>193</x:v>
@@ -17276,7 +17276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J516" s="0" t="n">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:10">
@@ -17776,7 +17776,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F532" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G532" s="1" t="n">
         <x:v>6</x:v>
@@ -17788,7 +17788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J532" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="533" spans="1:10">
@@ -17840,7 +17840,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F534" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G534" s="1" t="n">
         <x:v>28</x:v>
@@ -17852,7 +17852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J534" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="535" spans="1:10">
@@ -21427,7 +21427,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G646" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H646" s="1" t="n">
         <x:v>14</x:v>
@@ -21436,7 +21436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J646" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:10">
@@ -21459,7 +21459,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G647" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H647" s="1" t="n">
         <x:v>20</x:v>
@@ -21468,7 +21468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J647" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="648" spans="1:10">
@@ -22096,7 +22096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F667" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G667" s="1" t="n">
         <x:v>0</x:v>
@@ -22108,7 +22108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J667" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:10">
@@ -22128,7 +22128,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F668" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G668" s="1" t="n">
         <x:v>0</x:v>
@@ -22140,7 +22140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J668" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:10">
@@ -24301,7 +24301,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E736" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F736" s="1" t="n">
         <x:v>705</x:v>
@@ -24310,13 +24310,13 @@
         <x:v>645</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="I736" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J736" s="0" t="n">
-        <x:v>2084</x:v>
+        <x:v>2086</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:10">
@@ -24333,7 +24333,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E737" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="F737" s="1" t="n">
         <x:v>905</x:v>
@@ -24342,13 +24342,13 @@
         <x:v>816</x:v>
       </x:c>
       <x:c r="H737" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="I737" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J737" s="0" t="n">
-        <x:v>2699</x:v>
+        <x:v>2701</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:10">
@@ -24368,7 +24368,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F738" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G738" s="1" t="n">
         <x:v>21</x:v>
@@ -24380,7 +24380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J738" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="739" spans="1:10">
@@ -24432,7 +24432,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F740" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G740" s="1" t="n">
         <x:v>98</x:v>
@@ -24444,7 +24444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J740" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="741" spans="1:10">
@@ -24691,7 +24691,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H748" s="1" t="n">
         <x:v>135</x:v>
@@ -24700,7 +24700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J748" s="0" t="n">
-        <x:v>1140</x:v>
+        <x:v>1139</x:v>
       </x:c>
     </x:row>
     <x:row r="749" spans="1:10">
@@ -24723,7 +24723,7 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="G749" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="H749" s="1" t="n">
         <x:v>161</x:v>
@@ -24732,7 +24732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J749" s="0" t="n">
-        <x:v>1530</x:v>
+        <x:v>1529</x:v>
       </x:c>
     </x:row>
     <x:row r="750" spans="1:10">
@@ -25296,10 +25296,10 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="F767" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="G767" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="H767" s="1" t="n">
         <x:v>106</x:v>
@@ -25308,7 +25308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J767" s="0" t="n">
-        <x:v>1305</x:v>
+        <x:v>1309</x:v>
       </x:c>
     </x:row>
     <x:row r="768" spans="1:10">
@@ -25325,22 +25325,22 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
-        <x:v>565</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="G768" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="H768" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I768" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J768" s="0" t="n">
-        <x:v>1700</x:v>
+        <x:v>1709</x:v>
       </x:c>
     </x:row>
     <x:row r="769" spans="1:10">
@@ -25357,22 +25357,22 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="E769" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J769" s="0" t="n">
-        <x:v>3005</x:v>
+        <x:v>3018</x:v>
       </x:c>
     </x:row>
     <x:row r="770" spans="1:10">
@@ -25517,7 +25517,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E774" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F774" s="1" t="n">
         <x:v>1</x:v>
@@ -25532,7 +25532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J774" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="775" spans="1:10">
@@ -25549,7 +25549,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E775" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F775" s="1" t="n">
         <x:v>1</x:v>
@@ -25564,7 +25564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J775" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="776" spans="1:10">
@@ -25904,7 +25904,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="F786" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G786" s="1" t="n">
         <x:v>102</x:v>
@@ -25916,7 +25916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J786" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="787" spans="1:10">
@@ -25936,7 +25936,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="F787" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G787" s="1" t="n">
         <x:v>109</x:v>
@@ -25948,7 +25948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J787" s="0" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:10">
@@ -27085,7 +27085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E823" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F823" s="1" t="n">
         <x:v>4</x:v>
@@ -27100,7 +27100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J823" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="824" spans="1:10">
@@ -27117,7 +27117,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E824" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F824" s="1" t="n">
         <x:v>9</x:v>
@@ -27132,7 +27132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J824" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="825" spans="1:10">
@@ -33622,13 +33622,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1027" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1028" spans="1:10">
@@ -33654,13 +33654,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1028" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1029" spans="1:10">
@@ -37840,19 +37840,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1159" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G1159" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1159" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1159" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1159" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1160" spans="1:10">
@@ -37872,19 +37872,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1160" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1160" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1160" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1160" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1160" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1161" spans="1:10">
@@ -41130,7 +41130,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1262" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1262" s="1" t="n">
         <x:v>3</x:v>
@@ -41148,7 +41148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1262" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="1263" spans="1:10">
@@ -41194,7 +41194,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1264" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="n">
         <x:v>4</x:v>
@@ -41212,7 +41212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1264" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="1265" spans="1:10">
@@ -56016,7 +56016,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F1727" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1727" s="1" t="n">
         <x:v>14</x:v>
@@ -56028,7 +56028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1727" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="1728" spans="1:10">
@@ -56048,7 +56048,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1728" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G1728" s="1" t="n">
         <x:v>20</x:v>
@@ -56060,7 +56060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1728" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="1729" spans="1:10">
@@ -63507,7 +63507,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G1961" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1961" s="1" t="n">
         <x:v>2</x:v>
@@ -63516,7 +63516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1961" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="1962" spans="1:10">
@@ -63539,7 +63539,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G1962" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H1962" s="1" t="n">
         <x:v>3</x:v>
@@ -63548,7 +63548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1962" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="1963" spans="1:10">
@@ -70992,7 +70992,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2195" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2195" s="1" t="n">
         <x:v>28</x:v>
@@ -71004,7 +71004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2195" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2196" spans="1:10">
@@ -71056,7 +71056,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F2197" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G2197" s="1" t="n">
         <x:v>73</x:v>
@@ -71068,7 +71068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2197" s="0" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="2198" spans="1:10">
@@ -71405,10 +71405,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E2208" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F2208" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G2208" s="1" t="n">
         <x:v>63</x:v>
@@ -71420,7 +71420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2208" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="2209" spans="1:10">
@@ -71440,7 +71440,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F2209" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G2209" s="1" t="n">
         <x:v>62</x:v>
@@ -71452,7 +71452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2209" s="0" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="2210" spans="1:10">
@@ -71469,10 +71469,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E2210" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F2210" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G2210" s="1" t="n">
         <x:v>125</x:v>
@@ -71484,7 +71484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2210" s="0" t="n">
-        <x:v>440</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="2211" spans="1:10">
@@ -71853,7 +71853,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E2222" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2222" s="1" t="n">
         <x:v>8</x:v>
@@ -71868,7 +71868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2222" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2223" spans="1:10">
@@ -71885,7 +71885,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E2223" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2223" s="1" t="n">
         <x:v>9</x:v>
@@ -71900,7 +71900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2223" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="2224" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1811,7 +1811,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
         <x:v>38</x:v>
@@ -1820,7 +1820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
-        <x:v>380</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
@@ -1843,7 +1843,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
         <x:v>52</x:v>
@@ -1852,7 +1852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
-        <x:v>554</x:v>
+        <x:v>551</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
@@ -15283,7 +15283,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G454" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H454" s="1" t="n">
         <x:v>2</x:v>
@@ -15292,7 +15292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J454" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="455" spans="1:10">
@@ -15315,7 +15315,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G455" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H455" s="1" t="n">
         <x:v>2</x:v>
@@ -15324,7 +15324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J455" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="456" spans="1:10">
@@ -17200,7 +17200,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F514" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G514" s="1" t="n">
         <x:v>50</x:v>
@@ -17212,7 +17212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J514" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="515" spans="1:10">
@@ -17264,7 +17264,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F516" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G516" s="1" t="n">
         <x:v>199</x:v>
@@ -17276,7 +17276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J516" s="0" t="n">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:10">
@@ -18032,7 +18032,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F540" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G540" s="1" t="n">
         <x:v>116</x:v>
@@ -18044,7 +18044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J540" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="541" spans="1:10">
@@ -18058,7 +18058,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D541" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E541" s="1" t="n">
         <x:v>102</x:v>
@@ -18076,7 +18076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J541" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:10">
@@ -18090,13 +18090,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D542" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E542" s="1" t="n">
         <x:v>177</x:v>
       </x:c>
       <x:c r="F542" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="G542" s="1" t="n">
         <x:v>277</x:v>
@@ -18108,7 +18108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J542" s="0" t="n">
-        <x:v>967</x:v>
+        <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:10">
@@ -21939,7 +21939,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G662" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H662" s="1" t="n">
         <x:v>4</x:v>
@@ -21948,7 +21948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J662" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="663" spans="1:10">
@@ -21962,7 +21962,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D663" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E663" s="1" t="n">
         <x:v>1</x:v>
@@ -21980,7 +21980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J663" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="664" spans="1:10">
@@ -21994,7 +21994,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D664" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E664" s="1" t="n">
         <x:v>2</x:v>
@@ -22003,7 +22003,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G664" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H664" s="1" t="n">
         <x:v>8</x:v>
@@ -22012,7 +22012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J664" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:10">
@@ -24269,10 +24269,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E735" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F735" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G735" s="1" t="n">
         <x:v>171</x:v>
@@ -24284,7 +24284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J735" s="0" t="n">
-        <x:v>615</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="736" spans="1:10">
@@ -24301,22 +24301,22 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E736" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="F736" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="G736" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="I736" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J736" s="0" t="n">
-        <x:v>2091</x:v>
+        <x:v>2095</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:10">
@@ -24333,22 +24333,22 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E737" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="F737" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="G737" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="H737" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I737" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J737" s="0" t="n">
-        <x:v>2706</x:v>
+        <x:v>2712</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:10">
@@ -24502,13 +24502,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H742" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I742" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J742" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:10">
@@ -24534,13 +24534,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H743" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I743" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J743" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="744" spans="1:10">
@@ -24592,7 +24592,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F745" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G745" s="1" t="n">
         <x:v>72</x:v>
@@ -24604,7 +24604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J745" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="746" spans="1:10">
@@ -24624,7 +24624,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F746" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
         <x:v>97</x:v>
@@ -24636,7 +24636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J746" s="0" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="747" spans="1:10">
@@ -24653,13 +24653,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E747" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F747" s="1" t="n">
         <x:v>149</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
         <x:v>26</x:v>
@@ -24668,7 +24668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J747" s="0" t="n">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="748" spans="1:10">
@@ -24688,10 +24688,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="F748" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="H748" s="1" t="n">
         <x:v>136</x:v>
@@ -24717,13 +24717,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E749" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F749" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="G749" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="H749" s="1" t="n">
         <x:v>162</x:v>
@@ -24732,7 +24732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J749" s="0" t="n">
-        <x:v>1537</x:v>
+        <x:v>1539</x:v>
       </x:c>
     </x:row>
     <x:row r="750" spans="1:10">
@@ -25290,25 +25290,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D767" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E767" s="1" t="n">
         <x:v>306</x:v>
       </x:c>
       <x:c r="F767" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="G767" s="1" t="n">
         <x:v>349</x:v>
       </x:c>
       <x:c r="H767" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I767" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J767" s="0" t="n">
-        <x:v>1315</x:v>
+        <x:v>1323</x:v>
       </x:c>
     </x:row>
     <x:row r="768" spans="1:10">
@@ -25322,25 +25322,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D768" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="G768" s="1" t="n">
         <x:v>464</x:v>
       </x:c>
       <x:c r="H768" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I768" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J768" s="0" t="n">
-        <x:v>1717</x:v>
+        <x:v>1724</x:v>
       </x:c>
     </x:row>
     <x:row r="769" spans="1:10">
@@ -25354,25 +25354,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D769" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E769" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
         <x:v>813</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J769" s="0" t="n">
-        <x:v>3032</x:v>
+        <x:v>3047</x:v>
       </x:c>
     </x:row>
     <x:row r="770" spans="1:10">
@@ -25718,13 +25718,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="H780" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I780" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J780" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="781" spans="1:10">
@@ -25750,13 +25750,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="H781" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I781" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J781" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="782" spans="1:10">
@@ -25907,7 +25907,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="G786" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H786" s="1" t="n">
         <x:v>20</x:v>
@@ -25916,7 +25916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J786" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="787" spans="1:10">
@@ -25939,7 +25939,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="G787" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H787" s="1" t="n">
         <x:v>25</x:v>
@@ -25948,7 +25948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J787" s="0" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:10">
@@ -26835,16 +26835,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G815" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H815" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I815" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J815" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="816" spans="1:10">
@@ -26867,16 +26867,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G816" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H816" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I816" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J816" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="817" spans="1:10">
@@ -27318,13 +27318,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H830" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I830" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J830" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="831" spans="1:10">
@@ -27382,13 +27382,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H832" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I832" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J832" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="833" spans="1:10">
@@ -41197,7 +41197,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="n">
         <x:v>4</x:v>
@@ -41212,7 +41212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1264" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1265" spans="1:10">
@@ -41261,7 +41261,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1266" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1266" s="1" t="n">
         <x:v>10</x:v>
@@ -41276,7 +41276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1266" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="1267" spans="1:10">
@@ -52214,13 +52214,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="H1608" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I1608" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1608" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="1609" spans="1:10">
@@ -52278,13 +52278,13 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="H1610" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I1610" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1610" s="0" t="n">
-        <x:v>1261</x:v>
+        <x:v>1262</x:v>
       </x:c>
     </x:row>
     <x:row r="1611" spans="1:10">
@@ -53648,7 +53648,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F1653" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G1653" s="1" t="n">
         <x:v>67</x:v>
@@ -53660,7 +53660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1653" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="1654" spans="1:10">
@@ -53680,7 +53680,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F1654" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G1654" s="1" t="n">
         <x:v>77</x:v>
@@ -53692,7 +53692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1654" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="1655" spans="1:10">
@@ -58640,7 +58640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1809" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1809" s="1" t="n">
         <x:v>2</x:v>
@@ -58652,7 +58652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1809" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1810" spans="1:10">
@@ -58672,7 +58672,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1810" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1810" s="1" t="n">
         <x:v>2</x:v>
@@ -58684,7 +58684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1810" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1811" spans="1:10">
@@ -58806,13 +58806,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1814" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1814" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1814" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1815" spans="1:10">
@@ -58838,13 +58838,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1815" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I1815" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1815" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1816" spans="1:10">
@@ -59053,7 +59053,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1822" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1822" s="1" t="n">
         <x:v>18</x:v>
@@ -59068,7 +59068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1822" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="1823" spans="1:10">
@@ -59085,7 +59085,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1823" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1823" s="1" t="n">
         <x:v>35</x:v>
@@ -59100,7 +59100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1823" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="1824" spans="1:10">
@@ -59117,7 +59117,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1824" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1824" s="1" t="n">
         <x:v>53</x:v>
@@ -59132,7 +59132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1824" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="1825" spans="1:10">
@@ -61619,7 +61619,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="G1902" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H1902" s="1" t="n">
         <x:v>49</x:v>
@@ -61628,7 +61628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1902" s="0" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="1903" spans="1:10">
@@ -61651,7 +61651,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="G1903" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H1903" s="1" t="n">
         <x:v>58</x:v>
@@ -61660,7 +61660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1903" s="0" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
     </x:row>
     <x:row r="1904" spans="1:10">
@@ -63018,7 +63018,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1946" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1946" s="1" t="n">
         <x:v>0</x:v>
@@ -63036,7 +63036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1946" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1947" spans="1:10">
@@ -63050,7 +63050,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1947" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1947" s="1" t="n">
         <x:v>0</x:v>
@@ -63068,7 +63068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1947" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1948" spans="1:10">
@@ -69680,7 +69680,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2154" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2154" s="1" t="n">
         <x:v>1</x:v>
@@ -69692,7 +69692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2155" spans="1:10">
@@ -69712,7 +69712,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2155" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2155" s="1" t="n">
         <x:v>1</x:v>
@@ -69724,7 +69724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2156" spans="1:10">
@@ -70701,7 +70701,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E2186" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2186" s="1" t="n">
         <x:v>21</x:v>
@@ -70716,7 +70716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2186" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2187" spans="1:10">
@@ -70765,7 +70765,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2188" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F2188" s="1" t="n">
         <x:v>86</x:v>
@@ -70780,7 +70780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2188" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="2189" spans="1:10">
@@ -71542,13 +71542,13 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="H2212" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I2212" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2212" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="2213" spans="1:10">
@@ -71574,13 +71574,13 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="H2213" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I2213" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2213" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="2214" spans="1:10">
@@ -71853,7 +71853,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2222" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2222" s="1" t="n">
         <x:v>6</x:v>
@@ -71868,7 +71868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2222" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2223" spans="1:10">
@@ -71885,7 +71885,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2223" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2223" s="1" t="n">
         <x:v>6</x:v>
@@ -71900,7 +71900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2223" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2224" spans="1:10">
@@ -71955,7 +71955,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2225" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2225" s="1" t="n">
         <x:v>2</x:v>
@@ -71964,7 +71964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2225" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2226" spans="1:10">
@@ -71987,7 +71987,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G2226" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2226" s="1" t="n">
         <x:v>3</x:v>
@@ -71996,7 +71996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2226" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="2227" spans="1:10">
@@ -72051,7 +72051,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2228" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2228" s="1" t="n">
         <x:v>4</x:v>
@@ -72060,7 +72060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2228" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2229" spans="1:10">
@@ -72083,7 +72083,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2229" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2229" s="1" t="n">
         <x:v>4</x:v>
@@ -72092,7 +72092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2229" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2230" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1770,7 +1770,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>28</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>14</x:v>
@@ -1788,7 +1788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10">
@@ -1814,13 +1814,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
@@ -1834,7 +1834,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>80</x:v>
@@ -1843,16 +1843,16 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
@@ -6227,7 +6227,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G171" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H171" s="1" t="n">
         <x:v>4</x:v>
@@ -6236,7 +6236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J171" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:10">
@@ -6291,7 +6291,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G173" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H173" s="1" t="n">
         <x:v>24</x:v>
@@ -6300,7 +6300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J173" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:10">
@@ -17398,13 +17398,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H520" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I520" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J520" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="521" spans="1:10">
@@ -17430,13 +17430,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H521" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I521" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J521" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:10">
@@ -18003,7 +18003,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="G539" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H539" s="1" t="n">
         <x:v>39</x:v>
@@ -18012,7 +18012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J539" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:10">
@@ -18067,7 +18067,7 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="G541" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="H541" s="1" t="n">
         <x:v>95</x:v>
@@ -18076,7 +18076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J541" s="0" t="n">
-        <x:v>976</x:v>
+        <x:v>977</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:10">
@@ -22294,13 +22294,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H673" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I673" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J673" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:10">
@@ -22326,13 +22326,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H674" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I674" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J674" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:10">
@@ -24298,7 +24298,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D736" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E736" s="1" t="n">
         <x:v>129</x:v>
@@ -24307,7 +24307,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="G736" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
         <x:v>52</x:v>
@@ -24316,7 +24316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J736" s="0" t="n">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:10">
@@ -24339,7 +24339,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="G737" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="H737" s="1" t="n">
         <x:v>257</x:v>
@@ -24348,7 +24348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J737" s="0" t="n">
-        <x:v>2099</x:v>
+        <x:v>2100</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:10">
@@ -24362,7 +24362,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D738" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E738" s="1" t="n">
         <x:v>492</x:v>
@@ -24371,7 +24371,7 @@
         <x:v>908</x:v>
       </x:c>
       <x:c r="G738" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="H738" s="1" t="n">
         <x:v>309</x:v>
@@ -24380,7 +24380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J738" s="0" t="n">
-        <x:v>2717</x:v>
+        <x:v>2720</x:v>
       </x:c>
     </x:row>
     <x:row r="739" spans="1:10">
@@ -24624,7 +24624,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F746" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
         <x:v>72</x:v>
@@ -24636,7 +24636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J746" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="747" spans="1:10">
@@ -24656,7 +24656,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F747" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
         <x:v>97</x:v>
@@ -24668,7 +24668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J747" s="0" t="n">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="748" spans="1:10">
@@ -25069,7 +25069,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E760" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F760" s="1" t="n">
         <x:v>12</x:v>
@@ -25084,7 +25084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J760" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="761" spans="1:10">
@@ -25101,7 +25101,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E761" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F761" s="1" t="n">
         <x:v>16</x:v>
@@ -25116,7 +25116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J761" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="762" spans="1:10">
@@ -25325,10 +25325,10 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="G768" s="1" t="n">
         <x:v>352</x:v>
@@ -25340,7 +25340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J768" s="0" t="n">
-        <x:v>1332</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
     <x:row r="769" spans="1:10">
@@ -25354,25 +25354,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D769" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E769" s="1" t="n">
         <x:v>340</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J769" s="0" t="n">
-        <x:v>1747</x:v>
+        <x:v>1755</x:v>
       </x:c>
     </x:row>
     <x:row r="770" spans="1:10">
@@ -25386,25 +25386,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D770" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E770" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="F770" s="1" t="n">
-        <x:v>1007</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="G770" s="1" t="n">
-        <x:v>826</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I770" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J770" s="0" t="n">
-        <x:v>3079</x:v>
+        <x:v>3089</x:v>
       </x:c>
     </x:row>
     <x:row r="771" spans="1:10">
@@ -25747,7 +25747,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="G781" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H781" s="1" t="n">
         <x:v>23</x:v>
@@ -25756,7 +25756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J781" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="782" spans="1:10">
@@ -25779,7 +25779,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G782" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H782" s="1" t="n">
         <x:v>23</x:v>
@@ -25788,7 +25788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J782" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="783" spans="1:10">
@@ -25933,7 +25933,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E787" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F787" s="1" t="n">
         <x:v>153</x:v>
@@ -25942,13 +25942,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="H787" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I787" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J787" s="0" t="n">
-        <x:v>523</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:10">
@@ -25965,7 +25965,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E788" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F788" s="1" t="n">
         <x:v>170</x:v>
@@ -25974,13 +25974,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="H788" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I788" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J788" s="0" t="n">
-        <x:v>578</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
     <x:row r="789" spans="1:10">
@@ -27754,7 +27754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D844" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E844" s="1" t="n">
         <x:v>3</x:v>
@@ -27772,7 +27772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27786,7 +27786,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D845" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E845" s="1" t="n">
         <x:v>4</x:v>
@@ -27804,7 +27804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J845" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="846" spans="1:10">
@@ -30832,10 +30832,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F940" s="1" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G940" s="1" t="n">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G940" s="1" t="n">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="H940" s="1" t="n">
         <x:v>7</x:v>
@@ -30844,7 +30844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J940" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="941" spans="1:10">
@@ -30864,10 +30864,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F941" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G941" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H941" s="1" t="n">
         <x:v>7</x:v>
@@ -30876,7 +30876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J941" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="942" spans="1:10">
@@ -37584,7 +37584,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1151" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1151" s="1" t="n">
         <x:v>11</x:v>
@@ -37596,7 +37596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1151" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1152" spans="1:10">
@@ -37648,7 +37648,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1153" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1153" s="1" t="n">
         <x:v>31</x:v>
@@ -37660,7 +37660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1153" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="1154" spans="1:10">
@@ -53107,7 +53107,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H1636" s="1" t="n">
         <x:v>55</x:v>
@@ -53116,7 +53116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>568</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -53171,7 +53171,7 @@
         <x:v>396</x:v>
       </x:c>
       <x:c r="G1638" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="H1638" s="1" t="n">
         <x:v>159</x:v>
@@ -53180,7 +53180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1638" s="0" t="n">
-        <x:v>1290</x:v>
+        <x:v>1289</x:v>
       </x:c>
     </x:row>
     <x:row r="1639" spans="1:10">
@@ -58445,7 +58445,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1803" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1803" s="1" t="n">
         <x:v>1</x:v>
@@ -58460,7 +58460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1803" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1804" spans="1:10">
@@ -58477,7 +58477,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1804" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1804" s="1" t="n">
         <x:v>2</x:v>
@@ -58492,7 +58492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1804" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1805" spans="1:10">
@@ -59187,7 +59187,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G1826" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1826" s="1" t="n">
         <x:v>19</x:v>
@@ -59196,7 +59196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1826" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="1827" spans="1:10">
@@ -59219,7 +59219,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G1827" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H1827" s="1" t="n">
         <x:v>35</x:v>
@@ -59228,7 +59228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1827" s="0" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="1828" spans="1:10">
@@ -61680,19 +61680,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F1904" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G1904" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="H1904" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1904" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1904" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="1905" spans="1:10">
@@ -61744,19 +61744,19 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F1906" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G1906" s="1" t="n">
         <x:v>172</x:v>
       </x:c>
       <x:c r="H1906" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I1906" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1906" s="0" t="n">
-        <x:v>488</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="1907" spans="1:10">
@@ -62000,10 +62000,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F1914" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G1914" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1914" s="1" t="n">
         <x:v>7</x:v>
@@ -62012,7 +62012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1914" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="1915" spans="1:10">
@@ -62032,10 +62032,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1915" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G1915" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1915" s="1" t="n">
         <x:v>9</x:v>
@@ -62044,7 +62044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1915" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="1916" spans="1:10">
@@ -62419,7 +62419,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G1927" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H1927" s="1" t="n">
         <x:v>32</x:v>
@@ -62428,7 +62428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1927" s="0" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="1928" spans="1:10">
@@ -62448,10 +62448,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F1928" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G1928" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H1928" s="1" t="n">
         <x:v>44</x:v>
@@ -62480,7 +62480,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F1929" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G1929" s="1" t="n">
         <x:v>202</x:v>
@@ -62492,7 +62492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1929" s="0" t="n">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="1930" spans="1:10">
@@ -63824,7 +63824,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="F1971" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G1971" s="1" t="n">
         <x:v>118</x:v>
@@ -63836,7 +63836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1971" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="1972" spans="1:10">
@@ -63888,7 +63888,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="F1973" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G1973" s="1" t="n">
         <x:v>244</x:v>
@@ -63900,7 +63900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1973" s="0" t="n">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
     </x:row>
     <x:row r="1974" spans="1:10">
@@ -70800,19 +70800,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2189" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2189" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2189" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I2189" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2189" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="2190" spans="1:10">
@@ -70864,19 +70864,19 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F2191" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G2191" s="1" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="H2191" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I2191" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2191" s="0" t="n">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="2192" spans="1:10">
@@ -71603,7 +71603,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="G2214" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H2214" s="1" t="n">
         <x:v>29</x:v>
@@ -71612,7 +71612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2214" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="2215" spans="1:10">
@@ -71632,7 +71632,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F2215" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G2215" s="1" t="n">
         <x:v>61</x:v>
@@ -71644,7 +71644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2215" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="2216" spans="1:10">
@@ -71664,10 +71664,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F2216" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G2216" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H2216" s="1" t="n">
         <x:v>70</x:v>
@@ -71676,7 +71676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2216" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="2217" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1849,13 +1849,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
@@ -1913,13 +1913,13 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -2774,7 +2774,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
         <x:v>54</x:v>
@@ -2783,7 +2783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
@@ -2838,7 +2838,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
         <x:v>110</x:v>
@@ -2847,7 +2847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>963</x:v>
+        <x:v>964</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
@@ -3085,7 +3085,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D73" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E73" s="1" t="n">
         <x:v>1</x:v>
@@ -3097,13 +3097,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H73" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
@@ -3117,7 +3117,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D74" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E74" s="1" t="n">
         <x:v>1</x:v>
@@ -3129,13 +3129,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H74" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
@@ -16054,7 +16054,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G478" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H478" s="1" t="n">
         <x:v>0</x:v>
@@ -16063,7 +16063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J478" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:10">
@@ -16086,7 +16086,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G479" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H479" s="1" t="n">
         <x:v>0</x:v>
@@ -16095,7 +16095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J479" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:10">
@@ -16275,10 +16275,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F485" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G485" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H485" s="1" t="n">
         <x:v>23</x:v>
@@ -16287,7 +16287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16307,10 +16307,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F486" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G486" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H486" s="1" t="n">
         <x:v>31</x:v>
@@ -16319,7 +16319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -16659,7 +16659,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F497" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G497" s="1" t="n">
         <x:v>33</x:v>
@@ -16671,7 +16671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J497" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="498" spans="1:10">
@@ -16691,7 +16691,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F498" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G498" s="1" t="n">
         <x:v>51</x:v>
@@ -16703,7 +16703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J498" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:10">
@@ -18009,13 +18009,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H539" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I539" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J539" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:10">
@@ -18073,13 +18073,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H541" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I541" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J541" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:10">
@@ -18454,7 +18454,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="G553" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H553" s="1" t="n">
         <x:v>45</x:v>
@@ -18463,7 +18463,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J553" s="0" t="n">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="554" spans="1:10">
@@ -18486,7 +18486,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="G554" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H554" s="1" t="n">
         <x:v>60</x:v>
@@ -18495,7 +18495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J554" s="0" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:10">
@@ -20342,7 +20342,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G612" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H612" s="1" t="n">
         <x:v>2</x:v>
@@ -20351,7 +20351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J612" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="613" spans="1:10">
@@ -20406,7 +20406,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G614" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H614" s="1" t="n">
         <x:v>12</x:v>
@@ -20415,7 +20415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J614" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:10">
@@ -24947,7 +24947,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="F756" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G756" s="1" t="n">
         <x:v>194</x:v>
@@ -24959,7 +24959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J756" s="0" t="n">
-        <x:v>701</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
     <x:row r="757" spans="1:10">
@@ -24976,13 +24976,13 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E757" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F757" s="1" t="n">
         <x:v>811</x:v>
       </x:c>
       <x:c r="G757" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="H757" s="1" t="n">
         <x:v>296</x:v>
@@ -24991,7 +24991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J757" s="0" t="n">
-        <x:v>2405</x:v>
+        <x:v>2404</x:v>
       </x:c>
     </x:row>
     <x:row r="758" spans="1:10">
@@ -25008,13 +25008,13 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E758" s="1" t="n">
-        <x:v>553</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="F758" s="1" t="n">
-        <x:v>1045</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="G758" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="H758" s="1" t="n">
         <x:v>357</x:v>
@@ -25023,7 +25023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J758" s="0" t="n">
-        <x:v>3106</x:v>
+        <x:v>3104</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:10">
@@ -25363,19 +25363,19 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="F769" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="G769" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J769" s="0" t="n">
-        <x:v>1290</x:v>
+        <x:v>1291</x:v>
       </x:c>
     </x:row>
     <x:row r="770" spans="1:10">
@@ -25395,19 +25395,19 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="F770" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="G770" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="H770" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I770" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J770" s="0" t="n">
-        <x:v>1743</x:v>
+        <x:v>1744</x:v>
       </x:c>
     </x:row>
     <x:row r="771" spans="1:10">
@@ -26064,7 +26064,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E791" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F791" s="1" t="n">
         <x:v>661</x:v>
@@ -26073,7 +26073,7 @@
         <x:v>538</x:v>
       </x:c>
       <x:c r="H791" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I791" s="0" t="n">
         <x:v>0</x:v>
@@ -26096,7 +26096,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="E792" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="F792" s="1" t="n">
         <x:v>1137</x:v>
@@ -26105,7 +26105,7 @@
         <x:v>919</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="I792" s="0" t="n">
         <x:v>0</x:v>
@@ -38061,7 +38061,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1166" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1166" s="1" t="n">
         <x:v>1</x:v>
@@ -38079,7 +38079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1166" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="1167" spans="1:10">
@@ -38093,7 +38093,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1167" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1167" s="1" t="n">
         <x:v>1</x:v>
@@ -38111,7 +38111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1167" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1168" spans="1:10">
@@ -54230,7 +54230,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G1671" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1671" s="1" t="n">
         <x:v>10</x:v>
@@ -54239,7 +54239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1671" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="1672" spans="1:10">
@@ -54294,7 +54294,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="G1673" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H1673" s="1" t="n">
         <x:v>52</x:v>
@@ -54303,7 +54303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1673" s="0" t="n">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="1674" spans="1:10">
@@ -54457,13 +54457,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H1678" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1678" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1678" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="1679" spans="1:10">
@@ -54489,13 +54489,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H1679" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I1679" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1679" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="1680" spans="1:10">
@@ -54701,7 +54701,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1686" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E1686" s="1" t="n">
         <x:v>179</x:v>
@@ -54710,7 +54710,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="G1686" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H1686" s="1" t="n">
         <x:v>67</x:v>
@@ -54719,7 +54719,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1686" s="0" t="n">
-        <x:v>654</x:v>
+        <x:v>656</x:v>
       </x:c>
     </x:row>
     <x:row r="1687" spans="1:10">
@@ -54739,10 +54739,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="F1687" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G1687" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H1687" s="1" t="n">
         <x:v>115</x:v>
@@ -54751,7 +54751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1687" s="0" t="n">
-        <x:v>814</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="1688" spans="1:10">
@@ -54765,16 +54765,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1688" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E1688" s="1" t="n">
         <x:v>338</x:v>
       </x:c>
       <x:c r="F1688" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="G1688" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="H1688" s="1" t="n">
         <x:v>182</x:v>
@@ -54783,7 +54783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1688" s="0" t="n">
-        <x:v>1468</x:v>
+        <x:v>1474</x:v>
       </x:c>
     </x:row>
     <x:row r="1689" spans="1:10">
@@ -55187,10 +55187,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F1701" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G1701" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H1701" s="1" t="n">
         <x:v>17</x:v>
@@ -55199,7 +55199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1701" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="1702" spans="1:10">
@@ -55219,10 +55219,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F1702" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1702" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H1702" s="1" t="n">
         <x:v>18</x:v>
@@ -55231,7 +55231,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1702" s="0" t="n">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="1703" spans="1:10">
@@ -57814,7 +57814,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G1783" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1783" s="1" t="n">
         <x:v>10</x:v>
@@ -57823,7 +57823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1783" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="1784" spans="1:10">
@@ -57846,7 +57846,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G1784" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1784" s="1" t="n">
         <x:v>10</x:v>
@@ -57855,7 +57855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1784" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="1785" spans="1:10">
@@ -60976,7 +60976,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1882" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1882" s="1" t="n">
         <x:v>3</x:v>
@@ -60991,7 +60991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1882" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1883" spans="1:10">
@@ -61008,7 +61008,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E1883" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1883" s="1" t="n">
         <x:v>4</x:v>
@@ -61023,7 +61023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1883" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1884" spans="1:10">
@@ -61043,7 +61043,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1884" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1884" s="1" t="n">
         <x:v>0</x:v>
@@ -61055,7 +61055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1884" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1885" spans="1:10">
@@ -61075,7 +61075,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1885" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1885" s="1" t="n">
         <x:v>0</x:v>
@@ -61087,7 +61087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1885" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="1886" spans="1:10">
@@ -61555,7 +61555,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F1900" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G1900" s="1" t="n">
         <x:v>31</x:v>
@@ -61567,7 +61567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1900" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="1901" spans="1:10">
@@ -61587,7 +61587,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F1901" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1901" s="1" t="n">
         <x:v>38</x:v>
@@ -61599,7 +61599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1901" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="1902" spans="1:10">
@@ -64944,7 +64944,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E2006" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F2006" s="1" t="n">
         <x:v>58</x:v>
@@ -64959,7 +64959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2006" s="0" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="2007" spans="1:10">
@@ -64985,13 +64985,13 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="H2007" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I2007" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2007" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="2008" spans="1:10">
@@ -65008,7 +65008,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E2008" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F2008" s="1" t="n">
         <x:v>148</x:v>
@@ -65017,13 +65017,13 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="H2008" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I2008" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2008" s="0" t="n">
-        <x:v>569</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="2009" spans="1:10">
@@ -65360,7 +65360,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2019" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2019" s="1" t="n">
         <x:v>59</x:v>
@@ -65375,7 +65375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2019" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="2020" spans="1:10">
@@ -65392,7 +65392,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E2020" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F2020" s="1" t="n">
         <x:v>80</x:v>
@@ -65407,7 +65407,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2020" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="2021" spans="1:10">
@@ -67152,7 +67152,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2075" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2075" s="1" t="n">
         <x:v>1</x:v>
@@ -67161,13 +67161,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2075" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2075" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2075" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2076" spans="1:10">
@@ -67184,7 +67184,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2076" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2076" s="1" t="n">
         <x:v>1</x:v>
@@ -67193,13 +67193,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2076" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2076" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2076" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2077" spans="1:10">
@@ -72790,7 +72790,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G2251" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H2251" s="1" t="n">
         <x:v>36</x:v>
@@ -72799,7 +72799,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2251" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="2252" spans="1:10">
@@ -72822,7 +72822,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="G2252" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H2252" s="1" t="n">
         <x:v>46</x:v>
@@ -72831,7 +72831,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2252" s="0" t="n">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="2253" spans="1:10">
@@ -73174,7 +73174,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G2263" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H2263" s="1" t="n">
         <x:v>25</x:v>
@@ -73183,7 +73183,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2263" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="2264" spans="1:10">
@@ -73206,7 +73206,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="G2264" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H2264" s="1" t="n">
         <x:v>29</x:v>
@@ -73215,7 +73215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2264" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="2265" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -2553,13 +2553,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
@@ -2617,13 +2617,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10">
@@ -5075,7 +5075,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F135" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G135" s="1" t="n">
         <x:v>3</x:v>
@@ -5087,7 +5087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J135" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:10">
@@ -5139,7 +5139,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F137" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G137" s="1" t="n">
         <x:v>8</x:v>
@@ -5151,7 +5151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J137" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:10">
@@ -6326,7 +6326,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G174" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H174" s="1" t="n">
         <x:v>4</x:v>
@@ -6335,7 +6335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J174" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:10">
@@ -6361,13 +6361,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H175" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I175" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J175" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:10">
@@ -6390,16 +6390,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G176" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H176" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I176" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J176" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:10">
@@ -8694,7 +8694,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G248" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H248" s="1" t="n">
         <x:v>0</x:v>
@@ -8703,7 +8703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J248" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:10">
@@ -8726,7 +8726,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G249" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H249" s="1" t="n">
         <x:v>0</x:v>
@@ -8735,7 +8735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J249" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:10">
@@ -17683,7 +17683,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F529" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G529" s="1" t="n">
         <x:v>178</x:v>
@@ -17695,7 +17695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J529" s="0" t="n">
-        <x:v>560</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="530" spans="1:10">
@@ -17715,7 +17715,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="F530" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G530" s="1" t="n">
         <x:v>232</x:v>
@@ -17727,7 +17727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J530" s="0" t="n">
-        <x:v>760</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="531" spans="1:10">
@@ -18070,7 +18070,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G541" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H541" s="1" t="n">
         <x:v>19</x:v>
@@ -18079,7 +18079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J541" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:10">
@@ -18102,7 +18102,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G542" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H542" s="1" t="n">
         <x:v>23</x:v>
@@ -18111,7 +18111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J542" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:10">
@@ -21974,7 +21974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G663" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H663" s="1" t="n">
         <x:v>0</x:v>
@@ -21983,7 +21983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J663" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="664" spans="1:10">
@@ -22006,7 +22006,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G664" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H664" s="1" t="n">
         <x:v>0</x:v>
@@ -22015,7 +22015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J664" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:10">
@@ -25011,7 +25011,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="F758" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="G758" s="1" t="n">
         <x:v>760</x:v>
@@ -25023,7 +25023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J758" s="0" t="n">
-        <x:v>2409</x:v>
+        <x:v>2408</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:10">
@@ -25043,7 +25043,7 @@
         <x:v>554</x:v>
       </x:c>
       <x:c r="F759" s="1" t="n">
-        <x:v>1045</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="G759" s="1" t="n">
         <x:v>954</x:v>
@@ -25055,7 +25055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J759" s="0" t="n">
-        <x:v>3110</x:v>
+        <x:v>3109</x:v>
       </x:c>
     </x:row>
     <x:row r="760" spans="1:10">
@@ -26099,7 +26099,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="F792" s="1" t="n">
-        <x:v>661</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="G792" s="1" t="n">
         <x:v>538</x:v>
@@ -26111,7 +26111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J792" s="0" t="n">
-        <x:v>1995</x:v>
+        <x:v>1997</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:10">
@@ -26131,7 +26131,7 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="F793" s="1" t="n">
-        <x:v>1138</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="G793" s="1" t="n">
         <x:v>920</x:v>
@@ -26143,7 +26143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J793" s="0" t="n">
-        <x:v>3489</x:v>
+        <x:v>3491</x:v>
       </x:c>
     </x:row>
     <x:row r="794" spans="1:10">
@@ -44438,7 +44438,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1365" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1365" s="1" t="n">
         <x:v>0</x:v>
@@ -44447,7 +44447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1365" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1366" spans="1:10">
@@ -44502,7 +44502,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G1367" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1367" s="1" t="n">
         <x:v>7</x:v>
@@ -44511,7 +44511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1367" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="1368" spans="1:10">
@@ -60275,7 +60275,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1860" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1860" s="1" t="n">
         <x:v>5</x:v>
@@ -60287,7 +60287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1860" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1861" spans="1:10">
@@ -60307,7 +60307,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1861" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1861" s="1" t="n">
         <x:v>6</x:v>
@@ -60319,7 +60319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1861" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="1862" spans="1:10">
@@ -61939,7 +61939,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1912" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1912" s="1" t="n">
         <x:v>19</x:v>
@@ -61951,7 +61951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1912" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1913" spans="1:10">
@@ -61971,7 +61971,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1913" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G1913" s="1" t="n">
         <x:v>27</x:v>
@@ -61983,7 +61983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1913" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="1914" spans="1:10">
@@ -72217,13 +72217,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H2233" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2233" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2233" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2234" spans="1:10">
@@ -72249,13 +72249,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H2234" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2234" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2234" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2235" spans="1:10">
@@ -72819,7 +72819,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F2252" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G2252" s="1" t="n">
         <x:v>83</x:v>
@@ -72831,7 +72831,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2252" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="2253" spans="1:10">
@@ -72851,7 +72851,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F2253" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G2253" s="1" t="n">
         <x:v>106</x:v>
@@ -72863,7 +72863,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2253" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="2254" spans="1:10">
@@ -76272,7 +76272,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2360" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2360" s="1" t="n">
         <x:v>3</x:v>
@@ -76287,7 +76287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2360" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2361" spans="1:10">
@@ -76304,7 +76304,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2361" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2361" s="1" t="n">
         <x:v>5</x:v>
@@ -76319,7 +76319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2361" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2362" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -1974,7 +1974,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>3</x:v>
@@ -1983,7 +1983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -2006,7 +2006,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>4</x:v>
@@ -2015,7 +2015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -4976,7 +4976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E132" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F132" s="1" t="n">
         <x:v>19</x:v>
@@ -4991,7 +4991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J132" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:10">
@@ -5040,7 +5040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E134" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F134" s="1" t="n">
         <x:v>40</x:v>
@@ -5055,7 +5055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J134" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:10">
@@ -17910,7 +17910,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G536" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H536" s="1" t="n">
         <x:v>1</x:v>
@@ -17919,7 +17919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J536" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="537" spans="1:10">
@@ -17942,7 +17942,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G537" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H537" s="1" t="n">
         <x:v>3</x:v>
@@ -17951,7 +17951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J537" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:10">
@@ -18297,13 +18297,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H548" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I548" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J548" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:10">
@@ -18329,13 +18329,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="H549" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I549" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J549" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:10">
@@ -18553,13 +18553,13 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="H556" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I556" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J556" s="0" t="n">
-        <x:v>629</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:10">
@@ -18585,13 +18585,13 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="H557" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I557" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J557" s="0" t="n">
-        <x:v>1086</x:v>
+        <x:v>1085</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:10">
@@ -22294,7 +22294,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G673" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H673" s="1" t="n">
         <x:v>3</x:v>
@@ -22303,7 +22303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J673" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:10">
@@ -22326,7 +22326,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G674" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H674" s="1" t="n">
         <x:v>3</x:v>
@@ -22335,7 +22335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J674" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:10">
@@ -25427,7 +25427,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F771" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="G771" s="1" t="n">
         <x:v>427</x:v>
@@ -25439,7 +25439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J771" s="0" t="n">
-        <x:v>1293</x:v>
+        <x:v>1292</x:v>
       </x:c>
     </x:row>
     <x:row r="772" spans="1:10">
@@ -25459,7 +25459,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="F772" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="G772" s="1" t="n">
         <x:v>578</x:v>
@@ -25471,7 +25471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J772" s="0" t="n">
-        <x:v>1748</x:v>
+        <x:v>1747</x:v>
       </x:c>
     </x:row>
     <x:row r="773" spans="1:10">
@@ -26102,7 +26102,7 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="G792" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
         <x:v>130</x:v>
@@ -26111,7 +26111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J792" s="0" t="n">
-        <x:v>1499</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:10">
@@ -26166,7 +26166,7 @@
         <x:v>1146</x:v>
       </x:c>
       <x:c r="G794" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="H794" s="1" t="n">
         <x:v>382</x:v>
@@ -26175,7 +26175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J794" s="0" t="n">
-        <x:v>3504</x:v>
+        <x:v>3505</x:v>
       </x:c>
     </x:row>
     <x:row r="795" spans="1:10">
@@ -26710,7 +26710,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G811" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H811" s="1" t="n">
         <x:v>24</x:v>
@@ -26719,7 +26719,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J811" s="0" t="n">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
     </x:row>
     <x:row r="812" spans="1:10">
@@ -26742,7 +26742,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="G812" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H812" s="1" t="n">
         <x:v>29</x:v>
@@ -26751,7 +26751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J812" s="0" t="n">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="813" spans="1:10">
@@ -52761,13 +52761,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H1625" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1625" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1625" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1626" spans="1:10">
@@ -52793,13 +52793,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H1626" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1626" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1626" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1627" spans="1:10">
@@ -54861,7 +54861,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1691" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1691" s="1" t="n">
         <x:v>159</x:v>
@@ -54879,7 +54879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1691" s="0" t="n">
-        <x:v>817</x:v>
+        <x:v>816</x:v>
       </x:c>
     </x:row>
     <x:row r="1692" spans="1:10">
@@ -54893,7 +54893,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1692" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E1692" s="1" t="n">
         <x:v>338</x:v>
@@ -54911,7 +54911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1692" s="0" t="n">
-        <x:v>1472</x:v>
+        <x:v>1471</x:v>
       </x:c>
     </x:row>
     <x:row r="1693" spans="1:10">
@@ -58486,7 +58486,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G1804" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1804" s="1" t="n">
         <x:v>2</x:v>
@@ -58495,7 +58495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1804" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="1805" spans="1:10">
@@ -58518,7 +58518,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G1805" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H1805" s="1" t="n">
         <x:v>10</x:v>
@@ -58527,7 +58527,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1805" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="1806" spans="1:10">
@@ -60339,7 +60339,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1862" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1862" s="1" t="n">
         <x:v>1</x:v>
@@ -60351,7 +60351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1862" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1863" spans="1:10">
@@ -60403,7 +60403,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1864" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1864" s="1" t="n">
         <x:v>6</x:v>
@@ -60415,7 +60415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1864" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1865" spans="1:10">
@@ -60982,7 +60982,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G1882" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1882" s="1" t="n">
         <x:v>18</x:v>
@@ -60991,7 +60991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1882" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="1883" spans="1:10">
@@ -61014,7 +61014,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G1883" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H1883" s="1" t="n">
         <x:v>23</x:v>
@@ -61023,7 +61023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1883" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="1884" spans="1:10">
@@ -61046,7 +61046,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G1884" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H1884" s="1" t="n">
         <x:v>41</x:v>
@@ -61055,7 +61055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1884" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="1885" spans="1:10">
@@ -61395,10 +61395,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1895" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1895" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1895" s="1" t="n">
         <x:v>0</x:v>
@@ -61407,7 +61407,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1895" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1896" spans="1:10">
@@ -61427,10 +61427,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1896" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1896" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1896" s="1" t="n">
         <x:v>0</x:v>
@@ -61439,7 +61439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1896" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1897" spans="1:10">
@@ -61677,7 +61677,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1904" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1904" s="1" t="n">
         <x:v>13</x:v>
@@ -61695,7 +61695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1904" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="1905" spans="1:10">
@@ -61709,7 +61709,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1905" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1905" s="1" t="n">
         <x:v>18</x:v>
@@ -61727,7 +61727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1905" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="1906" spans="1:10">
@@ -65101,7 +65101,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2011" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E2011" s="1" t="n">
         <x:v>41</x:v>
@@ -65119,7 +65119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2011" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="2012" spans="1:10">
@@ -65136,7 +65136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E2012" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F2012" s="1" t="n">
         <x:v>90</x:v>
@@ -65151,7 +65151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2012" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="2013" spans="1:10">
@@ -65165,10 +65165,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2013" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E2013" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F2013" s="1" t="n">
         <x:v>148</x:v>
@@ -65183,7 +65183,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2013" s="0" t="n">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="2014" spans="1:10">
@@ -65616,7 +65616,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2027" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2027" s="1" t="n">
         <x:v>15</x:v>
@@ -65631,7 +65631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2027" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2028" spans="1:10">
@@ -65648,7 +65648,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E2028" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F2028" s="1" t="n">
         <x:v>24</x:v>
@@ -65663,7 +65663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2028" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="2029" spans="1:10">
@@ -72947,7 +72947,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F2256" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G2256" s="1" t="n">
         <x:v>83</x:v>
@@ -72959,7 +72959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2256" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="2257" spans="1:10">
@@ -72979,7 +72979,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F2257" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G2257" s="1" t="n">
         <x:v>106</x:v>
@@ -72991,7 +72991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2257" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="2258" spans="1:10">
@@ -73782,7 +73782,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G2282" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H2282" s="1" t="n">
         <x:v>33</x:v>
@@ -73791,7 +73791,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2282" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="2283" spans="1:10">
@@ -73808,7 +73808,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E2283" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F2283" s="1" t="n">
         <x:v>77</x:v>
@@ -73823,7 +73823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2283" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="2284" spans="1:10">
@@ -73840,13 +73840,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E2284" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F2284" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="G2284" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H2284" s="1" t="n">
         <x:v>80</x:v>
@@ -73855,7 +73855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2284" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="2285" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -4976,7 +4976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E132" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F132" s="1" t="n">
         <x:v>19</x:v>
@@ -4991,7 +4991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J132" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:10">
@@ -5040,7 +5040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E134" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F134" s="1" t="n">
         <x:v>40</x:v>
@@ -5055,7 +5055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J134" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:10">
@@ -5232,22 +5232,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E140" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F140" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G140" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H140" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I140" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J140" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:10">
@@ -5264,13 +5264,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E141" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F141" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G141" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H141" s="1" t="n">
         <x:v>4</x:v>
@@ -5279,7 +5279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:10">
@@ -5296,22 +5296,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E142" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F142" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G142" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H142" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I142" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:10">
@@ -18102,7 +18102,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G542" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H542" s="1" t="n">
         <x:v>19</x:v>
@@ -18111,7 +18111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J542" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:10">
@@ -18134,7 +18134,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G543" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H543" s="1" t="n">
         <x:v>23</x:v>
@@ -18143,7 +18143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J543" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="544" spans="1:10">
@@ -18515,7 +18515,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F555" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G555" s="1" t="n">
         <x:v>128</x:v>
@@ -18527,7 +18527,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J555" s="0" t="n">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:10">
@@ -18579,7 +18579,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="F557" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G557" s="1" t="n">
         <x:v>320</x:v>
@@ -18591,7 +18591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J557" s="0" t="n">
-        <x:v>1085</x:v>
+        <x:v>1086</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:10">
@@ -20045,7 +20045,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D603" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E603" s="1" t="n">
         <x:v>13</x:v>
@@ -20063,7 +20063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J603" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="604" spans="1:10">
@@ -20077,7 +20077,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D604" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E604" s="1" t="n">
         <x:v>19</x:v>
@@ -20095,7 +20095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -22838,7 +22838,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G690" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H690" s="1" t="n">
         <x:v>1</x:v>
@@ -22847,7 +22847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J690" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="691" spans="1:10">
@@ -22870,7 +22870,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G691" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H691" s="1" t="n">
         <x:v>1</x:v>
@@ -22879,7 +22879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J691" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="692" spans="1:10">
@@ -25424,7 +25424,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E771" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F771" s="1" t="n">
         <x:v>473</x:v>
@@ -25439,7 +25439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J771" s="0" t="n">
-        <x:v>1292</x:v>
+        <x:v>1293</x:v>
       </x:c>
     </x:row>
     <x:row r="772" spans="1:10">
@@ -25456,7 +25456,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E772" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F772" s="1" t="n">
         <x:v>642</x:v>
@@ -25471,7 +25471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J772" s="0" t="n">
-        <x:v>1747</x:v>
+        <x:v>1748</x:v>
       </x:c>
     </x:row>
     <x:row r="773" spans="1:10">
@@ -38070,7 +38070,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1166" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1166" s="1" t="n">
         <x:v>0</x:v>
@@ -38079,7 +38079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1166" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1167" spans="1:10">
@@ -38134,7 +38134,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1168" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1168" s="1" t="n">
         <x:v>1</x:v>
@@ -38143,7 +38143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1168" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1169" spans="1:10">
@@ -48918,7 +48918,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1505" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1505" s="1" t="n">
         <x:v>8</x:v>
@@ -48927,7 +48927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1505" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1506" spans="1:10">
@@ -48982,7 +48982,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G1507" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H1507" s="1" t="n">
         <x:v>15</x:v>
@@ -48991,7 +48991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1507" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="1508" spans="1:10">
@@ -54387,7 +54387,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F1676" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G1676" s="1" t="n">
         <x:v>133</x:v>
@@ -54399,7 +54399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1676" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="1677" spans="1:10">
@@ -54419,7 +54419,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F1677" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G1677" s="1" t="n">
         <x:v>162</x:v>
@@ -54431,7 +54431,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1677" s="0" t="n">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="1678" spans="1:10">
@@ -54864,13 +54864,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E1691" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F1691" s="1" t="n">
         <x:v>283</x:v>
       </x:c>
       <x:c r="G1691" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H1691" s="1" t="n">
         <x:v>116</x:v>
@@ -54879,7 +54879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1691" s="0" t="n">
-        <x:v>816</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="1692" spans="1:10">
@@ -54896,13 +54896,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E1692" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="F1692" s="1" t="n">
         <x:v>467</x:v>
       </x:c>
       <x:c r="G1692" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="H1692" s="1" t="n">
         <x:v>183</x:v>
@@ -54911,7 +54911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1692" s="0" t="n">
-        <x:v>1471</x:v>
+        <x:v>1473</x:v>
       </x:c>
     </x:row>
     <x:row r="1693" spans="1:10">
@@ -55219,7 +55219,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1702" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1702" s="1" t="n">
         <x:v>6</x:v>
@@ -55231,7 +55231,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1702" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1703" spans="1:10">
@@ -55251,7 +55251,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1703" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G1703" s="1" t="n">
         <x:v>7</x:v>
@@ -55263,7 +55263,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1703" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="1704" spans="1:10">
@@ -60662,7 +60662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1872" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1872" s="1" t="n">
         <x:v>3</x:v>
@@ -60671,7 +60671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1872" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1873" spans="1:10">
@@ -60694,7 +60694,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G1873" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1873" s="1" t="n">
         <x:v>9</x:v>
@@ -60703,7 +60703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1873" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="1874" spans="1:10">
@@ -61782,7 +61782,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1907" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1907" s="1" t="n">
         <x:v>0</x:v>
@@ -61791,7 +61791,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1907" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1908" spans="1:10">
@@ -61814,7 +61814,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1908" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1908" s="1" t="n">
         <x:v>0</x:v>
@@ -61823,7 +61823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1908" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1909" spans="1:10">
@@ -65520,7 +65520,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2024" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F2024" s="1" t="n">
         <x:v>59</x:v>
@@ -65535,7 +65535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2024" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="2025" spans="1:10">
@@ -65552,7 +65552,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E2025" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F2025" s="1" t="n">
         <x:v>80</x:v>
@@ -65567,7 +65567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2025" s="0" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="2026" spans="1:10">
@@ -65619,7 +65619,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F2027" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2027" s="1" t="n">
         <x:v>24</x:v>
@@ -65631,7 +65631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2027" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2028" spans="1:10">
@@ -65651,7 +65651,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F2028" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2028" s="1" t="n">
         <x:v>36</x:v>
@@ -65663,7 +65663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2028" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="2029" spans="1:10">
@@ -65750,7 +65750,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="G2031" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H2031" s="1" t="n">
         <x:v>52</x:v>
@@ -65759,7 +65759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2031" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="2032" spans="1:10">
@@ -65814,7 +65814,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="G2033" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="H2033" s="1" t="n">
         <x:v>115</x:v>
@@ -65823,7 +65823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2033" s="0" t="n">
-        <x:v>905</x:v>
+        <x:v>906</x:v>
       </x:c>
     </x:row>
     <x:row r="2034" spans="1:10">
@@ -68147,7 +68147,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2106" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2106" s="1" t="n">
         <x:v>3</x:v>
@@ -68159,7 +68159,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2106" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -68179,7 +68179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2107" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2107" s="1" t="n">
         <x:v>4</x:v>
@@ -68191,7 +68191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2107" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2108" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -760,7 +760,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J2497"/>
+  <x:dimension ref="A1:J2499"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2189,7 +2189,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>17</x:v>
@@ -2207,7 +2207,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
@@ -2221,7 +2221,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>18</x:v>
@@ -2239,7 +2239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
@@ -2262,7 +2262,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
         <x:v>18</x:v>
@@ -2271,7 +2271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2326,7 +2326,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>52</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2829,10 +2829,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
         <x:v>172</x:v>
@@ -2847,7 +2847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>588</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
@@ -2861,10 +2861,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D66" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F66" s="1" t="n">
         <x:v>308</x:v>
@@ -2879,7 +2879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>1076</x:v>
+        <x:v>1078</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
@@ -4653,16 +4653,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D122" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E122" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F122" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G122" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H122" s="1" t="n">
         <x:v>3</x:v>
@@ -4671,7 +4671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J122" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:10">
@@ -4688,10 +4688,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E123" s="1" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F123" s="1" t="n">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="F123" s="1" t="n">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="G123" s="1" t="n">
         <x:v>32</x:v>
@@ -4703,7 +4703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J123" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:10">
@@ -4717,16 +4717,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D124" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E124" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F124" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G124" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H124" s="1" t="n">
         <x:v>14</x:v>
@@ -4735,7 +4735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:10">
@@ -5264,22 +5264,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E141" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F141" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G141" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H141" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I141" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J141" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:10">
@@ -5293,25 +5293,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D142" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E142" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F142" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G142" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H142" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I142" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J142" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:10">
@@ -5325,25 +5325,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D143" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E143" s="1" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F143" s="1" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G143" s="1" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H143" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F143" s="1" t="n">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G143" s="1" t="n">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H143" s="1" t="n">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="I143" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J143" s="0" t="n">
-        <x:v>154</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:10">
@@ -5552,7 +5552,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E150" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F150" s="1" t="n">
         <x:v>5</x:v>
@@ -5567,7 +5567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J150" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:10">
@@ -5584,7 +5584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E151" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F151" s="1" t="n">
         <x:v>5</x:v>
@@ -5599,7 +5599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J151" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:10">
@@ -7597,10 +7597,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D214" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E214" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F214" s="1" t="n">
         <x:v>16</x:v>
@@ -7615,7 +7615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J214" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:10">
@@ -7635,10 +7635,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F215" s="1" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G215" s="1" t="n">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="G215" s="1" t="n">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
         <x:v>31</x:v>
@@ -7647,7 +7647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J215" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:10">
@@ -7661,16 +7661,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D216" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E216" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F216" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G216" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H216" s="1" t="n">
         <x:v>44</x:v>
@@ -7679,7 +7679,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J216" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:10">
@@ -7731,7 +7731,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F218" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G218" s="1" t="n">
         <x:v>4</x:v>
@@ -7743,7 +7743,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J218" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:10">
@@ -7763,7 +7763,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F219" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G219" s="1" t="n">
         <x:v>6</x:v>
@@ -7775,7 +7775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J219" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:10">
@@ -7984,7 +7984,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E226" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F226" s="1" t="n">
         <x:v>8</x:v>
@@ -7993,13 +7993,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H226" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I226" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J226" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:10">
@@ -8022,7 +8022,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G227" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H227" s="1" t="n">
         <x:v>12</x:v>
@@ -8031,7 +8031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J227" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:10">
@@ -8048,22 +8048,22 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E228" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F228" s="1" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G228" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H228" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I228" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J228" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:10">
@@ -8406,7 +8406,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G239" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H239" s="1" t="n">
         <x:v>16</x:v>
@@ -8415,7 +8415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J239" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:10">
@@ -8438,7 +8438,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="G240" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H240" s="1" t="n">
         <x:v>52</x:v>
@@ -8447,7 +8447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J240" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:10">
@@ -8473,13 +8473,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H241" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I241" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J241" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:10">
@@ -8537,13 +8537,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H243" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I243" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J243" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:10">
@@ -16726,7 +16726,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G499" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H499" s="1" t="n">
         <x:v>26</x:v>
@@ -16735,7 +16735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J499" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:10">
@@ -16758,7 +16758,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G500" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H500" s="1" t="n">
         <x:v>35</x:v>
@@ -16767,7 +16767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J500" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:10">
@@ -18102,7 +18102,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G542" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H542" s="1" t="n">
         <x:v>0</x:v>
@@ -18111,7 +18111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J542" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:10">
@@ -18134,7 +18134,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G543" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H543" s="1" t="n">
         <x:v>0</x:v>
@@ -18143,7 +18143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J543" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="544" spans="1:10">
@@ -18189,16 +18189,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D545" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E545" s="1" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="F545" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G545" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H545" s="1" t="n">
         <x:v>88</x:v>
@@ -18207,7 +18207,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J545" s="0" t="n">
-        <x:v>625</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:10">
@@ -18221,16 +18221,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D546" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E546" s="1" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="F546" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G546" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="H546" s="1" t="n">
         <x:v>109</x:v>
@@ -18239,7 +18239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J546" s="0" t="n">
-        <x:v>839</x:v>
+        <x:v>844</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:10">
@@ -18265,13 +18265,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H547" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I547" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J547" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:10">
@@ -18291,7 +18291,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F548" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G548" s="1" t="n">
         <x:v>17</x:v>
@@ -18303,7 +18303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J548" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:10">
@@ -18323,19 +18323,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F549" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G549" s="1" t="n">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H549" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I549" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J549" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:10">
@@ -18477,7 +18477,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D554" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E554" s="1" t="n">
         <x:v>2</x:v>
@@ -18486,7 +18486,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G554" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H554" s="1" t="n">
         <x:v>6</x:v>
@@ -18495,7 +18495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J554" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:10">
@@ -18509,7 +18509,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D555" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E555" s="1" t="n">
         <x:v>6</x:v>
@@ -18518,7 +18518,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G555" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H555" s="1" t="n">
         <x:v>7</x:v>
@@ -18527,7 +18527,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J555" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:10">
@@ -18774,7 +18774,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G563" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H563" s="1" t="n">
         <x:v>12</x:v>
@@ -18783,7 +18783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J563" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:10">
@@ -18806,7 +18806,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G564" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H564" s="1" t="n">
         <x:v>14</x:v>
@@ -18815,7 +18815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J564" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:10">
@@ -19021,25 +19021,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D571" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E571" s="1" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F571" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G571" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H571" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I571" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J571" s="0" t="n">
-        <x:v>489</x:v>
+        <x:v>494</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:10">
@@ -19056,10 +19056,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E572" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F572" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G572" s="1" t="n">
         <x:v>214</x:v>
@@ -19071,7 +19071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J572" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>704</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:10">
@@ -19085,25 +19085,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D573" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E573" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F573" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="G573" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="H573" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I573" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J573" s="0" t="n">
-        <x:v>1189</x:v>
+        <x:v>1198</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:10">
@@ -19667,7 +19667,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
         <x:v>21</x:v>
@@ -19679,7 +19679,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -19699,7 +19699,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F592" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G592" s="1" t="n">
         <x:v>22</x:v>
@@ -19711,7 +19711,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J592" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:10">
@@ -19769,13 +19769,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H594" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I594" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J594" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:10">
@@ -19801,13 +19801,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I595" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -23158,7 +23158,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G700" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H700" s="1" t="n">
         <x:v>4</x:v>
@@ -23167,7 +23167,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J700" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:10">
@@ -23190,7 +23190,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G701" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H701" s="1" t="n">
         <x:v>11</x:v>
@@ -23199,7 +23199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J701" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="702" spans="1:10">
@@ -25657,13 +25657,13 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="H778" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I778" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J778" s="0" t="n">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="779" spans="1:10">
@@ -25683,7 +25683,7 @@
         <x:v>453</x:v>
       </x:c>
       <x:c r="F779" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="G779" s="1" t="n">
         <x:v>848</x:v>
@@ -25695,7 +25695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J779" s="0" t="n">
-        <x:v>2658</x:v>
+        <x:v>2657</x:v>
       </x:c>
     </x:row>
     <x:row r="780" spans="1:10">
@@ -25715,13 +25715,13 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="F780" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="G780" s="1" t="n">
         <x:v>1063</x:v>
       </x:c>
       <x:c r="H780" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="I780" s="0" t="n">
         <x:v>0</x:v>
@@ -25933,7 +25933,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D787" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E787" s="1" t="n">
         <x:v>34</x:v>
@@ -25951,7 +25951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J787" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:10">
@@ -25974,7 +25974,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="G788" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H788" s="1" t="n">
         <x:v>25</x:v>
@@ -25983,7 +25983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J788" s="0" t="n">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="789" spans="1:10">
@@ -25997,7 +25997,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D789" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E789" s="1" t="n">
         <x:v>92</x:v>
@@ -26006,7 +26006,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="G789" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H789" s="1" t="n">
         <x:v>33</x:v>
@@ -26041,13 +26041,13 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="H790" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I790" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J790" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="791" spans="1:10">
@@ -26105,13 +26105,13 @@
         <x:v>649</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I792" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J792" s="0" t="n">
-        <x:v>1956</x:v>
+        <x:v>1955</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:10">
@@ -26157,7 +26157,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D794" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E794" s="1" t="n">
         <x:v>1</x:v>
@@ -26175,7 +26175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J794" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="795" spans="1:10">
@@ -26189,7 +26189,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D795" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E795" s="1" t="n">
         <x:v>2</x:v>
@@ -26207,7 +26207,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J795" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="796" spans="1:10">
@@ -26291,7 +26291,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F798" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G798" s="1" t="n">
         <x:v>53</x:v>
@@ -26303,7 +26303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J798" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="799" spans="1:10">
@@ -26326,7 +26326,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="G799" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H799" s="1" t="n">
         <x:v>33</x:v>
@@ -26335,7 +26335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J799" s="0" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="800" spans="1:10">
@@ -26355,10 +26355,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F800" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G800" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H800" s="1" t="n">
         <x:v>49</x:v>
@@ -26367,7 +26367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J800" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="801" spans="1:10">
@@ -26483,7 +26483,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F804" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G804" s="1" t="n">
         <x:v>10</x:v>
@@ -26495,7 +26495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J804" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="805" spans="1:10">
@@ -26515,7 +26515,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F805" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G805" s="1" t="n">
         <x:v>10</x:v>
@@ -26527,7 +26527,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J805" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="806" spans="1:10">
@@ -26733,10 +26733,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D812" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E812" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F812" s="1" t="n">
         <x:v>520</x:v>
@@ -26751,7 +26751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J812" s="0" t="n">
-        <x:v>1638</x:v>
+        <x:v>1641</x:v>
       </x:c>
     </x:row>
     <x:row r="813" spans="1:10">
@@ -26768,13 +26768,13 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E813" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F813" s="1" t="n">
         <x:v>728</x:v>
       </x:c>
       <x:c r="G813" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="H813" s="1" t="n">
         <x:v>288</x:v>
@@ -26783,7 +26783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J813" s="0" t="n">
-        <x:v>2215</x:v>
+        <x:v>2217</x:v>
       </x:c>
     </x:row>
     <x:row r="814" spans="1:10">
@@ -26797,16 +26797,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D814" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E814" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="F814" s="1" t="n">
         <x:v>1248</x:v>
       </x:c>
       <x:c r="G814" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="H814" s="1" t="n">
         <x:v>428</x:v>
@@ -26815,7 +26815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J814" s="0" t="n">
-        <x:v>3853</x:v>
+        <x:v>3858</x:v>
       </x:c>
     </x:row>
     <x:row r="815" spans="1:10">
@@ -27149,10 +27149,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D825" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E825" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F825" s="1" t="n">
         <x:v>70</x:v>
@@ -27167,7 +27167,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J825" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="826" spans="1:10">
@@ -27181,10 +27181,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D826" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E826" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F826" s="1" t="n">
         <x:v>71</x:v>
@@ -27199,7 +27199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J826" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="827" spans="1:10">
@@ -27318,7 +27318,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G830" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H830" s="1" t="n">
         <x:v>5</x:v>
@@ -27327,7 +27327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J830" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="831" spans="1:10">
@@ -27344,22 +27344,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E831" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F831" s="1" t="n">
         <x:v>193</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H831" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I831" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J831" s="0" t="n">
-        <x:v>672</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="832" spans="1:10">
@@ -27376,22 +27376,22 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E832" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F832" s="1" t="n">
         <x:v>213</x:v>
       </x:c>
       <x:c r="G832" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H832" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I832" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J832" s="0" t="n">
-        <x:v>747</x:v>
+        <x:v>751</x:v>
       </x:c>
     </x:row>
     <x:row r="833" spans="1:10">
@@ -28918,7 +28918,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
         <x:v>4</x:v>
@@ -28927,7 +28927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J880" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="881" spans="1:10">
@@ -28982,7 +28982,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>10</x:v>
@@ -28991,7 +28991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J882" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="883" spans="1:10">
@@ -33430,7 +33430,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
         <x:v>4</x:v>
@@ -33439,7 +33439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1021" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="1022" spans="1:10">
@@ -33462,7 +33462,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
         <x:v>15</x:v>
@@ -33471,7 +33471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1022" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="1023" spans="1:10">
@@ -35667,7 +35667,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1091" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1091" s="1" t="n">
         <x:v>8</x:v>
@@ -35679,7 +35679,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1091" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="1092" spans="1:10">
@@ -35699,7 +35699,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
         <x:v>10</x:v>
@@ -35711,7 +35711,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1092" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="1093" spans="1:10">
@@ -50102,7 +50102,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G1542" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H1542" s="1" t="n">
         <x:v>9</x:v>
@@ -50111,7 +50111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1542" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="1543" spans="1:10">
@@ -50134,7 +50134,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G1543" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1543" s="1" t="n">
         <x:v>18</x:v>
@@ -50143,7 +50143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1543" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="1544" spans="1:10">
@@ -55129,13 +55129,13 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="H1699" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I1699" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1699" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="1700" spans="1:10">
@@ -55158,7 +55158,7 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="G1700" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="H1700" s="1" t="n">
         <x:v>152</x:v>
@@ -55167,7 +55167,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1700" s="0" t="n">
-        <x:v>1224</x:v>
+        <x:v>1225</x:v>
       </x:c>
     </x:row>
     <x:row r="1701" spans="1:10">
@@ -55190,16 +55190,16 @@
         <x:v>553</x:v>
       </x:c>
       <x:c r="G1701" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="H1701" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I1701" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1701" s="0" t="n">
-        <x:v>1608</x:v>
+        <x:v>1610</x:v>
       </x:c>
     </x:row>
     <x:row r="1702" spans="1:10">
@@ -56016,7 +56016,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E1727" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F1727" s="1" t="n">
         <x:v>328</x:v>
@@ -56031,7 +56031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1727" s="0" t="n">
-        <x:v>916</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="1728" spans="1:10">
@@ -56048,7 +56048,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E1728" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="F1728" s="1" t="n">
         <x:v>535</x:v>
@@ -56063,7 +56063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1728" s="0" t="n">
-        <x:v>1667</x:v>
+        <x:v>1668</x:v>
       </x:c>
     </x:row>
     <x:row r="1729" spans="1:10">
@@ -58288,7 +58288,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1798" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1798" s="1" t="n">
         <x:v>9</x:v>
@@ -58303,7 +58303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1798" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1799" spans="1:10">
@@ -58320,7 +58320,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1799" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1799" s="1" t="n">
         <x:v>10</x:v>
@@ -58335,7 +58335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1799" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="1800" spans="1:10">
@@ -61299,7 +61299,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F1892" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1892" s="1" t="n">
         <x:v>87</x:v>
@@ -61311,7 +61311,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1892" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="1893" spans="1:10">
@@ -61331,7 +61331,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F1893" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G1893" s="1" t="n">
         <x:v>114</x:v>
@@ -61343,7 +61343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1893" s="0" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="1894" spans="1:10">
@@ -61549,10 +61549,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1900" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1900" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1900" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="F1900" s="1" t="n">
         <x:v>6</x:v>
@@ -61567,7 +61567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1900" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="1901" spans="1:10">
@@ -61581,10 +61581,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1901" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1901" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1901" s="1" t="n">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="F1901" s="1" t="n">
         <x:v>8</x:v>
@@ -61599,7 +61599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1901" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1902" spans="1:10">
@@ -61651,10 +61651,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F1903" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G1903" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1903" s="1" t="n">
         <x:v>25</x:v>
@@ -61663,7 +61663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1903" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="1904" spans="1:10">
@@ -61683,10 +61683,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F1904" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G1904" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H1904" s="1" t="n">
         <x:v>30</x:v>
@@ -61695,7 +61695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1904" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="1905" spans="1:10">
@@ -62163,7 +62163,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1919" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1919" s="1" t="n">
         <x:v>41</x:v>
@@ -62175,7 +62175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1919" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="1920" spans="1:10">
@@ -62201,13 +62201,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H1920" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I1920" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1920" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="1921" spans="1:10">
@@ -62227,19 +62227,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F1921" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G1921" s="1" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="H1921" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I1921" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1921" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="1922" spans="1:10">
@@ -63801,13 +63801,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1970" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1970" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1970" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1971" spans="1:10">
@@ -63833,13 +63833,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1971" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1971" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1971" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1972" spans="1:10">
@@ -65328,7 +65328,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2018" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2018" s="1" t="n">
         <x:v>15</x:v>
@@ -65343,7 +65343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2018" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2019" spans="1:10">
@@ -65360,7 +65360,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2019" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2019" s="1" t="n">
         <x:v>27</x:v>
@@ -65375,7 +65375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2019" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2020" spans="1:10">
@@ -68118,7 +68118,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2105" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2105" s="1" t="n">
         <x:v>1</x:v>
@@ -68127,7 +68127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2105" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2106" spans="1:10">
@@ -68150,7 +68150,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2106" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2106" s="1" t="n">
         <x:v>2</x:v>
@@ -68159,7 +68159,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2106" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -74448,7 +74448,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E2303" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2303" s="1" t="n">
         <x:v>25</x:v>
@@ -74463,7 +74463,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2303" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="2304" spans="1:10">
@@ -74480,7 +74480,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E2304" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2304" s="1" t="n">
         <x:v>81</x:v>
@@ -74495,7 +74495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2304" s="0" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="2305" spans="1:10">
@@ -74512,7 +74512,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E2305" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F2305" s="1" t="n">
         <x:v>106</x:v>
@@ -74527,7 +74527,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2305" s="0" t="n">
-        <x:v>377</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="2306" spans="1:10">
@@ -75097,13 +75097,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H2323" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2323" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2323" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="2324" spans="1:10">
@@ -75129,13 +75129,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="H2324" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2324" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2324" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="2325" spans="1:10">
@@ -75414,7 +75414,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G2333" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H2333" s="1" t="n">
         <x:v>35</x:v>
@@ -75423,7 +75423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2333" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2334" spans="1:10">
@@ -75478,7 +75478,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="G2335" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H2335" s="1" t="n">
         <x:v>83</x:v>
@@ -75487,7 +75487,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2335" s="0" t="n">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="2336" spans="1:10">
@@ -76103,10 +76103,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2355" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2355" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2355" s="1" t="n">
         <x:v>0</x:v>
@@ -76115,10 +76115,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2355" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2355" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2355" s="1" t="n">
         <x:v>0</x:v>
@@ -76127,7 +76127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2355" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2356" spans="1:10">
@@ -76135,19 +76135,19 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2356" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2356" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2356" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2356" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2356" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2356" s="1" t="n">
         <x:v>1</x:v>
@@ -76159,7 +76159,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2356" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2357" spans="1:10">
@@ -76170,19 +76170,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2357" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2357" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2357" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2357" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2357" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2357" s="1" t="n">
         <x:v>0</x:v>
@@ -76191,7 +76191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2357" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2358" spans="1:10">
@@ -76199,31 +76199,31 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2358" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2358" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2358" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2358" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2358" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2358" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2358" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2358" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2358" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2359" spans="1:10">
@@ -76231,19 +76231,19 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2359" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2359" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2359" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2359" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2359" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2359" s="1" t="n">
         <x:v>1</x:v>
@@ -76255,7 +76255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2359" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2360" spans="1:10">
@@ -76266,7 +76266,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2360" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2360" s="1" t="n">
         <x:v>0</x:v>
@@ -76278,7 +76278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2360" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2360" s="1" t="n">
         <x:v>1</x:v>
@@ -76287,7 +76287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2360" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2361" spans="1:10">
@@ -76295,10 +76295,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2361" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2361" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2361" s="1" t="n">
         <x:v>0</x:v>
@@ -76307,10 +76307,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2361" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2361" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2361" s="1" t="n">
         <x:v>0</x:v>
@@ -76327,10 +76327,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2362" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2362" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2362" s="1" t="n">
         <x:v>0</x:v>
@@ -76345,13 +76345,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2362" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2362" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2362" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2363" spans="1:10">
@@ -76362,7 +76362,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2363" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2363" s="1" t="n">
         <x:v>0</x:v>
@@ -76374,16 +76374,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2363" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2363" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2363" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2363" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2364" spans="1:10">
@@ -76391,10 +76391,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2364" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2364" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2364" s="1" t="n">
         <x:v>0</x:v>
@@ -76403,13 +76403,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2364" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2364" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2364" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2364" s="0" t="n">
         <x:v>0</x:v>
@@ -76423,10 +76423,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2365" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2365" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2365" s="1" t="n">
         <x:v>0</x:v>
@@ -76435,19 +76435,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2365" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2365" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2365" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I2365" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2365" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="H2365" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I2365" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2365" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2366" spans="1:10">
@@ -76458,7 +76458,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2366" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2366" s="1" t="n">
         <x:v>0</x:v>
@@ -76467,19 +76467,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2366" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2366" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H2366" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2366" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2366" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G2366" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H2366" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I2366" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2366" s="0" t="n">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2367" spans="1:10">
@@ -76487,7 +76487,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2367" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2367" s="1" t="s">
         <x:v>13</x:v>
@@ -76499,19 +76499,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2367" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2367" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2367" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2367" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2367" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2368" spans="1:10">
@@ -76519,7 +76519,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2368" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2368" s="1" t="s">
         <x:v>9</x:v>
@@ -76531,19 +76531,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2368" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2368" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2368" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2368" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2368" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2369" spans="1:10">
@@ -76551,7 +76551,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2369" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2369" s="1" t="s">
         <x:v>13</x:v>
@@ -76563,10 +76563,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2369" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2369" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2369" s="1" t="n">
         <x:v>0</x:v>
@@ -76583,7 +76583,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2370" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2370" s="1" t="s">
         <x:v>9</x:v>
@@ -76595,10 +76595,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2370" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2370" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2370" s="1" t="n">
         <x:v>0</x:v>
@@ -76615,7 +76615,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2371" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2371" s="1" t="s">
         <x:v>13</x:v>
@@ -76624,22 +76624,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2371" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2371" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2371" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2371" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2371" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2371" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2372" spans="1:10">
@@ -76647,7 +76647,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B2372" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2372" s="1" t="s">
         <x:v>9</x:v>
@@ -76656,71 +76656,71 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2372" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2372" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2372" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2372" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2372" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2372" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2373" spans="1:10">
       <x:c r="A2373" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B2373" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2373" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2373" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2373" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2373" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2373" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2373" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2373" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2373" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2374" spans="1:10">
       <x:c r="A2374" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B2374" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2374" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2374" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2374" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2374" s="1" t="n">
         <x:v>1</x:v>
@@ -76729,13 +76729,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2374" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2374" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2374" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2375" spans="1:10">
@@ -76746,7 +76746,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C2375" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2375" s="1" t="n">
         <x:v>0</x:v>
@@ -76755,7 +76755,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2375" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2375" s="1" t="n">
         <x:v>0</x:v>
@@ -76767,7 +76767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2375" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2376" spans="1:10">
@@ -76775,31 +76775,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2376" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2376" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2376" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2376" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2376" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2376" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2376" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2376" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2376" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2377" spans="1:10">
@@ -76807,31 +76807,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2377" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2377" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2377" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2377" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2377" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2377" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2377" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2377" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2377" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2378" spans="1:10">
@@ -76842,28 +76842,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2378" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2378" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2378" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2378" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G2378" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2378" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F2378" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G2378" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="H2378" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2378" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2378" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2379" spans="1:10">
@@ -76871,31 +76871,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2379" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2379" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2379" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2379" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2379" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2379" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H2379" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2379" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2379" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="2380" spans="1:10">
@@ -76903,31 +76903,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2380" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2380" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2380" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2380" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F2380" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G2380" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2380" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I2380" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2380" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2381" spans="1:10">
@@ -76935,7 +76935,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2381" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2381" s="1" t="s">
         <x:v>13</x:v>
@@ -76967,7 +76967,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2382" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2382" s="1" t="s">
         <x:v>9</x:v>
@@ -76999,10 +76999,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2383" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2383" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2383" s="1" t="n">
         <x:v>0</x:v>
@@ -77011,19 +77011,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2383" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2383" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2383" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2383" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2383" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2384" spans="1:10">
@@ -77031,31 +77031,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2384" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2384" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2384" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2384" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2384" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2384" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2384" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2384" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2384" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2385" spans="1:10">
@@ -77066,28 +77066,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2385" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2385" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2385" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2385" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2385" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2385" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2385" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2385" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2386" spans="1:10">
@@ -77095,31 +77095,31 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2386" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2386" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2386" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2386" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2386" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2386" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2386" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2386" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2386" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2387" spans="1:10">
@@ -77127,7 +77127,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2387" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2387" s="1" t="s">
         <x:v>9</x:v>
@@ -77136,22 +77136,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2387" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2387" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2387" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2387" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2387" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2387" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2388" spans="1:10">
@@ -77159,7 +77159,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2388" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2388" s="1" t="s">
         <x:v>12</x:v>
@@ -77168,13 +77168,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2388" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2388" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2388" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2388" s="1" t="n">
         <x:v>0</x:v>
@@ -77191,10 +77191,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2389" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2389" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2389" s="1" t="n">
         <x:v>0</x:v>
@@ -77203,7 +77203,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2389" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2389" s="1" t="n">
         <x:v>1</x:v>
@@ -77215,7 +77215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2389" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2390" spans="1:10">
@@ -77226,7 +77226,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2390" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2390" s="1" t="n">
         <x:v>0</x:v>
@@ -77235,10 +77235,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2390" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2390" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2390" s="1" t="n">
         <x:v>0</x:v>
@@ -77247,7 +77247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2390" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2391" spans="1:10">
@@ -77255,22 +77255,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2391" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2391" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2391" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2391" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2391" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2391" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2391" s="1" t="n">
         <x:v>0</x:v>
@@ -77279,7 +77279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2391" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2392" spans="1:10">
@@ -77287,22 +77287,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2392" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2392" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2392" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2392" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2392" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2392" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2392" s="1" t="n">
         <x:v>0</x:v>
@@ -77311,7 +77311,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2392" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2393" spans="1:10">
@@ -77319,13 +77319,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2393" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2393" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2393" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2393" s="1" t="n">
         <x:v>0</x:v>
@@ -77334,7 +77334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2393" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2393" s="1" t="n">
         <x:v>0</x:v>
@@ -77351,13 +77351,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2394" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2394" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2394" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2394" s="1" t="n">
         <x:v>0</x:v>
@@ -77366,7 +77366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2394" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2394" s="1" t="n">
         <x:v>0</x:v>
@@ -77383,10 +77383,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2395" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2395" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2395" s="1" t="n">
         <x:v>0</x:v>
@@ -77395,10 +77395,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2395" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2395" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2395" s="1" t="n">
         <x:v>0</x:v>
@@ -77415,22 +77415,22 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B2396" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2396" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2396" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2396" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2396" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2396" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2396" s="1" t="n">
         <x:v>0</x:v>
@@ -77439,7 +77439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2396" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2397" spans="1:10">
@@ -77450,19 +77450,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2397" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2397" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2397" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2397" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2397" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2397" s="1" t="n">
         <x:v>0</x:v>
@@ -77471,30 +77471,30 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2397" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2398" spans="1:10">
       <x:c r="A2398" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B2398" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2398" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2398" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2398" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2398" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2398" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2398" s="1" t="n">
         <x:v>0</x:v>
@@ -77503,30 +77503,30 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2398" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2399" spans="1:10">
       <x:c r="A2399" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B2399" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2399" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2399" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2399" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2399" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2399" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2399" s="1" t="n">
         <x:v>0</x:v>
@@ -77535,7 +77535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
@@ -77546,7 +77546,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C2400" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2400" s="1" t="n">
         <x:v>0</x:v>
@@ -77555,7 +77555,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2400" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2400" s="1" t="n">
         <x:v>1</x:v>
@@ -77567,7 +77567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
@@ -77575,31 +77575,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2401" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2401" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2401" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2401" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2401" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2401" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2401" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2401" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2401" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2402" spans="1:10">
@@ -77607,31 +77607,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2402" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2402" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2402" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2402" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2402" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2402" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2402" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2402" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2402" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2403" spans="1:10">
@@ -77642,28 +77642,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2403" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2403" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2403" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2403" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2403" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2403" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2403" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2403" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="2404" spans="1:10">
@@ -77671,31 +77671,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2404" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2404" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2404" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C2404" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2404" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="E2404" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2404" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G2404" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H2404" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2404" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2404" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="2405" spans="1:10">
@@ -77703,31 +77703,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2405" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2405" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2405" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2405" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2405" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G2405" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2405" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I2405" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2405" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="2406" spans="1:10">
@@ -77738,28 +77738,28 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C2406" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2406" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2406" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2406" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2406" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2406" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2406" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2406" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2407" spans="1:10">
@@ -77767,31 +77767,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2407" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2407" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2407" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2407" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2407" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2407" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2407" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2407" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2407" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2408" spans="1:10">
@@ -77799,31 +77799,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2408" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2408" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2408" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2408" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2408" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2408" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2408" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2408" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2408" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2409" spans="1:10">
@@ -77831,31 +77831,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2409" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2409" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2409" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2409" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2409" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2409" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2409" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2409" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2409" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2410" spans="1:10">
@@ -77863,31 +77863,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2410" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2410" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2410" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2410" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2410" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2410" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2410" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2410" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2410" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2411" spans="1:10">
@@ -77898,28 +77898,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2411" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2411" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2411" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2411" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2411" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2411" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2411" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2411" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="F2411" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G2411" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H2411" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I2411" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2411" s="0" t="n">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2412" spans="1:10">
@@ -77927,31 +77927,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2412" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2412" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2412" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2412" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2412" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2412" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2412" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2412" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2412" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2413" spans="1:10">
@@ -77959,25 +77959,25 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2413" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2413" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2413" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E2413" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2413" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G2413" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G2413" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="H2413" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2413" s="0" t="n">
         <x:v>0</x:v>
@@ -77994,28 +77994,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2414" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2414" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2414" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2414" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2414" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2414" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2414" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2414" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2415" spans="1:10">
@@ -78023,31 +78023,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2415" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2415" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2415" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2415" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2415" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2415" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H2415" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2415" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2415" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2416" spans="1:10">
@@ -78055,31 +78055,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2416" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2416" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2416" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2416" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2416" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2416" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2416" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2416" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2416" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="2417" spans="1:10">
@@ -78090,13 +78090,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C2417" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2417" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2417" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2417" s="1" t="n">
         <x:v>2</x:v>
@@ -78111,7 +78111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2417" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2418" spans="1:10">
@@ -78119,31 +78119,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2418" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2418" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2418" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2418" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2418" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2418" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2418" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2418" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2418" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2419" spans="1:10">
@@ -78151,22 +78151,22 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2419" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C2419" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2419" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2419" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2419" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2419" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2419" s="1" t="n">
         <x:v>0</x:v>
@@ -78175,7 +78175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2419" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2420" spans="1:10">
@@ -78186,19 +78186,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2420" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2420" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2420" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2420" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2420" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2420" s="1" t="n">
         <x:v>3</x:v>
@@ -78207,7 +78207,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2420" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2421" spans="1:10">
@@ -78215,31 +78215,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2421" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2421" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2421" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2421" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2421" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2421" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2421" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2421" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2421" s="0" t="n">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="I2421" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2421" s="0" t="n">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2422" spans="1:10">
@@ -78247,31 +78247,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2422" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2422" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2422" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2422" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2422" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2422" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2422" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2422" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2422" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2423" spans="1:10">
@@ -78282,28 +78282,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2423" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2423" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2423" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2423" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2423" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H2423" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2423" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2423" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2424" spans="1:10">
@@ -78311,31 +78311,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2424" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2424" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2424" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2424" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2424" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G2424" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H2424" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2424" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2424" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2425" spans="1:10">
@@ -78343,31 +78343,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2425" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C2425" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2425" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C2425" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D2425" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="E2425" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F2425" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G2425" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H2425" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I2425" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2425" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="2426" spans="1:10">
@@ -78378,28 +78378,28 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C2426" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2426" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2426" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2426" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2426" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2426" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2426" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2426" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2427" spans="1:10">
@@ -78407,31 +78407,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2427" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2427" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2427" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2427" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2427" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G2427" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H2427" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2427" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2427" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G2427" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H2427" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I2427" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2427" s="0" t="n">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2428" spans="1:10">
@@ -78439,31 +78439,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2428" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2428" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2428" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2428" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2428" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E2428" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2428" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="G2428" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2428" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2428" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">
@@ -78471,31 +78471,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2429" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2429" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2429" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2429" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2429" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2429" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2429" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2429" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2429" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2430" spans="1:10">
@@ -78503,31 +78503,31 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2430" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2430" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2430" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2430" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2430" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2430" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2430" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2430" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2430" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2431" spans="1:10">
@@ -78538,19 +78538,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2431" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2431" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2431" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2431" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2431" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2431" s="1" t="n">
         <x:v>0</x:v>
@@ -78559,7 +78559,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2431" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2432" spans="1:10">
@@ -78567,25 +78567,25 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2432" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2432" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2432" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2432" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2432" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2432" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2432" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2432" s="0" t="n">
         <x:v>0</x:v>
@@ -78599,95 +78599,95 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2433" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2433" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2433" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2433" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2433" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2433" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2433" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2433" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2433" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2434" spans="1:10">
       <x:c r="A2434" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B2434" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2434" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2434" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2434" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2434" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2434" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2434" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2434" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2434" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2435" spans="1:10">
       <x:c r="A2435" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B2435" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2435" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2435" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2435" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2435" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2435" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2435" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2435" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2435" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2436" spans="1:10">
@@ -78695,10 +78695,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2436" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2436" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2436" s="1" t="n">
         <x:v>0</x:v>
@@ -78707,10 +78707,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2436" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2436" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2436" s="1" t="n">
         <x:v>0</x:v>
@@ -78719,7 +78719,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2436" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2437" spans="1:10">
@@ -78727,22 +78727,22 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2437" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2437" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2437" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2437" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2437" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2437" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2437" s="1" t="n">
         <x:v>0</x:v>
@@ -78751,7 +78751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2437" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2438" spans="1:10">
@@ -78762,10 +78762,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C2438" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2438" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2438" s="1" t="n">
         <x:v>1</x:v>
@@ -78783,7 +78783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2438" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2439" spans="1:10">
@@ -78791,31 +78791,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2439" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2439" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2439" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2439" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2439" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2439" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2439" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2439" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2439" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2440" spans="1:10">
@@ -78823,31 +78823,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2440" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2440" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2440" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2440" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2440" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2440" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2440" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2440" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2440" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2441" spans="1:10">
@@ -78858,28 +78858,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2441" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2441" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E2441" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2441" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G2441" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F2441" s="1" t="n">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G2441" s="1" t="n">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="H2441" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2441" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2441" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="2442" spans="1:10">
@@ -78887,31 +78887,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2442" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2442" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2442" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E2442" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2442" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G2442" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2442" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I2442" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2442" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="2443" spans="1:10">
@@ -78919,31 +78919,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2443" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2443" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2443" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E2443" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2443" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G2443" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H2443" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I2443" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2443" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="2444" spans="1:10">
@@ -78951,31 +78951,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2444" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2444" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2444" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2444" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F2444" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2444" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2444" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2444" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2444" s="0" t="n">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2444" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2444" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2444" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2444" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H2444" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2444" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2444" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2445" spans="1:10">
@@ -78983,31 +78983,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2445" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2445" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2445" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2445" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2445" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2445" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2445" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2445" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2445" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2446" spans="1:10">
@@ -79018,19 +79018,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C2446" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2446" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2446" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2446" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2446" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2446" s="1" t="n">
         <x:v>0</x:v>
@@ -79039,7 +79039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2446" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2447" spans="1:10">
@@ -79047,22 +79047,22 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2447" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2447" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2447" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2447" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2447" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2447" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2447" s="1" t="n">
         <x:v>0</x:v>
@@ -79071,7 +79071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2447" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2448" spans="1:10">
@@ -79079,31 +79079,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2448" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2448" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2448" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2448" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2448" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F2448" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G2448" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2448" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2448" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2448" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2449" spans="1:10">
@@ -79114,28 +79114,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2449" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2449" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2449" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2449" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2449" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2449" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2449" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2449" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2450" spans="1:10">
@@ -79143,22 +79143,22 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2450" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2450" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2450" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2450" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2450" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2450" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2450" s="1" t="n">
         <x:v>1</x:v>
@@ -79167,7 +79167,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2450" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2451" spans="1:10">
@@ -79175,31 +79175,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2451" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2451" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2451" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2451" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2451" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2451" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2451" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2451" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2451" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2452" spans="1:10">
@@ -79210,28 +79210,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2452" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2452" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2452" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2452" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2452" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H2452" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2452" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2452" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2453" spans="1:10">
@@ -79239,31 +79239,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2453" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2453" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2453" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2453" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2453" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G2453" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H2453" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I2453" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2453" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2454" spans="1:10">
@@ -79271,31 +79271,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2454" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2454" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2454" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2454" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2454" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G2454" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H2454" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I2454" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2454" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="2455" spans="1:10">
@@ -79306,28 +79306,28 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2455" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2455" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2455" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2455" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2455" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2455" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2455" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2455" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2456" spans="1:10">
@@ -79335,7 +79335,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2456" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2456" s="1" t="s">
         <x:v>13</x:v>
@@ -79344,22 +79344,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2456" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2456" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2456" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2456" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2456" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2456" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2457" spans="1:10">
@@ -79367,7 +79367,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2457" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2457" s="1" t="s">
         <x:v>9</x:v>
@@ -79376,22 +79376,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2457" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2457" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2457" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2457" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2457" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2457" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="2458" spans="1:10">
@@ -79399,7 +79399,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2458" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2458" s="1" t="s">
         <x:v>13</x:v>
@@ -79414,7 +79414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2458" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2458" s="1" t="n">
         <x:v>1</x:v>
@@ -79423,7 +79423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2458" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2459" spans="1:10">
@@ -79431,7 +79431,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2459" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2459" s="1" t="s">
         <x:v>9</x:v>
@@ -79446,7 +79446,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2459" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2459" s="1" t="n">
         <x:v>1</x:v>
@@ -79455,7 +79455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2459" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2460" spans="1:10">
@@ -79463,31 +79463,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2460" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2460" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2460" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2460" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2460" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2460" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2460" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2460" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2460" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2461" spans="1:10">
@@ -79495,31 +79495,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2461" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2461" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2461" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2461" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2461" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2461" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2461" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2461" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2461" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2462" spans="1:10">
@@ -79530,28 +79530,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2462" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2462" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2462" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2462" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G2462" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2462" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2462" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2462" s="0" t="n">
-        <x:v>267</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="2463" spans="1:10">
@@ -79559,31 +79559,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2463" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2463" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G2463" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H2463" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I2463" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2463" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="2464" spans="1:10">
@@ -79591,31 +79591,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2464" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2464" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2464" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E2464" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F2464" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G2464" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H2464" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I2464" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2464" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="2465" spans="1:10">
@@ -79626,16 +79626,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C2465" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2465" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2465" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2465" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2465" s="1" t="n">
         <x:v>1</x:v>
@@ -79647,7 +79647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2465" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2466" spans="1:10">
@@ -79655,22 +79655,22 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2466" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2466" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2466" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2466" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2466" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2466" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2466" s="1" t="n">
         <x:v>0</x:v>
@@ -79679,7 +79679,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2466" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2467" spans="1:10">
@@ -79687,22 +79687,22 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2467" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2467" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2467" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2467" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2467" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2467" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2467" s="1" t="n">
         <x:v>0</x:v>
@@ -79711,7 +79711,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2467" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2468" spans="1:10">
@@ -79722,16 +79722,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C2468" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2468" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2468" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2468" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2468" s="1" t="n">
         <x:v>1</x:v>
@@ -79743,7 +79743,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2468" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2469" spans="1:10">
@@ -79751,31 +79751,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2469" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2469" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2469" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2469" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2469" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2469" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2469" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2469" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2469" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2470" spans="1:10">
@@ -79783,31 +79783,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2470" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2470" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2470" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2470" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2470" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2470" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2470" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2470" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2470" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2471" spans="1:10">
@@ -79815,10 +79815,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2471" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2471" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2471" s="1" t="n">
         <x:v>0</x:v>
@@ -79847,31 +79847,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2472" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2472" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2472" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2472" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2472" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2472" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2472" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2472" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2472" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2473" spans="1:10">
@@ -79882,28 +79882,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C2473" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2473" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2473" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2473" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2473" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2473" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2473" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2473" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2474" spans="1:10">
@@ -79911,31 +79911,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2474" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2474" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2474" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2474" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2474" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2474" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2474" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2474" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2474" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2475" spans="1:10">
@@ -79943,31 +79943,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2475" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2475" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2475" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2475" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2475" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2475" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2475" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2475" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2475" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2476" spans="1:10">
@@ -79978,28 +79978,28 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C2476" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2476" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2476" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2476" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2476" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2476" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2476" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2476" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F2476" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G2476" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H2476" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I2476" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2476" s="0" t="n">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2477" spans="1:10">
@@ -80007,16 +80007,16 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2477" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2477" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2477" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2477" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2477" s="1" t="n">
         <x:v>1</x:v>
@@ -80025,13 +80025,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2477" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2477" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2477" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2478" spans="1:10">
@@ -80039,31 +80039,31 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B2478" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2478" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2478" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2478" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F2478" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2478" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2478" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2478" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2478" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2479" spans="1:10">
@@ -80074,92 +80074,92 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C2479" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2479" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2479" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2479" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2479" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H2479" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2479" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2479" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E2479" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F2479" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G2479" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H2479" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I2479" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2479" s="0" t="n">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2480" spans="1:10">
       <x:c r="A2480" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B2480" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2480" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2480" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2480" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2480" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2480" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2480" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2480" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2480" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2481" spans="1:10">
       <x:c r="A2481" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B2481" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2481" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2481" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2481" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2481" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2481" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2481" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2481" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2481" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2482" spans="1:10">
@@ -80170,28 +80170,28 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2482" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2482" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2482" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2482" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2482" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2482" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2482" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2482" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2483" spans="1:10">
@@ -80199,31 +80199,31 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2483" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2483" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2483" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2483" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2483" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G2483" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H2483" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2483" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2483" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2484" spans="1:10">
@@ -80231,31 +80231,31 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2484" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2484" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2484" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2484" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2484" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2484" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2484" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2484" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2484" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2485" spans="1:10">
@@ -80263,13 +80263,13 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2485" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2485" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2485" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2485" s="1" t="n">
         <x:v>0</x:v>
@@ -80278,7 +80278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2485" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2485" s="1" t="n">
         <x:v>0</x:v>
@@ -80295,10 +80295,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2486" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2486" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2486" s="1" t="n">
         <x:v>0</x:v>
@@ -80307,19 +80307,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2486" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2486" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2486" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2486" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2486" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2487" spans="1:10">
@@ -80330,7 +80330,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2487" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2487" s="1" t="n">
         <x:v>1</x:v>
@@ -80339,19 +80339,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2487" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2487" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2487" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2487" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2487" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2488" spans="1:10">
@@ -80359,10 +80359,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2488" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2488" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2488" s="1" t="n">
         <x:v>0</x:v>
@@ -80371,10 +80371,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2488" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2488" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2488" s="1" t="n">
         <x:v>1</x:v>
@@ -80383,7 +80383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2488" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2489" spans="1:10">
@@ -80391,31 +80391,31 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2489" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2489" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2489" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2489" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2489" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2489" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2489" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2489" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2489" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="G2489" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H2489" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I2489" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2489" s="0" t="n">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2490" spans="1:10">
@@ -80426,7 +80426,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C2490" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2490" s="1" t="n">
         <x:v>0</x:v>
@@ -80435,19 +80435,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2490" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G2490" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H2490" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2490" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2490" s="0" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G2490" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H2490" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I2490" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2490" s="0" t="n">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2491" spans="1:10">
@@ -80455,10 +80455,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2491" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2491" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2491" s="1" t="n">
         <x:v>0</x:v>
@@ -80467,19 +80467,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2491" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2491" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2491" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2491" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2491" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2492" spans="1:10">
@@ -80487,7 +80487,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2492" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2492" s="1" t="s">
         <x:v>9</x:v>
@@ -80499,19 +80499,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2492" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2492" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2492" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2492" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2492" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2493" spans="1:10">
@@ -80519,7 +80519,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2493" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2493" s="1" t="s">
         <x:v>12</x:v>
@@ -80531,10 +80531,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2493" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2493" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2493" s="1" t="n">
         <x:v>0</x:v>
@@ -80543,7 +80543,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2493" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2494" spans="1:10">
@@ -80551,10 +80551,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2494" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2494" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2494" s="1" t="n">
         <x:v>0</x:v>
@@ -80566,7 +80566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2494" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2494" s="1" t="n">
         <x:v>0</x:v>
@@ -80575,7 +80575,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2494" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2495" spans="1:10">
@@ -80586,7 +80586,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C2495" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2495" s="1" t="n">
         <x:v>0</x:v>
@@ -80598,7 +80598,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2495" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2495" s="1" t="n">
         <x:v>0</x:v>
@@ -80607,7 +80607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2495" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2496" spans="1:10">
@@ -80615,7 +80615,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2496" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2496" s="1" t="s">
         <x:v>13</x:v>
@@ -80630,10 +80630,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2496" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2496" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2496" s="0" t="n">
         <x:v>0</x:v>
@@ -80647,30 +80647,94 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2497" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C2497" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2497" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2497" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2497" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G2497" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2497" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2497" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2497" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2498" spans="1:10">
+      <x:c r="A2498" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B2498" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C2497" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2497" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2497" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2497" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2497" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2497" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I2497" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2497" s="0" t="n">
+      <x:c r="C2498" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2498" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2498" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2498" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2498" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2498" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2498" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2498" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2499" spans="1:10">
+      <x:c r="A2499" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B2499" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C2499" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2499" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2499" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2499" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2499" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2499" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2499" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2499" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -4691,7 +4691,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F123" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G123" s="1" t="n">
         <x:v>32</x:v>
@@ -4703,7 +4703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J123" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:10">
@@ -4723,7 +4723,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F124" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G124" s="1" t="n">
         <x:v>41</x:v>
@@ -4735,7 +4735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:10">
@@ -12467,7 +12467,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F366" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G366" s="1" t="n">
         <x:v>2</x:v>
@@ -12479,7 +12479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J366" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:10">
@@ -12531,7 +12531,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F368" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G368" s="1" t="n">
         <x:v>18</x:v>
@@ -12543,7 +12543,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J368" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:10">
@@ -13145,13 +13145,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H387" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I387" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J387" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:10">
@@ -13209,13 +13209,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I389" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J389" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:10">
@@ -13808,7 +13808,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E408" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
         <x:v>0</x:v>
@@ -13823,7 +13823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J408" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="409" spans="1:10">
@@ -13840,7 +13840,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E409" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
         <x:v>0</x:v>
@@ -13855,7 +13855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J409" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:10">
@@ -18198,7 +18198,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="G545" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H545" s="1" t="n">
         <x:v>88</x:v>
@@ -18207,7 +18207,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J545" s="0" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:10">
@@ -18230,7 +18230,7 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="G546" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H546" s="1" t="n">
         <x:v>109</x:v>
@@ -18239,7 +18239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J546" s="0" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:10">
@@ -18576,7 +18576,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E557" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F557" s="1" t="n">
         <x:v>35</x:v>
@@ -18591,7 +18591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J557" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:10">
@@ -18608,7 +18608,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E558" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F558" s="1" t="n">
         <x:v>53</x:v>
@@ -18623,7 +18623,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J558" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:10">
@@ -18742,7 +18742,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G562" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H562" s="1" t="n">
         <x:v>2</x:v>
@@ -18751,7 +18751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J562" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:10">
@@ -18806,7 +18806,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G564" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H564" s="1" t="n">
         <x:v>14</x:v>
@@ -18815,7 +18815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J564" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:10">
@@ -19033,13 +19033,13 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="H571" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I571" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J571" s="0" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:10">
@@ -19062,7 +19062,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="G572" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H572" s="1" t="n">
         <x:v>64</x:v>
@@ -19071,7 +19071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J572" s="0" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:10">
@@ -19094,16 +19094,16 @@
         <x:v>405</x:v>
       </x:c>
       <x:c r="G573" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="H573" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I573" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J573" s="0" t="n">
-        <x:v>1201</x:v>
+        <x:v>1203</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:10">
@@ -22902,7 +22902,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G692" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H692" s="1" t="n">
         <x:v>4</x:v>
@@ -22911,7 +22911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J692" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="693" spans="1:10">
@@ -22934,7 +22934,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G693" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H693" s="1" t="n">
         <x:v>4</x:v>
@@ -22943,7 +22943,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J693" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="694" spans="1:10">
@@ -25654,7 +25654,7 @@
         <x:v>260</x:v>
       </x:c>
       <x:c r="G778" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H778" s="1" t="n">
         <x:v>73</x:v>
@@ -25663,7 +25663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J778" s="0" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="779" spans="1:10">
@@ -25683,10 +25683,10 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="F779" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="G779" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="H779" s="1" t="n">
         <x:v>330</x:v>
@@ -25695,7 +25695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J779" s="0" t="n">
-        <x:v>2667</x:v>
+        <x:v>2669</x:v>
       </x:c>
     </x:row>
     <x:row r="780" spans="1:10">
@@ -25715,10 +25715,10 @@
         <x:v>609</x:v>
       </x:c>
       <x:c r="F780" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="G780" s="1" t="n">
-        <x:v>1067</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="H780" s="1" t="n">
         <x:v>403</x:v>
@@ -25727,7 +25727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J780" s="0" t="n">
-        <x:v>3449</x:v>
+        <x:v>3452</x:v>
       </x:c>
     </x:row>
     <x:row r="781" spans="1:10">
@@ -26070,7 +26070,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="G791" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="H791" s="1" t="n">
         <x:v>180</x:v>
@@ -26079,7 +26079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J791" s="0" t="n">
-        <x:v>1447</x:v>
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="792" spans="1:10">
@@ -26102,7 +26102,7 @@
         <x:v>730</x:v>
       </x:c>
       <x:c r="G792" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="H792" s="1" t="n">
         <x:v>222</x:v>
@@ -26111,7 +26111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J792" s="0" t="n">
-        <x:v>1963</x:v>
+        <x:v>1964</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:10">
@@ -26288,7 +26288,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E798" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F798" s="1" t="n">
         <x:v>81</x:v>
@@ -26303,7 +26303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J798" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="799" spans="1:10">
@@ -26326,7 +26326,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="G799" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H799" s="1" t="n">
         <x:v>33</x:v>
@@ -26335,7 +26335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J799" s="0" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="800" spans="1:10">
@@ -26352,13 +26352,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E800" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F800" s="1" t="n">
         <x:v>210</x:v>
       </x:c>
       <x:c r="G800" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H800" s="1" t="n">
         <x:v>49</x:v>
@@ -26367,7 +26367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J800" s="0" t="n">
-        <x:v>508</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="801" spans="1:10">
@@ -26733,10 +26733,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D812" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E812" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F812" s="1" t="n">
         <x:v>526</x:v>
@@ -26751,7 +26751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J812" s="0" t="n">
-        <x:v>1656</x:v>
+        <x:v>1661</x:v>
       </x:c>
     </x:row>
     <x:row r="813" spans="1:10">
@@ -26765,25 +26765,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D813" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E813" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="F813" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="G813" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="H813" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="I813" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J813" s="0" t="n">
-        <x:v>2237</x:v>
+        <x:v>2249</x:v>
       </x:c>
     </x:row>
     <x:row r="814" spans="1:10">
@@ -26797,25 +26797,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D814" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E814" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="F814" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="G814" s="1" t="n">
-        <x:v>1019</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="H814" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="I814" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J814" s="0" t="n">
-        <x:v>3893</x:v>
+        <x:v>3910</x:v>
       </x:c>
     </x:row>
     <x:row r="815" spans="1:10">
@@ -26867,7 +26867,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F816" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G816" s="1" t="n">
         <x:v>35</x:v>
@@ -26879,7 +26879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J816" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="817" spans="1:10">
@@ -26899,7 +26899,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F817" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G817" s="1" t="n">
         <x:v>42</x:v>
@@ -26911,7 +26911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J817" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="818" spans="1:10">
@@ -27350,7 +27350,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H831" s="1" t="n">
         <x:v>29</x:v>
@@ -27359,7 +27359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J831" s="0" t="n">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="832" spans="1:10">
@@ -27382,7 +27382,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="G832" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H832" s="1" t="n">
         <x:v>34</x:v>
@@ -27391,7 +27391,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J832" s="0" t="n">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
     </x:row>
     <x:row r="833" spans="1:10">
@@ -55891,10 +55891,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1723" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1723" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1723" s="1" t="n">
         <x:v>1</x:v>
@@ -55903,7 +55903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1723" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1724" spans="1:10">
@@ -55923,10 +55923,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1724" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1724" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1724" s="1" t="n">
         <x:v>1</x:v>
@@ -55935,7 +55935,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1724" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="1725" spans="1:10">
@@ -56077,7 +56077,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1729" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E1729" s="1" t="n">
         <x:v>175</x:v>
@@ -56095,7 +56095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1729" s="0" t="n">
-        <x:v>918</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="1730" spans="1:10">
@@ -56109,7 +56109,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1730" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E1730" s="1" t="n">
         <x:v>375</x:v>
@@ -56127,7 +56127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1730" s="0" t="n">
-        <x:v>1669</x:v>
+        <x:v>1668</x:v>
       </x:c>
     </x:row>
     <x:row r="1731" spans="1:10">
@@ -57232,7 +57232,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1765" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1765" s="1" t="n">
         <x:v>1</x:v>
@@ -57247,7 +57247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1765" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1766" spans="1:10">
@@ -57296,7 +57296,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1767" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1767" s="1" t="n">
         <x:v>10</x:v>
@@ -57311,7 +57311,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1767" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="1768" spans="1:10">
@@ -59193,13 +59193,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H1826" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1826" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1826" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="1827" spans="1:10">
@@ -59225,13 +59225,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H1827" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I1827" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1827" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="1828" spans="1:10">
@@ -62992,7 +62992,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1945" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1945" s="1" t="n">
         <x:v>0</x:v>
@@ -63007,7 +63007,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1945" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1946" spans="1:10">
@@ -63030,7 +63030,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1946" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1946" s="1" t="n">
         <x:v>0</x:v>
@@ -63039,7 +63039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1946" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1947" spans="1:10">
@@ -63056,13 +63056,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1947" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F1947" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1947" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1947" s="1" t="n">
         <x:v>0</x:v>
@@ -63071,7 +63071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1947" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1948" spans="1:10">
@@ -63280,10 +63280,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1954" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1954" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1954" s="1" t="n">
         <x:v>8</x:v>
@@ -63295,7 +63295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1954" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="1955" spans="1:10">
@@ -63315,7 +63315,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1955" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G1955" s="1" t="n">
         <x:v>22</x:v>
@@ -63327,7 +63327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1955" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="1956" spans="1:10">
@@ -63344,10 +63344,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1956" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1956" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1956" s="1" t="n">
         <x:v>30</x:v>
@@ -63359,7 +63359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1956" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="1957" spans="1:10">
@@ -63577,13 +63577,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H1963" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1963" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1963" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1964" spans="1:10">
@@ -63609,13 +63609,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H1964" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1964" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1964" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="1965" spans="1:10">
@@ -63865,13 +63865,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1972" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1972" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1972" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1973" spans="1:10">
@@ -63897,13 +63897,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H1973" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1973" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1973" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="1974" spans="1:10">
@@ -65942,7 +65942,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2037" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2037" s="1" t="n">
         <x:v>4</x:v>
@@ -65951,7 +65951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2037" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2038" spans="1:10">
@@ -65974,7 +65974,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2038" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2038" s="1" t="n">
         <x:v>4</x:v>
@@ -65983,7 +65983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2038" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2039" spans="1:10">
@@ -75094,16 +75094,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G2323" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2323" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I2323" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2323" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2324" spans="1:10">
@@ -75158,16 +75158,16 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G2325" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H2325" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I2325" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2325" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="2326" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -835,13 +835,13 @@
     <x:t>615</x:t>
   </x:si>
   <x:si>
-    <x:t>596</x:t>
+    <x:t>597</x:t>
   </x:si>
   <x:si>
     <x:t>215</x:t>
   </x:si>
   <x:si>
-    <x:t>1722</x:t>
+    <x:t>1723</x:t>
   </x:si>
   <x:si>
     <x:t>396</x:t>
@@ -850,13 +850,13 @@
     <x:t>854</x:t>
   </x:si>
   <x:si>
-    <x:t>795</x:t>
+    <x:t>796</x:t>
   </x:si>
   <x:si>
     <x:t>263</x:t>
   </x:si>
   <x:si>
-    <x:t>2332</x:t>
+    <x:t>2333</x:t>
   </x:si>
   <x:si>
     <x:t>Extortion/Blackmail</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2024.xlsx
@@ -847,7 +847,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>620</x:t>
+    <x:t>619</x:t>
   </x:si>
   <x:si>
     <x:t>598</x:t>
@@ -856,19 +856,19 @@
     <x:t>218</x:t>
   </x:si>
   <x:si>
-    <x:t>1733</x:t>
+    <x:t>1732</x:t>
   </x:si>
   <x:si>
     <x:t>398</x:t>
   </x:si>
   <x:si>
-    <x:t>861</x:t>
+    <x:t>860</x:t>
   </x:si>
   <x:si>
     <x:t>798</x:t>
   </x:si>
   <x:si>
-    <x:t>2347</x:t>
+    <x:t>2346</x:t>
   </x:si>
   <x:si>
     <x:t>Extortion/Blackmail</x:t>
